--- a/data/processed_data/Calculations 3Mar22.xlsx
+++ b/data/processed_data/Calculations 3Mar22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abigaillewis/Desktop/FeDOC/data/processed_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A31A7CB-909A-8D48-9B48-F1B92649F795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29786515-5100-5C4E-9301-552E0C785C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13900" yWindow="500" windowWidth="14160" windowHeight="16260" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QAQC" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="331">
   <si>
     <t xml:space="preserve">No. </t>
   </si>
@@ -967,6 +967,69 @@
   <si>
     <t>b12jul21_sedTrap_</t>
   </si>
+  <si>
+    <t>(Was red)</t>
+  </si>
+  <si>
+    <t>14.1966 and 14.1844</t>
+  </si>
+  <si>
+    <t>14.1114 or 13.6323</t>
+  </si>
+  <si>
+    <t>14.1596 or 13.5535</t>
+  </si>
+  <si>
+    <t>One is supposed to be a control</t>
+  </si>
+  <si>
+    <t>13.3987 and 14.0465</t>
+  </si>
+  <si>
+    <t>14.101 or 13.4566</t>
+  </si>
+  <si>
+    <t>14.0417 or 13.5386</t>
+  </si>
+  <si>
+    <t>14.023 or 14.1015</t>
+  </si>
+  <si>
+    <t>B28Jun21_sedtrap_</t>
+  </si>
+  <si>
+    <t>B31Mar21_r4_</t>
+  </si>
+  <si>
+    <t>B6Dec21_sedtrap_</t>
+  </si>
+  <si>
+    <t>B9Nov21_sedtrap_</t>
+  </si>
+  <si>
+    <t>F25Oct21_sedtrap_</t>
+  </si>
+  <si>
+    <t>F2Aug21_sedtrap_</t>
+  </si>
+  <si>
+    <t>F2aug21_sedtrap_</t>
+  </si>
+  <si>
+    <t>F31Aug21_sedtrap_</t>
+  </si>
+  <si>
+    <t>F31Mar21_r1_</t>
+  </si>
+  <si>
+    <t>F31Mar21_r2_</t>
+  </si>
+  <si>
+    <t>F31Mar21_r4_</t>
+  </si>
+  <si>
+    <t>F6Dec21_sedtrap_</t>
+  </si>
 </sst>
 </file>
 
@@ -1168,7 +1231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1366,12 +1429,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1538,7 +1595,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
@@ -1654,7 +1711,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -43089,24 +43145,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EFE594-213A-46CB-9AEC-BACB2527F3CD}">
-  <dimension ref="A1:AI344"/>
+  <dimension ref="A1:AI377"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="A248" sqref="A248"/>
+      <selection pane="bottomLeft" activeCell="AB357" sqref="AB357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="33.1640625" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="6" width="8.83203125" customWidth="1"/>
-    <col min="7" max="8" width="8.83203125" style="48" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="48"/>
+    <col min="8" max="8" width="8.83203125" style="48"/>
     <col min="9" max="9" width="10.5" style="48" customWidth="1"/>
-    <col min="10" max="19" width="8.83203125" customWidth="1"/>
     <col min="20" max="20" width="13.1640625" customWidth="1"/>
-    <col min="21" max="27" width="8.83203125" customWidth="1"/>
     <col min="28" max="28" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="39" width="10.33203125" customWidth="1"/>
     <col min="40" max="40" width="8.83203125" bestFit="1" customWidth="1"/>
@@ -43134,7 +43189,9 @@
       <c r="G1" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="H1" s="49"/>
+      <c r="H1" s="49" t="s">
+        <v>251</v>
+      </c>
       <c r="I1" s="49" t="s">
         <v>219</v>
       </c>
@@ -44373,10 +44430,10 @@
         <v>90.18</v>
       </c>
       <c r="T17">
-        <v>0.46983780000000003</v>
+        <v>0.93850619999999996</v>
       </c>
       <c r="U17">
-        <v>5.3801388000000001</v>
+        <v>8.4609647999999993</v>
       </c>
       <c r="V17">
         <f t="shared" ref="V17:V46" si="14">(S17-(S17*P17))</f>
@@ -44384,15 +44441,15 @@
       </c>
       <c r="W17" s="52">
         <f t="shared" ref="W17:W45" si="15">100*T17/V17</f>
-        <v>0.52100000000000002</v>
+        <v>1.0407032601463737</v>
       </c>
       <c r="X17">
         <f t="shared" ref="X17:X46" si="16">100*U17/V17</f>
-        <v>5.9659999999999993</v>
+        <v>9.3823073852295398</v>
       </c>
       <c r="AB17" s="46">
         <f>100*(X19-X18)/X17</f>
-        <v>51.408510011334627</v>
+        <v>35.874751482332002</v>
       </c>
       <c r="AC17" s="46">
         <f>100*(((K18-K19)*0.027)/C18)</f>
@@ -44404,7 +44461,7 @@
       </c>
       <c r="AE17" s="46">
         <f>1000000*(X19-X18)/55.85/100</f>
-        <v>549.15518483012067</v>
+        <v>602.66418223090045</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -44457,10 +44514,10 @@
         <v>54.7</v>
       </c>
       <c r="T18">
-        <v>0.150972</v>
+        <v>0.4700375</v>
       </c>
       <c r="U18">
-        <v>1.6885889999999999</v>
+        <v>4.0435354999999999</v>
       </c>
       <c r="V18">
         <f t="shared" si="14"/>
@@ -44468,11 +44525,11 @@
       </c>
       <c r="W18" s="52">
         <f t="shared" si="15"/>
-        <v>0.17112890861408431</v>
+        <v>0.53279418953642166</v>
       </c>
       <c r="X18">
         <f t="shared" si="16"/>
-        <v>1.9140396409118776</v>
+        <v>4.5834049827604177</v>
       </c>
       <c r="AB18" s="46"/>
       <c r="AC18" s="46"/>
@@ -44525,10 +44582,10 @@
         <v>92.69</v>
       </c>
       <c r="T19">
-        <v>0.40227459999999998</v>
+        <v>0.76414400000000005</v>
       </c>
       <c r="U19">
-        <v>4.4861959999999996</v>
+        <v>7.1595136000000004</v>
       </c>
       <c r="V19">
         <f t="shared" si="14"/>
@@ -44536,11 +44593,11 @@
       </c>
       <c r="W19" s="52">
         <f t="shared" si="15"/>
-        <v>0.44664978618050333</v>
+        <v>0.84843724712202695</v>
       </c>
       <c r="X19">
         <f t="shared" si="16"/>
-        <v>4.9810713481881015</v>
+        <v>7.9492844405199969</v>
       </c>
       <c r="AB19" s="46"/>
       <c r="AC19" s="46"/>
@@ -44592,10 +44649,10 @@
         <v>90.23</v>
       </c>
       <c r="T20">
-        <v>0.44212699999999999</v>
+        <v>1.1166655999999999</v>
       </c>
       <c r="U20">
-        <v>4.3662296999999999</v>
+        <v>9.4663871999999998</v>
       </c>
       <c r="V20">
         <f t="shared" si="14"/>
@@ -44603,15 +44660,15 @@
       </c>
       <c r="W20" s="52">
         <f t="shared" si="15"/>
-        <v>0.48999999999999994</v>
+        <v>1.2375768591377589</v>
       </c>
       <c r="X20">
         <f t="shared" si="16"/>
-        <v>4.8389999999999995</v>
+        <v>10.491396652997892</v>
       </c>
       <c r="AB20" s="46">
         <f>100*(X22-X21)/X20</f>
-        <v>31.727573641125179</v>
+        <v>22.602789549021278</v>
       </c>
       <c r="AC20" s="46">
         <f>100*(((K21-K22)*0.027)/C21)</f>
@@ -44623,7 +44680,7 @@
       </c>
       <c r="AE20" s="46">
         <f>1000000*(X22-X21)/55.85/100</f>
-        <v>274.89656016008007</v>
+        <v>424.59235563655784</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -44676,10 +44733,10 @@
         <v>63.25</v>
       </c>
       <c r="T21">
-        <v>0.1789975</v>
+        <v>0.62139900000000003</v>
       </c>
       <c r="U21">
-        <v>1.9164749999999999</v>
+        <v>4.8203670000000001</v>
       </c>
       <c r="V21">
         <f t="shared" si="14"/>
@@ -44687,11 +44744,11 @@
       </c>
       <c r="W21" s="52">
         <f t="shared" si="15"/>
-        <v>0.19888767395625936</v>
+        <v>0.69044875883040613</v>
       </c>
       <c r="X21">
         <f t="shared" si="16"/>
-        <v>2.1294333996023527</v>
+        <v>5.3560054204416936</v>
       </c>
       <c r="AB21" s="46"/>
       <c r="AC21" s="46"/>
@@ -44744,10 +44801,10 @@
         <v>93.29</v>
       </c>
       <c r="T22">
-        <v>0.34237430000000002</v>
+        <v>0.94979100000000005</v>
       </c>
       <c r="U22">
-        <v>3.6513705999999999</v>
+        <v>7.6991829999999997</v>
       </c>
       <c r="V22">
         <f t="shared" si="14"/>
@@ -44755,11 +44812,11 @@
       </c>
       <c r="W22" s="52">
         <f t="shared" si="15"/>
-        <v>0.34362702159718417</v>
+        <v>0.95326621323449545</v>
       </c>
       <c r="X22">
         <f t="shared" si="16"/>
-        <v>3.6647306880963999</v>
+        <v>7.7273537266718693</v>
       </c>
       <c r="AB22" s="46"/>
       <c r="AC22" s="46"/>
@@ -44811,10 +44868,10 @@
         <v>93.85</v>
       </c>
       <c r="T23">
-        <v>0.54526850000000004</v>
+        <v>0.92405879999999996</v>
       </c>
       <c r="U23">
-        <v>5.1777044999999999</v>
+        <v>8.3493156000000006</v>
       </c>
       <c r="V23">
         <f t="shared" si="14"/>
@@ -44822,15 +44879,15 @@
       </c>
       <c r="W23" s="52">
         <f t="shared" si="15"/>
-        <v>0.58100000000000007</v>
+        <v>0.98461246670218439</v>
       </c>
       <c r="X23">
         <f t="shared" si="16"/>
-        <v>5.5170000000000003</v>
+        <v>8.8964470964304763</v>
       </c>
       <c r="AB23" s="46">
         <f>100*(X25-X24)/X23</f>
-        <v>23.221121489032786</v>
+        <v>22.361962489148599</v>
       </c>
       <c r="AC23" s="46">
         <f>100*(((K24-K25)*0.027)/C24)</f>
@@ -44842,7 +44899,7 @@
       </c>
       <c r="AE23" s="46">
         <f>1000000*(X25-X24)/55.85/100</f>
-        <v>229.38393420768824</v>
+        <v>356.2077283027275</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -44895,10 +44952,10 @@
         <v>62.72</v>
       </c>
       <c r="T24">
-        <v>0.24899840000000001</v>
+        <v>0.49133250000000001</v>
       </c>
       <c r="U24">
-        <v>2.4906112</v>
+        <v>4.2607249999999999</v>
       </c>
       <c r="V24">
         <f t="shared" si="14"/>
@@ -44906,11 +44963,11 @@
       </c>
       <c r="W24" s="52">
         <f t="shared" si="15"/>
-        <v>0.28855179599126812</v>
+        <v>0.56938066792348774</v>
       </c>
       <c r="X24">
         <f t="shared" si="16"/>
-        <v>2.8862447906330626</v>
+        <v>4.9375411688384174</v>
       </c>
       <c r="AB24" s="46"/>
       <c r="AC24" s="46"/>
@@ -44963,10 +45020,10 @@
         <v>95.91</v>
       </c>
       <c r="T25">
-        <v>0.46420440000000002</v>
+        <v>0.82659000000000005</v>
       </c>
       <c r="U25">
-        <v>4.3025225999999996</v>
+        <v>7.1516380000000002</v>
       </c>
       <c r="V25">
         <f t="shared" si="14"/>
@@ -44974,11 +45031,11 @@
       </c>
       <c r="W25" s="52">
         <f t="shared" si="15"/>
-        <v>0.44962090204649419</v>
+        <v>0.80062175503422994</v>
       </c>
       <c r="X25">
         <f t="shared" si="16"/>
-        <v>4.1673540631830015</v>
+        <v>6.9269613314091503</v>
       </c>
       <c r="AB25" s="46"/>
       <c r="AC25" s="46"/>
@@ -48991,7 +49048,12 @@
         <v>13508.6</v>
       </c>
       <c r="E87" s="55"/>
-      <c r="F87" s="56"/>
+      <c r="F87" s="57">
+        <v>13.5869</v>
+      </c>
+      <c r="H87" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="I87" s="48">
         <v>3</v>
       </c>
@@ -49044,7 +49106,12 @@
         <v>13467.9</v>
       </c>
       <c r="E88" s="55"/>
-      <c r="F88" s="56"/>
+      <c r="F88" s="57">
+        <v>13.5625</v>
+      </c>
+      <c r="H88" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="I88" s="48">
         <v>3</v>
       </c>
@@ -49170,7 +49237,12 @@
       <c r="E90">
         <v>14106.6</v>
       </c>
-      <c r="F90" s="56"/>
+      <c r="F90" s="48">
+        <v>14.1066</v>
+      </c>
+      <c r="H90" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="I90" s="48">
         <v>1</v>
       </c>
@@ -49225,7 +49297,12 @@
       <c r="E91">
         <v>13614.2</v>
       </c>
-      <c r="F91" s="56"/>
+      <c r="F91" s="48">
+        <v>13.6174</v>
+      </c>
+      <c r="H91" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="I91" s="48">
         <v>1</v>
       </c>
@@ -49351,7 +49428,12 @@
       <c r="E93">
         <v>14208.9</v>
       </c>
-      <c r="F93" s="56"/>
+      <c r="F93" s="48">
+        <v>14.2105</v>
+      </c>
+      <c r="H93" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="I93" s="48">
         <v>1</v>
       </c>
@@ -49406,7 +49488,12 @@
       <c r="E94">
         <v>14142.1</v>
       </c>
-      <c r="F94" s="56"/>
+      <c r="F94" s="48">
+        <v>14.140700000000001</v>
+      </c>
+      <c r="H94" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="I94" s="48">
         <v>1</v>
       </c>
@@ -49530,8 +49617,12 @@
       <c r="E96">
         <v>14125.5</v>
       </c>
-      <c r="F96" s="56"/>
-      <c r="H96"/>
+      <c r="F96" s="48">
+        <v>14.1257</v>
+      </c>
+      <c r="H96" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M96">
         <f t="shared" si="28"/>
         <v>100.07</v>
@@ -49583,8 +49674,12 @@
       <c r="E97">
         <v>14143.8</v>
       </c>
-      <c r="F97" s="56"/>
-      <c r="H97"/>
+      <c r="F97" s="48">
+        <v>14.1435</v>
+      </c>
+      <c r="H97" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M97">
         <f t="shared" si="28"/>
         <v>100.02</v>
@@ -49703,8 +49798,12 @@
         <v>14045.4</v>
       </c>
       <c r="E99" s="55"/>
-      <c r="F99" s="56"/>
-      <c r="H99"/>
+      <c r="F99" s="48">
+        <v>14.1213</v>
+      </c>
+      <c r="H99" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M99">
         <f t="shared" si="28"/>
         <v>99.96</v>
@@ -49754,8 +49853,12 @@
         <v>13534.6</v>
       </c>
       <c r="E100" s="55"/>
-      <c r="F100" s="56"/>
-      <c r="H100"/>
+      <c r="F100" s="48">
+        <v>13.628</v>
+      </c>
+      <c r="H100" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M100">
         <f t="shared" si="28"/>
         <v>99.76</v>
@@ -49874,8 +49977,12 @@
         <v>14060</v>
       </c>
       <c r="E102" s="55"/>
-      <c r="F102" s="56"/>
-      <c r="H102"/>
+      <c r="F102" s="48">
+        <v>14.138500000000001</v>
+      </c>
+      <c r="H102" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M102">
         <f t="shared" si="28"/>
         <v>99.97</v>
@@ -49925,8 +50032,12 @@
         <v>14069</v>
       </c>
       <c r="E103" s="55"/>
-      <c r="F103" s="56"/>
-      <c r="H103"/>
+      <c r="F103" s="48">
+        <v>14.1608</v>
+      </c>
+      <c r="H103" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M103">
         <f t="shared" si="28"/>
         <v>99.76</v>
@@ -50048,7 +50159,9 @@
       <c r="F105">
         <v>14156.7</v>
       </c>
-      <c r="H105"/>
+      <c r="H105" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M105">
         <f t="shared" si="28"/>
         <v>100.01</v>
@@ -50099,9 +50212,11 @@
       </c>
       <c r="E106" s="55"/>
       <c r="F106">
-        <v>13569</v>
-      </c>
-      <c r="H106"/>
+        <v>13.569000000000001</v>
+      </c>
+      <c r="H106" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M106">
         <f t="shared" si="28"/>
         <v>99.97</v>
@@ -50220,8 +50335,12 @@
         <v>14081.8</v>
       </c>
       <c r="E108" s="55"/>
-      <c r="F108" s="56"/>
-      <c r="H108"/>
+      <c r="F108" s="48">
+        <v>14.160399999999999</v>
+      </c>
+      <c r="H108" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M108">
         <f t="shared" si="28"/>
         <v>99.76</v>
@@ -50271,8 +50390,12 @@
         <v>14103</v>
       </c>
       <c r="E109" s="55"/>
-      <c r="F109" s="56"/>
-      <c r="H109"/>
+      <c r="F109" s="48">
+        <v>14.1356</v>
+      </c>
+      <c r="H109" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M109">
         <f t="shared" si="28"/>
         <v>99.63</v>
@@ -50391,8 +50514,12 @@
         <v>14070</v>
       </c>
       <c r="E111" s="55"/>
-      <c r="F111" s="56"/>
-      <c r="H111"/>
+      <c r="F111" s="48">
+        <v>14.152699999999999</v>
+      </c>
+      <c r="H111" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M111">
         <f t="shared" si="28"/>
         <v>99.8</v>
@@ -50442,8 +50569,12 @@
         <v>14042.1</v>
       </c>
       <c r="E112" s="55"/>
-      <c r="F112" s="56"/>
-      <c r="H112"/>
+      <c r="F112" s="48">
+        <v>14.1356</v>
+      </c>
+      <c r="H112" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M112">
         <f t="shared" si="28"/>
         <v>100</v>
@@ -50562,8 +50693,12 @@
         <v>14148.9</v>
       </c>
       <c r="E114" s="55"/>
-      <c r="F114" s="56"/>
-      <c r="H114"/>
+      <c r="F114" s="48">
+        <v>14.221500000000001</v>
+      </c>
+      <c r="H114" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M114">
         <f t="shared" si="28"/>
         <v>99.42</v>
@@ -50613,8 +50748,12 @@
         <v>13992.3</v>
       </c>
       <c r="E115" s="55"/>
-      <c r="F115" s="56"/>
-      <c r="H115"/>
+      <c r="F115" s="48">
+        <v>14.082700000000001</v>
+      </c>
+      <c r="H115" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M115">
         <f t="shared" si="28"/>
         <v>99.65</v>
@@ -50733,8 +50872,12 @@
         <v>14091.2</v>
       </c>
       <c r="E117" s="55"/>
-      <c r="F117" s="56"/>
-      <c r="H117"/>
+      <c r="F117" s="48">
+        <v>14.1678</v>
+      </c>
+      <c r="H117" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M117">
         <f t="shared" si="28"/>
         <v>99.32</v>
@@ -50784,8 +50927,12 @@
         <v>14039.6</v>
       </c>
       <c r="E118" s="55"/>
-      <c r="F118" s="56"/>
-      <c r="H118"/>
+      <c r="F118" s="48">
+        <v>14.129799999999999</v>
+      </c>
+      <c r="H118" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M118">
         <f t="shared" si="28"/>
         <v>99.29</v>
@@ -50906,8 +51053,12 @@
         <v>14054.9</v>
       </c>
       <c r="E120" s="55"/>
-      <c r="F120" s="56"/>
-      <c r="H120"/>
+      <c r="F120" s="48">
+        <v>14.128299999999999</v>
+      </c>
+      <c r="H120" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M120">
         <f t="shared" si="28"/>
         <v>99.57</v>
@@ -50957,8 +51108,12 @@
         <v>13423.4</v>
       </c>
       <c r="E121" s="55"/>
-      <c r="F121" s="56"/>
-      <c r="H121"/>
+      <c r="F121" s="48">
+        <v>13.515000000000001</v>
+      </c>
+      <c r="H121" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M121">
         <f t="shared" si="28"/>
         <v>99.23</v>
@@ -51077,8 +51232,12 @@
         <v>14071.1</v>
       </c>
       <c r="E123" s="55"/>
-      <c r="F123" s="56"/>
-      <c r="H123"/>
+      <c r="F123" s="48">
+        <v>14.148300000000001</v>
+      </c>
+      <c r="H123" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M123">
         <f t="shared" si="28"/>
         <v>99.61</v>
@@ -51128,8 +51287,12 @@
         <v>14083.5</v>
       </c>
       <c r="E124" s="55"/>
-      <c r="F124" s="56"/>
-      <c r="H124"/>
+      <c r="F124" s="57">
+        <v>14.158300000000001</v>
+      </c>
+      <c r="H124" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M124">
         <f t="shared" si="28"/>
         <v>99.48</v>
@@ -51299,8 +51462,12 @@
         <v>14014.2</v>
       </c>
       <c r="E127" s="55"/>
-      <c r="F127" s="56"/>
-      <c r="H127"/>
+      <c r="F127" s="48">
+        <v>14.107799999999999</v>
+      </c>
+      <c r="H127" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M127">
         <f t="shared" si="28"/>
         <v>99.74</v>
@@ -51419,8 +51586,12 @@
         <v>14069.7</v>
       </c>
       <c r="E129" s="55"/>
-      <c r="F129" s="56"/>
-      <c r="H129"/>
+      <c r="F129" s="48">
+        <v>14.1411</v>
+      </c>
+      <c r="H129" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M129">
         <f t="shared" si="28"/>
         <v>99.5</v>
@@ -51473,8 +51644,12 @@
         <v>13572</v>
       </c>
       <c r="E130" s="55"/>
-      <c r="F130" s="56"/>
-      <c r="H130"/>
+      <c r="F130" s="48">
+        <v>13.662800000000001</v>
+      </c>
+      <c r="H130" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M130">
         <f t="shared" si="28"/>
         <v>99.19</v>
@@ -51589,10 +51764,14 @@
       <c r="C132">
         <v>99.37</v>
       </c>
-      <c r="D132" s="56"/>
+      <c r="D132" s="48">
+        <v>13.495699999999999</v>
+      </c>
       <c r="E132" s="55"/>
       <c r="F132" s="56"/>
-      <c r="H132"/>
+      <c r="H132" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M132">
         <f t="shared" si="28"/>
         <v>99.37</v>
@@ -51638,10 +51817,16 @@
       <c r="C133">
         <v>100.04</v>
       </c>
-      <c r="D133" s="56"/>
+      <c r="D133" s="48">
+        <v>13.4259</v>
+      </c>
       <c r="E133" s="55"/>
-      <c r="F133" s="56"/>
-      <c r="H133"/>
+      <c r="F133" s="48">
+        <v>13.5204</v>
+      </c>
+      <c r="H133" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M133">
         <f t="shared" si="28"/>
         <v>100.04</v>
@@ -51811,8 +51996,12 @@
         <v>14120.8</v>
       </c>
       <c r="E136" s="55"/>
-      <c r="F136" s="56"/>
-      <c r="H136"/>
+      <c r="F136" s="48">
+        <v>14.2135</v>
+      </c>
+      <c r="H136" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M136">
         <f t="shared" si="28"/>
         <v>99.86</v>
@@ -51931,8 +52120,12 @@
         <v>14061.1</v>
       </c>
       <c r="E138" s="55"/>
-      <c r="F138" s="56"/>
-      <c r="H138"/>
+      <c r="F138" s="48">
+        <v>14.136799999999999</v>
+      </c>
+      <c r="H138" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M138">
         <f t="shared" si="28"/>
         <v>99.33</v>
@@ -51982,8 +52175,12 @@
         <v>14087.3</v>
       </c>
       <c r="E139" s="55"/>
-      <c r="F139" s="56"/>
-      <c r="H139"/>
+      <c r="F139" s="48">
+        <v>14.1798</v>
+      </c>
+      <c r="H139" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M139">
         <f t="shared" si="28"/>
         <v>99.41</v>
@@ -52098,10 +52295,16 @@
       <c r="C141">
         <v>99.63</v>
       </c>
-      <c r="D141" s="56"/>
+      <c r="D141" s="48">
+        <v>14.056699999999999</v>
+      </c>
       <c r="E141" s="55"/>
-      <c r="F141" s="56"/>
-      <c r="H141"/>
+      <c r="F141" s="48">
+        <v>14.1335</v>
+      </c>
+      <c r="H141" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M141">
         <f t="shared" si="28"/>
         <v>99.63</v>
@@ -52147,10 +52350,16 @@
       <c r="C142">
         <v>100.01</v>
       </c>
-      <c r="D142" s="56"/>
+      <c r="D142" s="48">
+        <v>14.0916</v>
+      </c>
       <c r="E142" s="55"/>
-      <c r="F142" s="56"/>
-      <c r="H142"/>
+      <c r="F142" s="48">
+        <v>14.148</v>
+      </c>
+      <c r="H142" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M142">
         <f t="shared" si="28"/>
         <v>100.01</v>
@@ -52271,8 +52480,12 @@
       <c r="E144" s="48">
         <v>14173.8</v>
       </c>
-      <c r="F144" s="56"/>
-      <c r="H144"/>
+      <c r="F144" s="48">
+        <v>14.173999999999999</v>
+      </c>
+      <c r="H144" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M144">
         <f t="shared" si="28"/>
         <v>99.99</v>
@@ -52324,8 +52537,12 @@
       <c r="E145" s="48">
         <v>14183.1</v>
       </c>
-      <c r="F145" s="56"/>
-      <c r="H145"/>
+      <c r="F145" s="48">
+        <v>14.1846</v>
+      </c>
+      <c r="H145" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M145">
         <f t="shared" si="28"/>
         <v>99.48</v>
@@ -52374,10 +52591,16 @@
       <c r="C146">
         <v>99.42</v>
       </c>
-      <c r="D146" s="56"/>
+      <c r="D146" s="48">
+        <v>16.002890000000001</v>
+      </c>
       <c r="E146" s="55"/>
-      <c r="F146" s="56"/>
-      <c r="H146"/>
+      <c r="F146" s="48">
+        <v>14.1692</v>
+      </c>
+      <c r="H146" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M146">
         <f t="shared" si="28"/>
         <v>99.42</v>
@@ -52438,10 +52661,16 @@
       <c r="C147">
         <v>99.85</v>
       </c>
-      <c r="D147" s="56"/>
+      <c r="D147" s="48">
+        <v>14.097300000000001</v>
+      </c>
       <c r="E147" s="55"/>
-      <c r="F147" s="56"/>
-      <c r="H147"/>
+      <c r="F147" s="48">
+        <v>14.176299999999999</v>
+      </c>
+      <c r="H147" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M147">
         <f t="shared" si="28"/>
         <v>99.85</v>
@@ -52487,10 +52716,16 @@
       <c r="C148">
         <v>99.72</v>
       </c>
-      <c r="D148" s="56"/>
+      <c r="D148" s="48">
+        <v>14.063800000000001</v>
+      </c>
       <c r="E148" s="55"/>
-      <c r="F148" s="56"/>
-      <c r="H148"/>
+      <c r="F148" s="48">
+        <v>14.157400000000001</v>
+      </c>
+      <c r="H148" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M148">
         <f t="shared" ref="M148:M190" si="128">C148</f>
         <v>99.72</v>
@@ -52942,7 +53177,12 @@
         <v>13426.9</v>
       </c>
       <c r="E156" s="55"/>
-      <c r="F156" s="56"/>
+      <c r="F156" s="48">
+        <v>13.503500000000001</v>
+      </c>
+      <c r="H156" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M156">
         <f t="shared" si="128"/>
         <v>99.98</v>
@@ -52992,7 +53232,12 @@
         <v>13480.8</v>
       </c>
       <c r="E157" s="55"/>
-      <c r="F157" s="56"/>
+      <c r="F157" s="48">
+        <v>13.5754</v>
+      </c>
+      <c r="H157" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M157">
         <f t="shared" si="128"/>
         <v>99.58</v>
@@ -53110,7 +53355,12 @@
         <v>14064.7</v>
       </c>
       <c r="E159" s="55"/>
-      <c r="F159" s="56"/>
+      <c r="F159" s="48">
+        <v>14.139200000000001</v>
+      </c>
+      <c r="H159" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M159">
         <f t="shared" si="128"/>
         <v>99.27</v>
@@ -53160,7 +53410,12 @@
         <v>14043.6</v>
       </c>
       <c r="E160" s="55"/>
-      <c r="F160" s="56"/>
+      <c r="F160" s="48">
+        <v>14.147</v>
+      </c>
+      <c r="H160" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M160">
         <f t="shared" si="128"/>
         <v>99.49</v>
@@ -53211,7 +53466,12 @@
       </c>
       <c r="D161" s="56"/>
       <c r="E161" s="55"/>
-      <c r="F161" s="56"/>
+      <c r="F161" s="48">
+        <v>14.163500000000001</v>
+      </c>
+      <c r="H161" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M161">
         <f t="shared" si="128"/>
         <v>100.09</v>
@@ -53272,9 +53532,14 @@
       <c r="C162">
         <v>99.13</v>
       </c>
-      <c r="D162" s="56"/>
+      <c r="D162" s="48">
+        <v>13.554600000000001</v>
+      </c>
       <c r="E162" s="55"/>
       <c r="F162" s="56"/>
+      <c r="H162" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M162">
         <f t="shared" si="128"/>
         <v>99.13</v>
@@ -53320,9 +53585,16 @@
       <c r="C163">
         <v>99.29</v>
       </c>
-      <c r="D163" s="56"/>
+      <c r="D163" s="48">
+        <v>14.115600000000001</v>
+      </c>
       <c r="E163" s="55"/>
-      <c r="F163" s="56"/>
+      <c r="F163" s="48">
+        <v>14.2043</v>
+      </c>
+      <c r="H163" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M163">
         <f t="shared" si="128"/>
         <v>99.29</v>
@@ -53373,7 +53645,12 @@
       </c>
       <c r="D164" s="56"/>
       <c r="E164" s="55"/>
-      <c r="F164" s="56"/>
+      <c r="F164" s="48">
+        <v>14.168900000000001</v>
+      </c>
+      <c r="H164" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M164">
         <f t="shared" si="128"/>
         <v>100.04</v>
@@ -53434,9 +53711,16 @@
       <c r="C165">
         <v>99.73</v>
       </c>
-      <c r="D165" s="56"/>
+      <c r="D165" s="48">
+        <v>13.4574</v>
+      </c>
       <c r="E165" s="55"/>
-      <c r="F165" s="56"/>
+      <c r="F165" s="48">
+        <v>13.528600000000001</v>
+      </c>
+      <c r="H165" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M165">
         <f t="shared" si="128"/>
         <v>99.73</v>
@@ -53482,9 +53766,16 @@
       <c r="C166">
         <v>99.76</v>
       </c>
-      <c r="D166" s="56"/>
+      <c r="D166" s="48">
+        <v>13.3987</v>
+      </c>
       <c r="E166" s="55"/>
-      <c r="F166" s="56"/>
+      <c r="F166" s="48">
+        <v>13.4885</v>
+      </c>
+      <c r="H166" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M166">
         <f t="shared" si="128"/>
         <v>99.76</v>
@@ -53697,7 +53988,12 @@
       </c>
       <c r="D170" s="56"/>
       <c r="E170" s="55"/>
-      <c r="F170" s="56"/>
+      <c r="F170" s="48">
+        <v>13.630699999999999</v>
+      </c>
+      <c r="H170" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M170">
         <f t="shared" si="128"/>
         <v>99.52</v>
@@ -53758,9 +54054,16 @@
       <c r="C171">
         <v>99.54</v>
       </c>
-      <c r="D171" s="56"/>
+      <c r="D171" s="48">
+        <v>13.5314</v>
+      </c>
       <c r="E171" s="55"/>
-      <c r="F171" s="56"/>
+      <c r="F171" s="48">
+        <v>13.6046</v>
+      </c>
+      <c r="H171" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M171">
         <f t="shared" si="128"/>
         <v>99.54</v>
@@ -53806,9 +54109,16 @@
       <c r="C172">
         <v>99.76</v>
       </c>
-      <c r="D172" s="56"/>
+      <c r="D172" s="48">
+        <v>13.4291</v>
+      </c>
       <c r="E172" s="55"/>
-      <c r="F172" s="56"/>
+      <c r="F172" s="48">
+        <v>13.5207</v>
+      </c>
+      <c r="H172" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M172">
         <f t="shared" si="128"/>
         <v>99.76</v>
@@ -53859,7 +54169,12 @@
       </c>
       <c r="D173" s="56"/>
       <c r="E173" s="55"/>
-      <c r="F173" s="56"/>
+      <c r="F173" s="48">
+        <v>14.0947</v>
+      </c>
+      <c r="H173" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M173">
         <f t="shared" si="128"/>
         <v>99.49</v>
@@ -53920,9 +54235,16 @@
       <c r="C174">
         <v>100.01</v>
       </c>
-      <c r="D174" s="56"/>
+      <c r="D174" s="48">
+        <v>13.5565</v>
+      </c>
       <c r="E174" s="55"/>
-      <c r="F174" s="56"/>
+      <c r="F174" s="48">
+        <v>13.6326</v>
+      </c>
+      <c r="H174" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M174">
         <f t="shared" si="128"/>
         <v>100.01</v>
@@ -53968,9 +54290,16 @@
       <c r="C175">
         <v>100.03</v>
       </c>
-      <c r="D175" s="56"/>
+      <c r="D175" s="48">
+        <v>13.470599999999999</v>
+      </c>
       <c r="E175" s="55"/>
-      <c r="F175" s="56"/>
+      <c r="F175" s="48">
+        <v>13.5618</v>
+      </c>
+      <c r="H175" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M175">
         <f t="shared" si="128"/>
         <v>100.03</v>
@@ -54021,7 +54350,12 @@
       </c>
       <c r="D176" s="56"/>
       <c r="E176" s="55"/>
-      <c r="F176" s="56"/>
+      <c r="F176" s="48">
+        <v>14.1823</v>
+      </c>
+      <c r="H176" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M176">
         <f t="shared" si="128"/>
         <v>88.45</v>
@@ -54084,7 +54418,12 @@
       </c>
       <c r="D177" s="56"/>
       <c r="E177" s="55"/>
-      <c r="F177" s="56"/>
+      <c r="F177" s="48">
+        <v>13.5372</v>
+      </c>
+      <c r="H177" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M177">
         <f t="shared" si="128"/>
         <v>99.55</v>
@@ -54132,7 +54471,12 @@
       </c>
       <c r="D178" s="56"/>
       <c r="E178" s="55"/>
-      <c r="F178" s="56"/>
+      <c r="F178" s="48">
+        <v>14.1204</v>
+      </c>
+      <c r="H178" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M178">
         <f t="shared" si="128"/>
         <v>100.09</v>
@@ -54183,7 +54527,12 @@
       </c>
       <c r="D179" s="56"/>
       <c r="E179" s="55"/>
-      <c r="F179" s="56"/>
+      <c r="F179" s="48">
+        <v>13.511900000000001</v>
+      </c>
+      <c r="H179" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M179">
         <f t="shared" si="128"/>
         <v>100.08</v>
@@ -54246,7 +54595,12 @@
       </c>
       <c r="D180" s="56"/>
       <c r="E180" s="55"/>
-      <c r="F180" s="56"/>
+      <c r="F180" s="48">
+        <v>13.5756</v>
+      </c>
+      <c r="H180" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M180">
         <f t="shared" si="128"/>
         <v>100.07</v>
@@ -54294,7 +54648,12 @@
       </c>
       <c r="D181" s="56"/>
       <c r="E181" s="55"/>
-      <c r="F181" s="56"/>
+      <c r="F181" s="48">
+        <v>14.1731</v>
+      </c>
+      <c r="H181" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M181">
         <f t="shared" si="128"/>
         <v>100.06</v>
@@ -54345,7 +54704,12 @@
       </c>
       <c r="D182" s="56"/>
       <c r="E182" s="55"/>
-      <c r="F182" s="56"/>
+      <c r="F182" s="48">
+        <v>14.167199999999999</v>
+      </c>
+      <c r="H182" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M182">
         <f t="shared" si="128"/>
         <v>100.07</v>
@@ -54406,9 +54770,16 @@
       <c r="C183">
         <v>99.47</v>
       </c>
-      <c r="D183" s="56"/>
+      <c r="D183" s="48">
+        <v>14.059699999999999</v>
+      </c>
       <c r="E183" s="55"/>
-      <c r="F183" s="56"/>
+      <c r="F183" s="48">
+        <v>14.126899999999999</v>
+      </c>
+      <c r="H183" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M183">
         <f t="shared" si="128"/>
         <v>99.47</v>
@@ -54454,9 +54825,16 @@
       <c r="C184">
         <v>99.25</v>
       </c>
-      <c r="D184" s="56"/>
+      <c r="D184" s="48">
+        <v>13.4346</v>
+      </c>
       <c r="E184" s="55"/>
-      <c r="F184" s="56"/>
+      <c r="F184" s="48">
+        <v>13.525</v>
+      </c>
+      <c r="H184" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M184">
         <f t="shared" si="128"/>
         <v>99.25</v>
@@ -54507,7 +54885,12 @@
       </c>
       <c r="D185" s="56"/>
       <c r="E185" s="55"/>
-      <c r="F185" s="56"/>
+      <c r="F185" s="48">
+        <v>13.6439</v>
+      </c>
+      <c r="H185" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M185">
         <f t="shared" si="128"/>
         <v>99.57</v>
@@ -54568,9 +54951,16 @@
       <c r="C186">
         <v>99.87</v>
       </c>
-      <c r="D186" s="56"/>
+      <c r="D186" s="48" t="s">
+        <v>315</v>
+      </c>
       <c r="E186" s="55"/>
-      <c r="F186" s="56"/>
+      <c r="F186" s="48">
+        <v>14.1586</v>
+      </c>
+      <c r="H186" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M186">
         <f t="shared" si="128"/>
         <v>99.87</v>
@@ -54616,9 +55006,16 @@
       <c r="C187">
         <v>99.52</v>
       </c>
-      <c r="D187" s="56"/>
+      <c r="D187" s="48">
+        <v>13.630800000000001</v>
+      </c>
       <c r="E187" s="55"/>
-      <c r="F187" s="56"/>
+      <c r="F187" s="48">
+        <v>13.591100000000001</v>
+      </c>
+      <c r="H187" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M187">
         <f t="shared" si="128"/>
         <v>99.52</v>
@@ -54732,9 +55129,16 @@
       <c r="C189">
         <v>99.93</v>
       </c>
-      <c r="D189" s="56"/>
+      <c r="D189" s="48">
+        <v>13.5021</v>
+      </c>
       <c r="E189" s="55"/>
-      <c r="F189" s="56"/>
+      <c r="F189" s="48">
+        <v>13.574199999999999</v>
+      </c>
+      <c r="H189" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M189">
         <f t="shared" si="128"/>
         <v>99.93</v>
@@ -54780,9 +55184,16 @@
       <c r="C190">
         <v>99.91</v>
       </c>
-      <c r="D190" s="56"/>
+      <c r="D190" s="48">
+        <v>13.488099999999999</v>
+      </c>
       <c r="E190" s="55"/>
-      <c r="F190" s="56"/>
+      <c r="F190" s="48">
+        <v>13.5802</v>
+      </c>
+      <c r="H190" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M190">
         <f t="shared" si="128"/>
         <v>99.91</v>
@@ -54894,9 +55305,14 @@
       <c r="C192">
         <v>99.21</v>
       </c>
-      <c r="D192" s="56"/>
+      <c r="D192" s="48">
+        <v>14.053800000000001</v>
+      </c>
       <c r="E192" s="55"/>
       <c r="F192" s="56"/>
+      <c r="H192" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M192">
         <f t="shared" si="200"/>
         <v>99.21</v>
@@ -54942,9 +55358,16 @@
       <c r="C193">
         <v>99.4</v>
       </c>
-      <c r="D193" s="56"/>
+      <c r="D193" s="48">
+        <v>14.0586</v>
+      </c>
       <c r="E193" s="55"/>
-      <c r="F193" s="56"/>
+      <c r="F193" s="48">
+        <v>14.1585</v>
+      </c>
+      <c r="H193" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M193">
         <f t="shared" si="200"/>
         <v>99.4</v>
@@ -54995,7 +55418,12 @@
       </c>
       <c r="D194" s="56"/>
       <c r="E194" s="55"/>
-      <c r="F194" s="56"/>
+      <c r="F194" s="48">
+        <v>13.5158</v>
+      </c>
+      <c r="H194" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M194">
         <f t="shared" si="200"/>
         <v>100</v>
@@ -55057,9 +55485,16 @@
       <c r="C195" s="56">
         <v>100</v>
       </c>
-      <c r="D195" s="56"/>
+      <c r="D195" s="48">
+        <v>13.491300000000001</v>
+      </c>
       <c r="E195" s="55"/>
-      <c r="F195" s="56"/>
+      <c r="F195" s="60">
+        <v>14.128299999999999</v>
+      </c>
+      <c r="H195" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M195">
         <f t="shared" si="200"/>
         <v>100</v>
@@ -55106,9 +55541,16 @@
       <c r="C196" s="56">
         <v>100</v>
       </c>
-      <c r="D196" s="56"/>
+      <c r="D196" s="48">
+        <v>14.0762</v>
+      </c>
       <c r="E196" s="55"/>
-      <c r="F196" s="56"/>
+      <c r="F196" s="60">
+        <v>13.726599999999999</v>
+      </c>
+      <c r="H196" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M196">
         <f t="shared" si="200"/>
         <v>100</v>
@@ -55159,7 +55601,12 @@
       </c>
       <c r="D197" s="56"/>
       <c r="E197" s="55"/>
-      <c r="F197" s="56"/>
+      <c r="F197" s="48">
+        <v>14.228400000000001</v>
+      </c>
+      <c r="H197" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M197">
         <f t="shared" si="200"/>
         <v>99.83</v>
@@ -55220,9 +55667,16 @@
       <c r="C198">
         <v>99.93</v>
       </c>
-      <c r="D198" s="56"/>
+      <c r="D198" s="48">
+        <v>13.43</v>
+      </c>
       <c r="E198" s="55"/>
-      <c r="F198" s="56"/>
+      <c r="F198" s="48">
+        <v>13.5084</v>
+      </c>
+      <c r="H198" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M198">
         <f t="shared" si="200"/>
         <v>99.93</v>
@@ -55268,9 +55722,16 @@
       <c r="C199">
         <v>99.26</v>
       </c>
-      <c r="D199" s="56"/>
+      <c r="D199" s="48">
+        <v>14.0824</v>
+      </c>
       <c r="E199" s="55"/>
-      <c r="F199" s="56"/>
+      <c r="F199" s="48">
+        <v>14.175700000000001</v>
+      </c>
+      <c r="H199" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M199">
         <f t="shared" si="200"/>
         <v>99.26</v>
@@ -55382,9 +55843,16 @@
       <c r="C201">
         <v>99.81</v>
       </c>
-      <c r="D201" s="56"/>
+      <c r="D201" s="48" t="s">
+        <v>315</v>
+      </c>
       <c r="E201" s="55"/>
-      <c r="F201" s="56"/>
+      <c r="F201" s="48">
+        <v>14.128299999999999</v>
+      </c>
+      <c r="H201" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M201">
         <f t="shared" si="200"/>
         <v>99.81</v>
@@ -55430,9 +55898,16 @@
       <c r="C202">
         <v>100</v>
       </c>
-      <c r="D202" s="56"/>
+      <c r="D202" s="48">
+        <v>13.630800000000001</v>
+      </c>
       <c r="E202" s="55"/>
-      <c r="F202" s="56"/>
+      <c r="F202" s="48">
+        <v>13.726599999999999</v>
+      </c>
+      <c r="H202" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M202">
         <f t="shared" si="200"/>
         <v>100</v>
@@ -55483,7 +55958,12 @@
       </c>
       <c r="D203" s="56"/>
       <c r="E203" s="55"/>
-      <c r="F203" s="56"/>
+      <c r="F203" s="48">
+        <v>13.5563</v>
+      </c>
+      <c r="H203" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M203">
         <f t="shared" si="200"/>
         <v>91.79</v>
@@ -55546,7 +56026,12 @@
       </c>
       <c r="D204" s="56"/>
       <c r="E204" s="55"/>
-      <c r="F204" s="56"/>
+      <c r="F204" s="48">
+        <v>13.56</v>
+      </c>
+      <c r="H204" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M204">
         <f t="shared" si="200"/>
         <v>99.83</v>
@@ -55594,7 +56079,12 @@
       </c>
       <c r="D205" s="56"/>
       <c r="E205" s="55"/>
-      <c r="F205" s="56"/>
+      <c r="F205" s="48">
+        <v>14.1752</v>
+      </c>
+      <c r="H205" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M205">
         <f t="shared" si="200"/>
         <v>99.39</v>
@@ -55645,7 +56135,12 @@
       </c>
       <c r="D206" s="56"/>
       <c r="E206" s="55"/>
-      <c r="F206" s="56"/>
+      <c r="F206" s="48">
+        <v>14.1844</v>
+      </c>
+      <c r="H206" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M206">
         <f t="shared" si="200"/>
         <v>99.78</v>
@@ -55706,9 +56201,16 @@
       <c r="C207">
         <v>99.65</v>
       </c>
-      <c r="D207" s="56"/>
+      <c r="D207" s="48">
+        <v>14.1173</v>
+      </c>
       <c r="E207" s="55"/>
-      <c r="F207" s="56"/>
+      <c r="F207" s="48">
+        <v>14.1678</v>
+      </c>
+      <c r="H207" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M207">
         <f t="shared" si="200"/>
         <v>99.65</v>
@@ -55754,9 +56256,16 @@
       <c r="C208">
         <v>99.82</v>
       </c>
-      <c r="D208" s="56"/>
+      <c r="D208" s="48">
+        <v>13.484</v>
+      </c>
       <c r="E208" s="55"/>
-      <c r="F208" s="56"/>
+      <c r="F208" s="48">
+        <v>13.5769</v>
+      </c>
+      <c r="H208" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M208">
         <f t="shared" si="200"/>
         <v>99.82</v>
@@ -55807,7 +56316,12 @@
       </c>
       <c r="D209" s="56"/>
       <c r="E209" s="55"/>
-      <c r="F209" s="56"/>
+      <c r="F209" s="48">
+        <v>14.1747</v>
+      </c>
+      <c r="H209" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M209">
         <f t="shared" si="200"/>
         <v>99.2</v>
@@ -55868,9 +56382,16 @@
       <c r="C210">
         <v>99.37</v>
       </c>
-      <c r="D210" s="56"/>
+      <c r="D210" s="48">
+        <v>13.524800000000001</v>
+      </c>
       <c r="E210" s="55"/>
-      <c r="F210" s="56"/>
+      <c r="F210" s="48">
+        <v>13.596500000000001</v>
+      </c>
+      <c r="H210" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M210">
         <f t="shared" si="200"/>
         <v>99.37</v>
@@ -55916,9 +56437,16 @@
       <c r="C211">
         <v>99.53</v>
       </c>
-      <c r="D211" s="56"/>
+      <c r="D211" s="48">
+        <v>13.524800000000001</v>
+      </c>
       <c r="E211" s="55"/>
-      <c r="F211" s="56"/>
+      <c r="F211" s="48">
+        <v>13.6075</v>
+      </c>
+      <c r="H211" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M211">
         <f t="shared" si="200"/>
         <v>99.53</v>
@@ -55969,7 +56497,12 @@
       </c>
       <c r="D212" s="56"/>
       <c r="E212" s="55"/>
-      <c r="F212" s="56"/>
+      <c r="F212" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="H212" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M212">
         <f t="shared" si="200"/>
         <v>99.65</v>
@@ -56030,9 +56563,16 @@
       <c r="C213">
         <v>99.16</v>
       </c>
-      <c r="D213" s="56"/>
+      <c r="D213" s="48">
+        <v>14.0672</v>
+      </c>
       <c r="E213" s="55"/>
-      <c r="F213" s="56"/>
+      <c r="F213" s="48">
+        <v>14.137700000000001</v>
+      </c>
+      <c r="H213" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M213">
         <f t="shared" si="200"/>
         <v>99.16</v>
@@ -56078,9 +56618,16 @@
       <c r="C214">
         <v>101.02</v>
       </c>
-      <c r="D214" s="56"/>
+      <c r="D214" s="48">
+        <v>13.5434</v>
+      </c>
       <c r="E214" s="55"/>
-      <c r="F214" s="56"/>
+      <c r="F214" s="48">
+        <v>13.640700000000001</v>
+      </c>
+      <c r="H214" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M214">
         <f t="shared" si="200"/>
         <v>101.02</v>
@@ -56120,7 +56667,7 @@
       </c>
     </row>
     <row r="215" spans="1:31">
-      <c r="A215" s="58" t="s">
+      <c r="A215" t="s">
         <v>261</v>
       </c>
       <c r="B215" t="s">
@@ -56131,7 +56678,12 @@
       </c>
       <c r="D215" s="56"/>
       <c r="E215" s="55"/>
-      <c r="F215" s="56"/>
+      <c r="F215" s="48">
+        <v>14.1867</v>
+      </c>
+      <c r="H215" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M215">
         <f t="shared" si="200"/>
         <v>99.73</v>
@@ -56186,16 +56738,22 @@
       </c>
     </row>
     <row r="216" spans="1:31">
-      <c r="A216" s="58"/>
       <c r="B216" t="s">
         <v>217</v>
       </c>
       <c r="C216">
         <v>100.04</v>
       </c>
-      <c r="D216" s="56"/>
+      <c r="D216" s="48">
+        <v>13.601000000000001</v>
+      </c>
       <c r="E216" s="55"/>
-      <c r="F216" s="56"/>
+      <c r="F216" s="48">
+        <v>13.515599999999999</v>
+      </c>
+      <c r="H216" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M216">
         <f t="shared" si="200"/>
         <v>100.04</v>
@@ -56235,16 +56793,22 @@
       </c>
     </row>
     <row r="217" spans="1:31">
-      <c r="A217" s="58"/>
       <c r="B217" t="s">
         <v>218</v>
       </c>
       <c r="C217">
         <v>99.67</v>
       </c>
-      <c r="D217" s="56"/>
+      <c r="D217" s="48">
+        <v>13.512700000000001</v>
+      </c>
       <c r="E217" s="55"/>
-      <c r="F217" s="56"/>
+      <c r="F217" s="48">
+        <v>13.565899999999999</v>
+      </c>
+      <c r="H217" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M217">
         <f t="shared" si="200"/>
         <v>99.67</v>
@@ -56295,7 +56859,12 @@
       </c>
       <c r="D218" s="56"/>
       <c r="E218" s="55"/>
-      <c r="F218" s="56"/>
+      <c r="F218" s="48">
+        <v>13.5158</v>
+      </c>
+      <c r="H218" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M218">
         <f t="shared" si="200"/>
         <v>100</v>
@@ -56357,9 +56926,16 @@
       <c r="C219" s="56">
         <v>100</v>
       </c>
-      <c r="D219" s="56"/>
+      <c r="D219" s="48">
+        <v>13.52</v>
+      </c>
       <c r="E219" s="55"/>
-      <c r="F219" s="56"/>
+      <c r="F219" s="48">
+        <v>13.5646</v>
+      </c>
+      <c r="H219" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M219">
         <f t="shared" si="200"/>
         <v>100</v>
@@ -56406,9 +56982,16 @@
       <c r="C220" s="56">
         <v>100</v>
       </c>
-      <c r="D220" s="56"/>
+      <c r="D220" s="48">
+        <v>13.513500000000001</v>
+      </c>
       <c r="E220" s="55"/>
-      <c r="F220" s="56"/>
+      <c r="F220" s="48">
+        <v>14.167899999999999</v>
+      </c>
+      <c r="H220" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M220">
         <f t="shared" si="200"/>
         <v>100</v>
@@ -56459,7 +57042,12 @@
       </c>
       <c r="D221" s="56"/>
       <c r="E221" s="55"/>
-      <c r="F221" s="56"/>
+      <c r="F221" s="48">
+        <v>14.177099999999999</v>
+      </c>
+      <c r="H221" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M221">
         <f t="shared" si="200"/>
         <v>99.52</v>
@@ -56520,9 +57108,16 @@
       <c r="C222">
         <v>100.01</v>
       </c>
-      <c r="D222" s="56"/>
+      <c r="D222" s="48">
+        <v>13.5406</v>
+      </c>
       <c r="E222" s="55"/>
-      <c r="F222" s="56"/>
+      <c r="F222" s="60">
+        <v>13.542400000000001</v>
+      </c>
+      <c r="H222" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M222">
         <f t="shared" si="200"/>
         <v>100.01</v>
@@ -56568,9 +57163,16 @@
       <c r="C223">
         <v>99.34</v>
       </c>
-      <c r="D223" s="56"/>
+      <c r="D223" s="48">
+        <v>13.462300000000001</v>
+      </c>
       <c r="E223" s="55"/>
-      <c r="F223" s="56"/>
+      <c r="F223" s="60">
+        <v>14.141999999999999</v>
+      </c>
+      <c r="H223" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M223">
         <f t="shared" si="200"/>
         <v>99.34</v>
@@ -56619,9 +57221,16 @@
       <c r="C224">
         <v>100.04</v>
       </c>
-      <c r="D224" s="56"/>
+      <c r="D224" s="48">
+        <v>13.428800000000001</v>
+      </c>
       <c r="E224" s="55"/>
-      <c r="F224" s="56"/>
+      <c r="F224" s="48">
+        <v>13.525600000000001</v>
+      </c>
+      <c r="H224" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M224">
         <f t="shared" ref="M224:M286" si="261">C224</f>
         <v>100.04</v>
@@ -56686,9 +57295,16 @@
       <c r="C225">
         <v>99.9</v>
       </c>
-      <c r="D225" s="56"/>
+      <c r="D225" s="48">
+        <v>14.031700000000001</v>
+      </c>
       <c r="E225" s="55"/>
-      <c r="F225" s="56"/>
+      <c r="F225" s="48">
+        <v>14.1114</v>
+      </c>
+      <c r="H225" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M225">
         <f t="shared" si="261"/>
         <v>99.9</v>
@@ -56737,9 +57353,16 @@
       <c r="C226">
         <v>100.09</v>
       </c>
-      <c r="D226" s="56"/>
+      <c r="D226" s="48">
+        <v>16.018719999999998</v>
+      </c>
       <c r="E226" s="55"/>
-      <c r="F226" s="56"/>
+      <c r="F226" s="48">
+        <v>14.1875</v>
+      </c>
+      <c r="H226" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M226">
         <f t="shared" si="261"/>
         <v>100.09</v>
@@ -56787,9 +57410,16 @@
       <c r="C227">
         <v>99.73</v>
       </c>
-      <c r="D227" s="56"/>
+      <c r="D227" s="48">
+        <v>15.964510000000001</v>
+      </c>
       <c r="E227" s="55"/>
-      <c r="F227" s="56"/>
+      <c r="F227" s="48">
+        <v>14.2065</v>
+      </c>
+      <c r="H227" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M227">
         <f t="shared" si="261"/>
         <v>99.73</v>
@@ -56854,9 +57484,16 @@
       <c r="C228">
         <v>100.02</v>
       </c>
-      <c r="D228" s="56"/>
+      <c r="D228" s="48">
+        <v>13.553000000000001</v>
+      </c>
       <c r="E228" s="55"/>
-      <c r="F228" s="56"/>
+      <c r="F228" s="48" t="s">
+        <v>312</v>
+      </c>
+      <c r="H228" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M228">
         <f t="shared" si="261"/>
         <v>100.02</v>
@@ -56905,9 +57542,13 @@
       <c r="C229">
         <v>99.46</v>
       </c>
-      <c r="D229" s="56"/>
+      <c r="D229" s="48">
+        <v>15.964510000000001</v>
+      </c>
       <c r="E229" s="55"/>
-      <c r="F229" s="56"/>
+      <c r="F229" s="48">
+        <v>14.1395</v>
+      </c>
       <c r="M229">
         <f t="shared" si="261"/>
         <v>99.46</v>
@@ -56955,9 +57596,16 @@
       <c r="C230">
         <v>99.34</v>
       </c>
-      <c r="D230" s="56"/>
+      <c r="D230" s="48">
+        <v>14.1114</v>
+      </c>
       <c r="E230" s="55"/>
-      <c r="F230" s="56"/>
+      <c r="F230" s="48">
+        <v>13.602499999999999</v>
+      </c>
+      <c r="H230" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M230">
         <f t="shared" si="261"/>
         <v>99.34</v>
@@ -57022,9 +57670,16 @@
       <c r="C231">
         <v>100.06</v>
       </c>
-      <c r="D231" s="56"/>
+      <c r="D231" s="48">
+        <v>13.4709</v>
+      </c>
       <c r="E231" s="55"/>
-      <c r="F231" s="56"/>
+      <c r="F231" s="48">
+        <v>13.5524</v>
+      </c>
+      <c r="H231" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M231">
         <f t="shared" si="261"/>
         <v>100.06</v>
@@ -57073,9 +57728,16 @@
       <c r="C232">
         <v>99.43</v>
       </c>
-      <c r="D232" s="56"/>
+      <c r="D232" s="48">
+        <v>15.994770000000001</v>
+      </c>
       <c r="E232" s="55"/>
-      <c r="F232" s="56"/>
+      <c r="F232" s="48">
+        <v>14.155099999999999</v>
+      </c>
+      <c r="H232" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M232">
         <f t="shared" si="261"/>
         <v>99.43</v>
@@ -57192,7 +57854,12 @@
       </c>
       <c r="D234" s="56"/>
       <c r="E234" s="55"/>
-      <c r="F234" s="56"/>
+      <c r="F234" s="48">
+        <v>14.1015</v>
+      </c>
+      <c r="H234" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M234">
         <f t="shared" si="261"/>
         <v>89.82</v>
@@ -57291,9 +57958,16 @@
       <c r="C236">
         <v>100.07</v>
       </c>
-      <c r="D236" s="56"/>
+      <c r="D236" s="48">
+        <v>13.4313</v>
+      </c>
       <c r="E236" s="55"/>
-      <c r="F236" s="56"/>
+      <c r="F236" s="48">
+        <v>13.5284</v>
+      </c>
+      <c r="H236" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M236">
         <f t="shared" si="261"/>
         <v>100.07</v>
@@ -57358,9 +58032,16 @@
       <c r="C237">
         <v>99.68</v>
       </c>
-      <c r="D237" s="56"/>
+      <c r="D237" s="48">
+        <v>13.462999999999999</v>
+      </c>
       <c r="E237" s="55"/>
-      <c r="F237" s="56"/>
+      <c r="F237" s="48">
+        <v>13.5411</v>
+      </c>
+      <c r="H237" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M237">
         <f t="shared" si="261"/>
         <v>99.68</v>
@@ -57409,9 +58090,16 @@
       <c r="C238">
         <v>99.51</v>
       </c>
-      <c r="D238" s="56"/>
+      <c r="D238" s="48">
+        <v>16.053070000000002</v>
+      </c>
       <c r="E238" s="55"/>
-      <c r="F238" s="56"/>
+      <c r="F238" s="48">
+        <v>14.2142</v>
+      </c>
+      <c r="H238" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M238">
         <f t="shared" si="261"/>
         <v>99.51</v>
@@ -57459,9 +58147,16 @@
       <c r="C239" s="58">
         <v>99.82</v>
       </c>
-      <c r="D239" s="56"/>
+      <c r="D239" s="48">
+        <v>13.5055</v>
+      </c>
       <c r="E239" s="55"/>
-      <c r="F239" s="56"/>
+      <c r="F239" s="48">
+        <v>13.600099999999999</v>
+      </c>
+      <c r="H239" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M239">
         <f t="shared" si="261"/>
         <v>99.82</v>
@@ -57526,9 +58221,16 @@
       <c r="C240" s="58">
         <v>99.71</v>
       </c>
-      <c r="D240" s="56"/>
+      <c r="D240" s="48">
+        <v>13.653</v>
+      </c>
       <c r="E240" s="55"/>
-      <c r="F240" s="56"/>
+      <c r="F240" s="48">
+        <v>13.7227</v>
+      </c>
+      <c r="H240" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M240">
         <f t="shared" si="261"/>
         <v>99.71</v>
@@ -57579,7 +58281,12 @@
       </c>
       <c r="D241" s="56"/>
       <c r="E241" s="55"/>
-      <c r="F241" s="56"/>
+      <c r="F241" s="48">
+        <v>13.549099999999999</v>
+      </c>
+      <c r="H241" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M241">
         <f t="shared" si="261"/>
         <v>99.58</v>
@@ -57618,7 +58325,7 @@
       </c>
     </row>
     <row r="242" spans="1:31">
-      <c r="A242" s="61" t="s">
+      <c r="A242" t="s">
         <v>271</v>
       </c>
       <c r="B242" t="s">
@@ -57627,30 +58334,31 @@
       <c r="C242">
         <v>99.52</v>
       </c>
-      <c r="D242">
-        <v>14069.699999999999</v>
-      </c>
-      <c r="E242">
-        <v>14142.099999999999</v>
-      </c>
-      <c r="F242">
-        <v>14145.099999999999</v>
+      <c r="D242" s="48">
+        <v>14.069699999999999</v>
+      </c>
+      <c r="E242" s="55"/>
+      <c r="F242" s="48">
+        <v>14.145099999999999</v>
+      </c>
+      <c r="H242" s="48" t="s">
+        <v>310</v>
       </c>
       <c r="M242">
         <f t="shared" si="261"/>
         <v>99.52</v>
       </c>
       <c r="N242">
-        <f>F242-D242</f>
-        <v>75.399999999999636</v>
+        <f t="shared" si="269"/>
+        <v>70.59</v>
       </c>
       <c r="O242" s="51">
         <f t="shared" si="270"/>
-        <v>75.763665594854942</v>
+        <v>70.930466237942127</v>
       </c>
       <c r="P242">
         <f t="shared" ref="P242:P243" si="276">(N242-M242)/N242</f>
-        <v>-0.31989389920425032</v>
+        <v>-0.40983142088114449</v>
       </c>
       <c r="S242">
         <v>70.59</v>
@@ -57663,19 +58371,19 @@
       </c>
       <c r="V242">
         <f t="shared" si="203"/>
-        <v>93.171310344828029</v>
+        <v>99.52</v>
       </c>
       <c r="W242" s="52">
         <f t="shared" si="265"/>
-        <v>0.73945337620578422</v>
+        <v>0.69228135048231509</v>
       </c>
       <c r="X242">
         <f t="shared" si="266"/>
-        <v>7.3687741157555928</v>
+        <v>6.8986971463022515</v>
       </c>
       <c r="AB242" s="46">
         <f>100*(X242-X243)/X244</f>
-        <v>14.245561750672744</v>
+        <v>14.173904131343017</v>
       </c>
       <c r="AC242" s="46">
         <f>100*(((K242-K243)*0.027)/C244)</f>
@@ -57687,11 +58395,11 @@
       </c>
       <c r="AE242" s="46">
         <f>1000000*(X242-X243)/55.85/100</f>
-        <v>523.42555539043042</v>
+        <v>520.7926350569204</v>
       </c>
     </row>
     <row r="243" spans="1:31">
-      <c r="A243" s="61" t="s">
+      <c r="A243" t="s">
         <v>271</v>
       </c>
       <c r="B243" t="s">
@@ -57700,30 +58408,31 @@
       <c r="C243">
         <v>99.46</v>
       </c>
-      <c r="D243">
-        <v>14040</v>
-      </c>
-      <c r="E243">
-        <v>14113.4</v>
-      </c>
-      <c r="F243">
-        <v>14113.9</v>
+      <c r="D243" s="48">
+        <v>14.04</v>
+      </c>
+      <c r="E243" s="55"/>
+      <c r="F243" s="48">
+        <v>14.113899999999999</v>
+      </c>
+      <c r="H243" s="48" t="s">
+        <v>310</v>
       </c>
       <c r="M243">
         <f t="shared" si="261"/>
         <v>99.46</v>
       </c>
       <c r="N243">
-        <f>F243-D243</f>
-        <v>73.899999999999636</v>
+        <f t="shared" si="269"/>
+        <v>66.33</v>
       </c>
       <c r="O243" s="51">
         <f t="shared" si="270"/>
-        <v>74.301226623767988</v>
+        <v>66.69012668409411</v>
       </c>
       <c r="P243">
         <f t="shared" si="276"/>
-        <v>-0.34587280108255053</v>
+        <v>-0.49947233529323076</v>
       </c>
       <c r="S243">
         <v>66.33</v>
@@ -57736,19 +58445,19 @@
       </c>
       <c r="V243">
         <f t="shared" si="203"/>
-        <v>89.271742895805573</v>
+        <v>99.46</v>
       </c>
       <c r="W243" s="52">
         <f t="shared" si="265"/>
-        <v>0.45398049467122237</v>
+        <v>0.40747667403981497</v>
       </c>
       <c r="X243">
         <f t="shared" si="266"/>
-        <v>4.4454423889000392</v>
+        <v>3.990070279509351</v>
       </c>
     </row>
     <row r="244" spans="1:31">
-      <c r="A244" s="61" t="s">
+      <c r="A244" t="s">
         <v>271</v>
       </c>
       <c r="B244" t="s">
@@ -57757,9 +58466,16 @@
       <c r="C244">
         <v>99.5</v>
       </c>
-      <c r="D244" s="56"/>
+      <c r="D244" s="48">
+        <v>15.416650000000001</v>
+      </c>
       <c r="E244" s="55"/>
-      <c r="F244" s="56"/>
+      <c r="F244" s="48">
+        <v>13.554500000000001</v>
+      </c>
+      <c r="H244" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M244">
         <f t="shared" si="261"/>
         <v>99.5</v>
@@ -57809,7 +58525,12 @@
       </c>
       <c r="D245" s="56"/>
       <c r="E245" s="55"/>
-      <c r="F245" s="56"/>
+      <c r="F245" s="48">
+        <v>13.540900000000001</v>
+      </c>
+      <c r="H245" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M245">
         <f t="shared" si="261"/>
         <v>99.2</v>
@@ -57876,7 +58597,12 @@
       </c>
       <c r="D246" s="56"/>
       <c r="E246" s="55"/>
-      <c r="F246" s="56"/>
+      <c r="F246" s="48">
+        <v>13.5436</v>
+      </c>
+      <c r="H246" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M246">
         <f t="shared" si="261"/>
         <v>99.45</v>
@@ -57925,9 +58651,16 @@
       <c r="C247">
         <v>91.67</v>
       </c>
-      <c r="D247" s="56"/>
+      <c r="D247" s="48">
+        <v>13.450749999999999</v>
+      </c>
       <c r="E247" s="55"/>
-      <c r="F247" s="56"/>
+      <c r="F247" s="48">
+        <v>13.5406</v>
+      </c>
+      <c r="H247" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M247">
         <f t="shared" si="261"/>
         <v>91.67</v>
@@ -57966,7 +58699,7 @@
       </c>
     </row>
     <row r="248" spans="1:31">
-      <c r="A248" s="61" t="s">
+      <c r="A248" t="s">
         <v>273</v>
       </c>
       <c r="B248" t="s">
@@ -57975,28 +58708,26 @@
       <c r="C248">
         <v>99.25</v>
       </c>
-      <c r="D248">
-        <v>13490.8</v>
+      <c r="D248" s="48">
+        <v>13.4519</v>
       </c>
       <c r="E248" s="55"/>
-      <c r="F248">
-        <v>13584.699999999999</v>
-      </c>
+      <c r="F248" s="56"/>
       <c r="M248">
         <f t="shared" si="261"/>
         <v>99.25</v>
       </c>
       <c r="N248">
-        <f>F248-D248</f>
-        <v>93.899999999999636</v>
+        <f t="shared" si="269"/>
+        <v>89.92</v>
       </c>
       <c r="O248" s="51">
         <f t="shared" si="270"/>
-        <v>94.609571788412737</v>
+        <v>90.599496221662463</v>
       </c>
       <c r="P248">
         <f t="shared" ref="P248:P249" si="278">(N248-M248)/N248</f>
-        <v>-5.6975505857299089E-2</v>
+        <v>-0.103758896797153</v>
       </c>
       <c r="S248">
         <v>89.92</v>
@@ -58009,19 +58740,19 @@
       </c>
       <c r="V248">
         <f t="shared" si="203"/>
-        <v>95.043237486688341</v>
+        <v>99.25</v>
       </c>
       <c r="W248" s="52">
         <f t="shared" si="265"/>
-        <v>0.5061612090680081</v>
+        <v>0.48470730478589419</v>
       </c>
       <c r="X248">
-        <f>100*U248/V248</f>
-        <v>4.4807093198992263</v>
+        <f t="shared" si="266"/>
+        <v>4.2907921410579339</v>
       </c>
       <c r="AB248" s="46">
         <f>100*(X248-X249)/X250</f>
-        <v>-29.274320024824327</v>
+        <v>-25.146260285854925</v>
       </c>
       <c r="AC248" s="46">
         <f>100*(((K248-K249)*0.027)/C250)</f>
@@ -58033,11 +58764,11 @@
       </c>
       <c r="AE248" s="46">
         <f>1000000*(X248-X249)/55.85/100</f>
-        <v>-429.07714184997661</v>
+        <v>-368.57168612356031</v>
       </c>
     </row>
     <row r="249" spans="1:31">
-      <c r="A249" s="61" t="s">
+      <c r="A249" t="s">
         <v>273</v>
       </c>
       <c r="B249" t="s">
@@ -58046,28 +58777,31 @@
       <c r="C249">
         <v>99.28</v>
       </c>
-      <c r="D249">
-        <v>13478.7</v>
+      <c r="D249" s="48">
+        <v>14.002000000000001</v>
       </c>
       <c r="E249" s="55"/>
-      <c r="F249">
-        <v>13555.7</v>
+      <c r="F249" s="48">
+        <v>14.1614</v>
+      </c>
+      <c r="H249" s="48" t="s">
+        <v>310</v>
       </c>
       <c r="M249">
         <f t="shared" si="261"/>
         <v>99.28</v>
       </c>
       <c r="N249">
-        <f>F249-D249</f>
-        <v>77</v>
+        <f t="shared" si="269"/>
+        <v>71.09</v>
       </c>
       <c r="O249" s="51">
         <f t="shared" si="270"/>
-        <v>77.558420628525383</v>
+        <v>71.605560032232077</v>
       </c>
       <c r="P249">
         <f t="shared" si="278"/>
-        <v>-0.28935064935064936</v>
+        <v>-0.39653959769306507</v>
       </c>
       <c r="S249">
         <v>71.09</v>
@@ -58080,19 +58814,19 @@
       </c>
       <c r="V249">
         <f t="shared" si="203"/>
-        <v>91.659937662337668</v>
+        <v>99.28</v>
       </c>
       <c r="W249" s="52">
         <f t="shared" si="265"/>
-        <v>0.77403303787268318</v>
+        <v>0.71462348912167595</v>
       </c>
       <c r="X249">
-        <f>100*U249/V249</f>
-        <v>6.8771051571313455</v>
+        <f t="shared" si="266"/>
+        <v>6.3492650080580182</v>
       </c>
     </row>
     <row r="250" spans="1:31">
-      <c r="A250" s="61" t="s">
+      <c r="A250" t="s">
         <v>273</v>
       </c>
       <c r="B250" t="s">
@@ -58151,9 +58885,16 @@
       <c r="C251">
         <v>100.01</v>
       </c>
-      <c r="D251" s="56"/>
+      <c r="D251" s="48">
+        <v>13.4587</v>
+      </c>
       <c r="E251" s="55"/>
-      <c r="F251" s="56"/>
+      <c r="F251" s="48">
+        <v>13.5519</v>
+      </c>
+      <c r="H251" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M251">
         <f t="shared" si="261"/>
         <v>100.01</v>
@@ -58218,9 +58959,16 @@
       <c r="C252">
         <v>99.38</v>
       </c>
-      <c r="D252" s="56"/>
+      <c r="D252" s="48">
+        <v>13.5039</v>
+      </c>
       <c r="E252" s="55"/>
-      <c r="F252" s="56"/>
+      <c r="F252" s="48">
+        <v>13.580500000000001</v>
+      </c>
+      <c r="H252" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M252">
         <f t="shared" si="261"/>
         <v>99.38</v>
@@ -58319,9 +59067,16 @@
       <c r="C254">
         <v>99.18</v>
       </c>
-      <c r="D254" s="56"/>
+      <c r="D254" s="48">
+        <v>13.439399999999999</v>
+      </c>
       <c r="E254" s="55"/>
-      <c r="F254" s="56"/>
+      <c r="F254" s="48">
+        <v>13.532999999999999</v>
+      </c>
+      <c r="H254" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M254">
         <f t="shared" si="261"/>
         <v>99.18</v>
@@ -58386,9 +59141,16 @@
       <c r="C255">
         <v>99.36</v>
       </c>
-      <c r="D255" s="56"/>
+      <c r="D255" s="48">
+        <v>13.476100000000001</v>
+      </c>
       <c r="E255" s="55"/>
-      <c r="F255" s="56"/>
+      <c r="F255" s="48">
+        <v>13.5566</v>
+      </c>
+      <c r="H255" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M255">
         <f t="shared" si="261"/>
         <v>99.36</v>
@@ -58437,9 +59199,16 @@
       <c r="C256">
         <v>99.59</v>
       </c>
-      <c r="D256" s="56"/>
+      <c r="D256" s="48">
+        <v>13.50041</v>
+      </c>
       <c r="E256" s="55"/>
-      <c r="F256" s="56"/>
+      <c r="F256" s="48">
+        <v>13.598100000000001</v>
+      </c>
+      <c r="H256" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M256">
         <f t="shared" si="261"/>
         <v>99.59</v>
@@ -58487,9 +59256,16 @@
       <c r="C257">
         <v>99.32</v>
       </c>
-      <c r="D257" s="56"/>
+      <c r="D257" s="48">
+        <v>13.5328</v>
+      </c>
       <c r="E257" s="55"/>
-      <c r="F257" s="56"/>
+      <c r="F257" s="48">
+        <v>13.637700000000001</v>
+      </c>
+      <c r="H257" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M257">
         <f t="shared" si="261"/>
         <v>99.32</v>
@@ -58554,7 +59330,9 @@
       <c r="C258">
         <v>99.63</v>
       </c>
-      <c r="D258" s="56"/>
+      <c r="D258" s="48">
+        <v>13.5329</v>
+      </c>
       <c r="E258" s="55"/>
       <c r="F258" s="56"/>
       <c r="M258">
@@ -58655,9 +59433,16 @@
       <c r="C260">
         <v>99.31</v>
       </c>
-      <c r="D260" s="56"/>
+      <c r="D260" s="48">
+        <v>13.4908</v>
+      </c>
       <c r="E260" s="55"/>
-      <c r="F260" s="56"/>
+      <c r="F260" s="48">
+        <v>13.5847</v>
+      </c>
+      <c r="H260" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M260">
         <f t="shared" si="261"/>
         <v>99.31</v>
@@ -58722,9 +59507,16 @@
       <c r="C261">
         <v>99.53</v>
       </c>
-      <c r="D261" s="56"/>
+      <c r="D261" s="48">
+        <v>13.4787</v>
+      </c>
       <c r="E261" s="55"/>
-      <c r="F261" s="56"/>
+      <c r="F261" s="48">
+        <v>13.5557</v>
+      </c>
+      <c r="H261" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M261">
         <f t="shared" si="261"/>
         <v>99.53</v>
@@ -58814,7 +59606,7 @@
       </c>
     </row>
     <row r="263" spans="1:31">
-      <c r="A263" s="48" t="s">
+      <c r="A263" t="s">
         <v>278</v>
       </c>
       <c r="B263" t="s">
@@ -58823,27 +59615,31 @@
       <c r="C263">
         <v>99.95</v>
       </c>
-      <c r="D263">
-        <v>13441.2</v>
-      </c>
-      <c r="F263">
-        <v>13535.3</v>
+      <c r="D263" s="48">
+        <v>13.4412</v>
+      </c>
+      <c r="E263" s="55"/>
+      <c r="F263" s="48">
+        <v>13.535299999999999</v>
+      </c>
+      <c r="H263" s="48" t="s">
+        <v>310</v>
       </c>
       <c r="M263">
         <f t="shared" si="261"/>
         <v>99.95</v>
       </c>
       <c r="N263">
-        <f>F263-D263</f>
-        <v>94.099999999998545</v>
+        <f t="shared" si="269"/>
+        <v>77.37</v>
       </c>
       <c r="O263" s="51">
         <f t="shared" si="270"/>
-        <v>94.147073536766925</v>
+        <v>77.408704352176088</v>
       </c>
       <c r="P263">
         <f t="shared" ref="P263:P264" si="284">(N263-M263)/N263</f>
-        <v>-6.2167906482481917E-2</v>
+        <v>-0.29184438412821501</v>
       </c>
       <c r="S263">
         <v>77.37</v>
@@ -58856,19 +59652,19 @@
       </c>
       <c r="V263">
         <f t="shared" si="281"/>
-        <v>82.179930924549637</v>
+        <v>99.95</v>
       </c>
       <c r="W263" s="52">
         <f t="shared" si="265"/>
-        <v>0.98289544772384663</v>
+        <v>0.80814687343671843</v>
       </c>
       <c r="X263">
         <f t="shared" si="266"/>
-        <v>8.5909204602299809</v>
+        <v>7.0635442721360677</v>
       </c>
       <c r="AB263" s="46">
         <f>100*(X263-X264)/X265</f>
-        <v>18.732410901421424</v>
+        <v>11.633753331266467</v>
       </c>
       <c r="AC263" s="46">
         <f>100*(((K263-K264)*0.027)/C265)</f>
@@ -58880,11 +59676,11 @@
       </c>
       <c r="AE263" s="46">
         <f>1000000*(X263-X264)/55.85/100</f>
-        <v>359.65558119237591</v>
+        <v>223.36389788929336</v>
       </c>
     </row>
     <row r="264" spans="1:31">
-      <c r="A264" s="48" t="s">
+      <c r="A264" t="s">
         <v>278</v>
       </c>
       <c r="B264" t="s">
@@ -58893,27 +59689,31 @@
       <c r="C264">
         <v>99.82</v>
       </c>
-      <c r="D264">
-        <v>14004.2</v>
-      </c>
-      <c r="F264">
-        <v>14079.8</v>
+      <c r="D264" s="48">
+        <v>14.004200000000001</v>
+      </c>
+      <c r="E264" s="55"/>
+      <c r="F264" s="48">
+        <v>14.079800000000001</v>
+      </c>
+      <c r="H264" s="48" t="s">
+        <v>310</v>
       </c>
       <c r="M264">
         <f t="shared" si="261"/>
         <v>99.82</v>
       </c>
       <c r="N264">
-        <f>F264-D264</f>
-        <v>75.599999999998545</v>
+        <f t="shared" si="269"/>
+        <v>66.8</v>
       </c>
       <c r="O264" s="51">
         <f t="shared" si="270"/>
-        <v>75.736325385692794</v>
+        <v>66.920456822280116</v>
       </c>
       <c r="P264">
         <f t="shared" si="284"/>
-        <v>-0.32037037037039567</v>
+        <v>-0.49431137724550894</v>
       </c>
       <c r="S264">
         <v>66.8</v>
@@ -58926,19 +59726,19 @@
       </c>
       <c r="V264">
         <f t="shared" si="281"/>
-        <v>88.200740740742432</v>
+        <v>99.82</v>
       </c>
       <c r="W264" s="52">
         <f t="shared" si="265"/>
-        <v>0.80659186535762839</v>
+        <v>0.71270286515728321</v>
       </c>
       <c r="X264">
         <f t="shared" si="266"/>
-        <v>6.5822440392705612</v>
+        <v>5.8160569024243642</v>
       </c>
     </row>
     <row r="265" spans="1:31">
-      <c r="A265" s="48" t="s">
+      <c r="A265" t="s">
         <v>278</v>
       </c>
       <c r="B265" t="s">
@@ -58997,9 +59797,16 @@
       <c r="C266">
         <v>100.01</v>
       </c>
-      <c r="D266" s="56"/>
+      <c r="D266" s="48">
+        <v>13.6386</v>
+      </c>
       <c r="E266" s="55"/>
-      <c r="F266" s="56"/>
+      <c r="F266" s="48">
+        <v>13.7325</v>
+      </c>
+      <c r="H266" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M266">
         <f t="shared" si="261"/>
         <v>100.01</v>
@@ -59064,9 +59871,16 @@
       <c r="C267">
         <v>99.83</v>
       </c>
-      <c r="D267" s="56"/>
+      <c r="D267" s="48">
+        <v>13.5007</v>
+      </c>
       <c r="E267" s="55"/>
-      <c r="F267" s="56"/>
+      <c r="F267" s="48">
+        <v>13.579000000000001</v>
+      </c>
+      <c r="H267" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M267">
         <f t="shared" si="261"/>
         <v>99.83</v>
@@ -59156,7 +59970,7 @@
       </c>
     </row>
     <row r="269" spans="1:31">
-      <c r="A269" s="58" t="s">
+      <c r="A269" t="s">
         <v>280</v>
       </c>
       <c r="B269" t="s">
@@ -59165,9 +59979,16 @@
       <c r="C269" s="58">
         <v>99.67</v>
       </c>
-      <c r="D269" s="56"/>
+      <c r="D269" s="48">
+        <v>13.448700000000001</v>
+      </c>
       <c r="E269" s="55"/>
-      <c r="F269" s="56"/>
+      <c r="F269" s="48">
+        <v>13.515499999999999</v>
+      </c>
+      <c r="H269" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M269">
         <f t="shared" si="261"/>
         <v>99.67</v>
@@ -59223,7 +60044,7 @@
       </c>
     </row>
     <row r="270" spans="1:31">
-      <c r="A270" s="58" t="s">
+      <c r="A270" t="s">
         <v>280</v>
       </c>
       <c r="B270" t="s">
@@ -59232,9 +60053,16 @@
       <c r="C270" s="58">
         <v>100.04</v>
       </c>
-      <c r="D270" s="56"/>
+      <c r="D270" s="48">
+        <v>13.440799999999999</v>
+      </c>
       <c r="E270" s="55"/>
-      <c r="F270" s="56"/>
+      <c r="F270" s="48">
+        <v>13.515599999999999</v>
+      </c>
+      <c r="H270" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M270">
         <f t="shared" si="261"/>
         <v>100.04</v>
@@ -59274,7 +60102,7 @@
       </c>
     </row>
     <row r="271" spans="1:31">
-      <c r="A271" s="58" t="s">
+      <c r="A271" t="s">
         <v>280</v>
       </c>
       <c r="B271" t="s">
@@ -59285,7 +60113,12 @@
       </c>
       <c r="D271" s="56"/>
       <c r="E271" s="55"/>
-      <c r="F271" s="56"/>
+      <c r="F271" s="48">
+        <v>13.549099999999999</v>
+      </c>
+      <c r="H271" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M271">
         <f t="shared" si="261"/>
         <v>99.73</v>
@@ -59333,9 +60166,16 @@
       <c r="C272" s="58">
         <v>99.59</v>
       </c>
-      <c r="D272" s="56"/>
+      <c r="D272" s="48">
+        <v>14.0501</v>
+      </c>
       <c r="E272" s="55"/>
-      <c r="F272" s="56"/>
+      <c r="F272" s="48">
+        <v>14.141999999999999</v>
+      </c>
+      <c r="H272" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M272">
         <f t="shared" si="261"/>
         <v>99.59</v>
@@ -59400,9 +60240,16 @@
       <c r="C273" s="58">
         <v>100.01</v>
       </c>
-      <c r="D273" s="56"/>
+      <c r="D273" s="48">
+        <v>13.4735</v>
+      </c>
       <c r="E273" s="55"/>
-      <c r="F273" s="56"/>
+      <c r="F273" s="48">
+        <v>13.542400000000001</v>
+      </c>
+      <c r="H273" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M273">
         <f t="shared" si="261"/>
         <v>100.01</v>
@@ -59501,9 +60348,13 @@
       <c r="C275">
         <v>99.82</v>
       </c>
-      <c r="D275" s="56"/>
+      <c r="D275" s="48">
+        <v>13.4716</v>
+      </c>
       <c r="E275" s="55"/>
-      <c r="F275" s="56"/>
+      <c r="F275" s="48">
+        <v>13.5657</v>
+      </c>
       <c r="M275">
         <f t="shared" si="261"/>
         <v>99.82</v>
@@ -59568,9 +60419,13 @@
       <c r="C276">
         <v>99.85</v>
       </c>
-      <c r="D276" s="56"/>
+      <c r="D276" s="48">
+        <v>13.472200000000001</v>
+      </c>
       <c r="E276" s="55"/>
-      <c r="F276" s="56"/>
+      <c r="F276" s="48">
+        <v>13.546900000000001</v>
+      </c>
       <c r="M276">
         <f t="shared" si="261"/>
         <v>99.85</v>
@@ -59621,7 +60476,9 @@
       </c>
       <c r="D277" s="56"/>
       <c r="E277" s="55"/>
-      <c r="F277" s="56"/>
+      <c r="F277" s="48">
+        <v>13.523</v>
+      </c>
       <c r="M277">
         <f t="shared" si="261"/>
         <v>99.72</v>
@@ -59738,7 +60595,9 @@
       </c>
       <c r="D279" s="56"/>
       <c r="E279" s="55"/>
-      <c r="F279" s="56"/>
+      <c r="F279" s="48" t="s">
+        <v>318</v>
+      </c>
       <c r="M279">
         <f t="shared" si="261"/>
         <v>100.02</v>
@@ -59778,18 +60637,22 @@
       </c>
     </row>
     <row r="280" spans="1:31">
-      <c r="A280" t="s">
+      <c r="A280" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="48">
         <v>99.69</v>
       </c>
-      <c r="D280" s="56"/>
+      <c r="D280" s="48">
+        <v>14.028499999999999</v>
+      </c>
       <c r="E280" s="55"/>
-      <c r="F280" s="56"/>
+      <c r="F280" s="48">
+        <v>14.1275</v>
+      </c>
       <c r="M280">
         <f t="shared" si="261"/>
         <v>99.69</v>
@@ -59837,9 +60700,16 @@
       <c r="C281" s="56">
         <v>100</v>
       </c>
-      <c r="D281" s="56"/>
+      <c r="D281" s="48">
+        <v>14.1212</v>
+      </c>
       <c r="E281" s="55"/>
-      <c r="F281" s="56"/>
+      <c r="F281" s="48">
+        <v>14.2049</v>
+      </c>
+      <c r="H281" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M281">
         <f t="shared" si="261"/>
         <v>100</v>
@@ -59904,9 +60774,16 @@
       <c r="C282" s="56">
         <v>100</v>
       </c>
-      <c r="D282" s="56"/>
+      <c r="D282" s="48">
+        <v>13.4872</v>
+      </c>
       <c r="E282" s="55"/>
-      <c r="F282" s="56"/>
+      <c r="F282" s="48">
+        <v>13.552199999999999</v>
+      </c>
+      <c r="H282" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M282">
         <f t="shared" si="261"/>
         <v>100</v>
@@ -59957,7 +60834,12 @@
       </c>
       <c r="D283" s="56"/>
       <c r="E283" s="55"/>
-      <c r="F283" s="56"/>
+      <c r="F283" s="48">
+        <v>14.203099999999999</v>
+      </c>
+      <c r="H283" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M283">
         <f t="shared" si="261"/>
         <v>100</v>
@@ -60005,9 +60887,13 @@
       <c r="C284">
         <v>100.17</v>
       </c>
-      <c r="D284" s="56"/>
+      <c r="D284" s="48">
+        <v>14.0694</v>
+      </c>
       <c r="E284" s="55"/>
-      <c r="F284" s="56"/>
+      <c r="F284" s="48">
+        <v>14.1602</v>
+      </c>
       <c r="M284">
         <f t="shared" si="261"/>
         <v>100.17</v>
@@ -60072,9 +60958,13 @@
       <c r="C285">
         <v>99.57</v>
       </c>
-      <c r="D285" s="56"/>
+      <c r="D285" s="48">
+        <v>13.5062</v>
+      </c>
       <c r="E285" s="55"/>
-      <c r="F285" s="56"/>
+      <c r="F285" s="48">
+        <v>13.566000000000001</v>
+      </c>
       <c r="M285">
         <f t="shared" si="261"/>
         <v>99.57</v>
@@ -60123,9 +61013,16 @@
       <c r="C286">
         <v>99.74</v>
       </c>
-      <c r="D286" s="56"/>
+      <c r="D286" s="48">
+        <v>14.07386</v>
+      </c>
       <c r="E286" s="55"/>
-      <c r="F286" s="56"/>
+      <c r="F286" s="48">
+        <v>13.589600000000001</v>
+      </c>
+      <c r="H286" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M286">
         <f t="shared" si="261"/>
         <v>99.74</v>
@@ -60208,9 +61105,16 @@
       <c r="C288">
         <v>99.82</v>
       </c>
-      <c r="D288" s="56"/>
+      <c r="D288" s="48">
+        <v>14.032500000000001</v>
+      </c>
       <c r="E288" s="55"/>
-      <c r="F288" s="56"/>
+      <c r="F288" s="48">
+        <v>14.125500000000001</v>
+      </c>
+      <c r="H288" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M288">
         <f t="shared" ref="M288:M320" si="292">C288</f>
         <v>99.82</v>
@@ -60277,7 +61181,12 @@
       </c>
       <c r="D289" s="56"/>
       <c r="E289" s="55"/>
-      <c r="F289" s="56"/>
+      <c r="F289" s="48">
+        <v>13.580299999999999</v>
+      </c>
+      <c r="H289" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M289">
         <f t="shared" si="292"/>
         <v>99.63</v>
@@ -60328,7 +61237,12 @@
       </c>
       <c r="D290" s="56"/>
       <c r="E290" s="55"/>
-      <c r="F290" s="56"/>
+      <c r="F290" s="48">
+        <v>13.581</v>
+      </c>
+      <c r="H290" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M290">
         <f t="shared" si="292"/>
         <v>99.21</v>
@@ -60378,7 +61292,12 @@
       </c>
       <c r="D291" s="56"/>
       <c r="E291" s="55"/>
-      <c r="F291" s="56"/>
+      <c r="F291" s="48">
+        <v>13.632999999999999</v>
+      </c>
+      <c r="H291" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M291">
         <f t="shared" si="292"/>
         <v>99.55</v>
@@ -60445,7 +61364,12 @@
       </c>
       <c r="D292" s="56"/>
       <c r="E292" s="55"/>
-      <c r="F292" s="56"/>
+      <c r="F292" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="H292" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M292">
         <f t="shared" si="292"/>
         <v>99.71</v>
@@ -60548,7 +61472,12 @@
       </c>
       <c r="D294" s="56"/>
       <c r="E294" s="55"/>
-      <c r="F294" s="56"/>
+      <c r="F294" s="48">
+        <v>13.502000000000001</v>
+      </c>
+      <c r="H294" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M294">
         <f t="shared" si="292"/>
         <v>99.23</v>
@@ -60615,7 +61544,12 @@
       </c>
       <c r="D295" s="56"/>
       <c r="E295" s="55"/>
-      <c r="F295" s="56"/>
+      <c r="F295" s="48">
+        <v>13.547700000000001</v>
+      </c>
+      <c r="H295" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M295">
         <f t="shared" si="292"/>
         <v>99.55</v>
@@ -60716,7 +61650,9 @@
       <c r="C297" s="56">
         <v>100</v>
       </c>
-      <c r="D297" s="56"/>
+      <c r="D297" s="48">
+        <v>13.4849</v>
+      </c>
       <c r="E297" s="55"/>
       <c r="F297" s="56"/>
       <c r="M297">
@@ -60786,6 +61722,9 @@
       <c r="D298" s="56"/>
       <c r="E298" s="55"/>
       <c r="F298" s="56"/>
+      <c r="H298" s="48" t="s">
+        <v>314</v>
+      </c>
       <c r="M298">
         <f t="shared" si="292"/>
         <v>100</v>
@@ -60837,6 +61776,9 @@
       <c r="D299" s="56"/>
       <c r="E299" s="55"/>
       <c r="F299" s="56"/>
+      <c r="H299" s="48" t="s">
+        <v>314</v>
+      </c>
       <c r="M299">
         <f t="shared" si="292"/>
         <v>100</v>
@@ -61054,9 +61996,16 @@
       <c r="C303">
         <v>100.07000000000001</v>
       </c>
-      <c r="D303" s="56"/>
+      <c r="D303" s="48">
+        <v>13.5725</v>
+      </c>
       <c r="E303" s="55"/>
-      <c r="F303" s="56"/>
+      <c r="F303" s="48">
+        <v>13.6686</v>
+      </c>
+      <c r="H303" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M303">
         <f t="shared" si="292"/>
         <v>100.07000000000001</v>
@@ -61121,9 +62070,16 @@
       <c r="C304">
         <v>99.66</v>
       </c>
-      <c r="D304" s="56"/>
+      <c r="D304" s="48">
+        <v>13.5252</v>
+      </c>
       <c r="E304" s="55"/>
-      <c r="F304" s="56"/>
+      <c r="F304" s="48">
+        <v>13.6105</v>
+      </c>
+      <c r="H304" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M304">
         <f t="shared" si="292"/>
         <v>99.66</v>
@@ -61176,7 +62132,12 @@
         <v>16067.810000000001</v>
       </c>
       <c r="E305" s="55"/>
-      <c r="F305" s="56"/>
+      <c r="F305" s="48">
+        <v>14.202199999999999</v>
+      </c>
+      <c r="H305" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M305">
         <f t="shared" si="292"/>
         <v>99.96</v>
@@ -61224,9 +62185,16 @@
       <c r="C306">
         <v>56.69</v>
       </c>
-      <c r="D306" s="56"/>
+      <c r="D306" s="48">
+        <v>13.4292</v>
+      </c>
       <c r="E306" s="55"/>
-      <c r="F306" s="56"/>
+      <c r="F306" s="48">
+        <v>13.478999999999999</v>
+      </c>
+      <c r="H306" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M306">
         <f t="shared" si="292"/>
         <v>56.69</v>
@@ -61291,9 +62259,16 @@
       <c r="C307">
         <v>99.99</v>
       </c>
-      <c r="D307" s="56"/>
+      <c r="D307" s="48">
+        <v>13.4918</v>
+      </c>
       <c r="E307" s="55"/>
-      <c r="F307" s="56"/>
+      <c r="F307" s="48">
+        <v>13.5566</v>
+      </c>
+      <c r="H307" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M307">
         <f t="shared" si="292"/>
         <v>99.99</v>
@@ -61394,9 +62369,16 @@
       <c r="C309">
         <v>100.01</v>
       </c>
-      <c r="D309" s="56"/>
+      <c r="D309" s="48">
+        <v>13.6015</v>
+      </c>
       <c r="E309" s="55"/>
-      <c r="F309" s="56"/>
+      <c r="F309" s="48">
+        <v>13.6937</v>
+      </c>
+      <c r="H309" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M309">
         <f t="shared" si="292"/>
         <v>100.01</v>
@@ -61461,9 +62443,16 @@
       <c r="C310">
         <v>99.66</v>
       </c>
-      <c r="D310" s="56"/>
+      <c r="D310" s="48">
+        <v>14.083399999999999</v>
+      </c>
       <c r="E310" s="55"/>
-      <c r="F310" s="56"/>
+      <c r="F310" s="48">
+        <v>14.1471</v>
+      </c>
+      <c r="H310" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M310">
         <f t="shared" si="292"/>
         <v>99.66</v>
@@ -61564,9 +62553,13 @@
       <c r="C312" s="48">
         <v>100</v>
       </c>
-      <c r="D312" s="56"/>
+      <c r="D312" s="48">
+        <v>14.0936</v>
+      </c>
       <c r="E312" s="55"/>
-      <c r="F312" s="56"/>
+      <c r="F312" s="48">
+        <v>14.188000000000001</v>
+      </c>
       <c r="M312">
         <f t="shared" si="292"/>
         <v>100</v>
@@ -61631,9 +62624,13 @@
       <c r="C313">
         <v>99.77</v>
       </c>
-      <c r="D313" s="56"/>
+      <c r="D313" s="48">
+        <v>14.045999999999999</v>
+      </c>
       <c r="E313" s="55"/>
-      <c r="F313" s="56"/>
+      <c r="F313" s="48">
+        <v>14.1129</v>
+      </c>
       <c r="M313">
         <f t="shared" si="292"/>
         <v>99.77</v>
@@ -61734,9 +62731,16 @@
       <c r="C315" s="58">
         <v>99.29</v>
       </c>
-      <c r="D315" s="56"/>
+      <c r="D315" s="48">
+        <v>14.048500000000001</v>
+      </c>
       <c r="E315" s="55"/>
-      <c r="F315" s="56"/>
+      <c r="F315" s="48">
+        <v>14.142099999999999</v>
+      </c>
+      <c r="H315" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M315">
         <f t="shared" si="292"/>
         <v>99.29</v>
@@ -61801,9 +62805,16 @@
       <c r="C316" s="58">
         <v>99.29</v>
       </c>
-      <c r="D316" s="56"/>
+      <c r="D316" s="48">
+        <v>14.101599999999999</v>
+      </c>
       <c r="E316" s="55"/>
-      <c r="F316" s="56"/>
+      <c r="F316" s="48">
+        <v>14.1638</v>
+      </c>
+      <c r="H316" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M316">
         <f t="shared" si="292"/>
         <v>99.29</v>
@@ -61904,9 +62915,16 @@
       <c r="C318">
         <v>77.62</v>
       </c>
-      <c r="D318" s="56"/>
+      <c r="D318" s="48">
+        <v>13.56316</v>
+      </c>
       <c r="E318" s="55"/>
-      <c r="F318" s="56"/>
+      <c r="F318" s="48">
+        <v>13.6256</v>
+      </c>
+      <c r="H318" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M318">
         <f t="shared" si="292"/>
         <v>77.62</v>
@@ -61970,9 +62988,16 @@
       <c r="C319">
         <v>99.67</v>
       </c>
-      <c r="D319" s="56"/>
+      <c r="D319" s="48">
+        <v>13.4716</v>
+      </c>
       <c r="E319" s="55"/>
-      <c r="F319" s="56"/>
+      <c r="F319" s="48">
+        <v>13.55</v>
+      </c>
+      <c r="H319" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M319">
         <f t="shared" si="292"/>
         <v>99.67</v>
@@ -62021,9 +63046,16 @@
       <c r="C320">
         <v>99.57</v>
       </c>
-      <c r="D320" s="56"/>
+      <c r="D320" s="48">
+        <v>14.028499999999999</v>
+      </c>
       <c r="E320" s="55"/>
-      <c r="F320" s="56"/>
+      <c r="F320" s="48">
+        <v>14.124000000000001</v>
+      </c>
+      <c r="H320" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M320">
         <f t="shared" si="292"/>
         <v>99.57</v>
@@ -62072,11 +63104,18 @@
       <c r="C321">
         <v>99.21</v>
       </c>
-      <c r="D321" s="56"/>
+      <c r="D321" s="48">
+        <v>13.39517</v>
+      </c>
       <c r="E321" s="55"/>
-      <c r="F321" s="56"/>
+      <c r="F321" s="48">
+        <v>13.4939</v>
+      </c>
+      <c r="H321" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M321">
-        <f t="shared" ref="M321:M344" si="315">C321</f>
+        <f t="shared" ref="M321:M376" si="315">C321</f>
         <v>99.21</v>
       </c>
       <c r="N321">
@@ -62138,9 +63177,16 @@
       <c r="C322">
         <v>99.25</v>
       </c>
-      <c r="D322" s="56"/>
+      <c r="D322" s="48">
+        <v>13.481400000000001</v>
+      </c>
       <c r="E322" s="55"/>
-      <c r="F322" s="56"/>
+      <c r="F322" s="48">
+        <v>13.5625</v>
+      </c>
+      <c r="H322" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M322">
         <f t="shared" si="315"/>
         <v>99.25</v>
@@ -62189,9 +63235,16 @@
       <c r="C323">
         <v>99.52</v>
       </c>
-      <c r="D323" s="56"/>
+      <c r="D323" s="48">
+        <v>14.146100000000001</v>
+      </c>
       <c r="E323" s="55"/>
-      <c r="F323" s="56"/>
+      <c r="F323" s="48">
+        <v>14.241300000000001</v>
+      </c>
+      <c r="H323" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M323">
         <f t="shared" si="315"/>
         <v>99.52</v>
@@ -62240,9 +63293,16 @@
       <c r="C324">
         <v>99.18</v>
       </c>
-      <c r="D324" s="56"/>
+      <c r="D324" s="48">
+        <v>13.46322</v>
+      </c>
       <c r="E324" s="55"/>
-      <c r="F324" s="56"/>
+      <c r="F324" s="48">
+        <v>13.5595</v>
+      </c>
+      <c r="H324" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M324">
         <f t="shared" si="315"/>
         <v>99.18</v>
@@ -62399,7 +63459,7 @@
       </c>
     </row>
     <row r="327" spans="1:31">
-      <c r="A327" s="61" t="s">
+      <c r="A327" t="s">
         <v>302</v>
       </c>
       <c r="B327" t="s">
@@ -62408,9 +63468,16 @@
       <c r="C327">
         <v>99.4</v>
       </c>
-      <c r="D327" s="56"/>
+      <c r="D327" s="48">
+        <v>13.487410000000001</v>
+      </c>
       <c r="E327" s="55"/>
-      <c r="F327" s="56"/>
+      <c r="F327" s="48">
+        <v>13.5845</v>
+      </c>
+      <c r="H327" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M327">
         <f t="shared" si="315"/>
         <v>99.4</v>
@@ -62465,7 +63532,7 @@
       </c>
     </row>
     <row r="328" spans="1:31">
-      <c r="A328" s="61" t="s">
+      <c r="A328" t="s">
         <v>302</v>
       </c>
       <c r="B328" t="s">
@@ -62474,11 +63541,16 @@
       <c r="C328">
         <v>99.77</v>
       </c>
-      <c r="D328">
-        <v>13425.800000000001</v>
+      <c r="D328" s="48">
+        <v>14.095599999999999</v>
       </c>
       <c r="E328" s="55"/>
-      <c r="F328" s="56"/>
+      <c r="F328" s="48">
+        <v>14.1698</v>
+      </c>
+      <c r="H328" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M328">
         <f t="shared" si="315"/>
         <v>99.77</v>
@@ -62518,7 +63590,7 @@
       </c>
     </row>
     <row r="329" spans="1:31">
-      <c r="A329" s="61" t="s">
+      <c r="A329" t="s">
         <v>302</v>
       </c>
       <c r="B329" t="s">
@@ -62527,11 +63599,16 @@
       <c r="C329">
         <v>99.49</v>
       </c>
-      <c r="D329">
-        <v>14095.599999999999</v>
+      <c r="D329" s="48">
+        <v>13.425800000000001</v>
       </c>
       <c r="E329" s="55"/>
-      <c r="F329" s="56"/>
+      <c r="F329" s="48">
+        <v>13.5185</v>
+      </c>
+      <c r="H329" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M329">
         <f t="shared" si="315"/>
         <v>99.49</v>
@@ -62580,9 +63657,16 @@
       <c r="C330">
         <v>99.37</v>
       </c>
-      <c r="D330" s="56"/>
+      <c r="D330" s="48">
+        <v>13.446400000000001</v>
+      </c>
       <c r="E330" s="55"/>
-      <c r="F330" s="56"/>
+      <c r="F330" s="48">
+        <v>13.5421</v>
+      </c>
+      <c r="H330" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M330">
         <f t="shared" si="315"/>
         <v>99.37</v>
@@ -62646,9 +63730,16 @@
       <c r="C331">
         <v>100.09</v>
       </c>
-      <c r="D331" s="56"/>
+      <c r="D331" s="48">
+        <v>13.561999999999999</v>
+      </c>
       <c r="E331" s="55"/>
-      <c r="F331" s="56"/>
+      <c r="F331" s="48">
+        <v>13.640700000000001</v>
+      </c>
+      <c r="H331" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M331">
         <f t="shared" si="315"/>
         <v>100.09</v>
@@ -62697,9 +63788,16 @@
       <c r="C332">
         <v>99.91</v>
       </c>
-      <c r="D332" s="56"/>
+      <c r="D332" s="48">
+        <v>14.1157</v>
+      </c>
       <c r="E332" s="55"/>
-      <c r="F332" s="56"/>
+      <c r="F332" s="48">
+        <v>14.206200000000001</v>
+      </c>
+      <c r="H332" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M332">
         <f t="shared" si="315"/>
         <v>99.91</v>
@@ -62748,9 +63846,16 @@
       <c r="C333">
         <v>100</v>
       </c>
-      <c r="D333" s="56"/>
+      <c r="D333" s="48">
+        <v>13.449170000000001</v>
+      </c>
       <c r="E333" s="55"/>
-      <c r="F333" s="56"/>
+      <c r="F333" s="48">
+        <v>13.545299999999999</v>
+      </c>
+      <c r="H333" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M333">
         <f t="shared" si="315"/>
         <v>100</v>
@@ -62814,9 +63919,16 @@
       <c r="C334">
         <v>100</v>
       </c>
-      <c r="D334" s="56"/>
+      <c r="D334" s="48">
+        <v>14.074400000000001</v>
+      </c>
       <c r="E334" s="55"/>
-      <c r="F334" s="56"/>
+      <c r="F334" s="48">
+        <v>14.146100000000001</v>
+      </c>
+      <c r="H334" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M334">
         <f t="shared" si="315"/>
         <v>100</v>
@@ -62865,9 +63977,16 @@
       <c r="C335">
         <v>100</v>
       </c>
-      <c r="D335" s="56"/>
+      <c r="D335" s="48">
+        <v>14.0571</v>
+      </c>
       <c r="E335" s="55"/>
-      <c r="F335" s="56"/>
+      <c r="F335" s="48">
+        <v>14.1463</v>
+      </c>
+      <c r="H335" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M335">
         <f t="shared" si="315"/>
         <v>100</v>
@@ -62916,9 +64035,16 @@
       <c r="C336">
         <v>53.69</v>
       </c>
-      <c r="D336" s="56"/>
+      <c r="D336" s="48">
+        <v>13.520910000000001</v>
+      </c>
       <c r="E336" s="55"/>
-      <c r="F336" s="56"/>
+      <c r="F336" s="48">
+        <v>13.5715</v>
+      </c>
+      <c r="H336" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M336">
         <f t="shared" si="315"/>
         <v>53.69</v>
@@ -62982,9 +64108,16 @@
       <c r="C337">
         <v>99.03</v>
       </c>
-      <c r="D337" s="56"/>
+      <c r="D337" s="48">
+        <v>13.5138</v>
+      </c>
       <c r="E337" s="55"/>
-      <c r="F337" s="56"/>
+      <c r="F337" s="48">
+        <v>13.5771</v>
+      </c>
+      <c r="H337" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M337">
         <f t="shared" si="315"/>
         <v>99.03</v>
@@ -63033,9 +64166,16 @@
       <c r="C338">
         <v>74.28</v>
       </c>
-      <c r="D338" s="56"/>
+      <c r="D338" s="48">
+        <v>13.502000000000001</v>
+      </c>
       <c r="E338" s="55"/>
-      <c r="F338" s="56"/>
+      <c r="F338" s="48">
+        <v>13.5693</v>
+      </c>
+      <c r="H338" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M338">
         <f t="shared" si="315"/>
         <v>74.28</v>
@@ -63150,9 +64290,16 @@
       <c r="C340">
         <v>100.04</v>
       </c>
-      <c r="D340" s="56"/>
-      <c r="E340" s="55"/>
-      <c r="F340" s="56"/>
+      <c r="D340" s="48" t="s">
+        <v>316</v>
+      </c>
+      <c r="E340" s="48"/>
+      <c r="F340" s="48">
+        <v>13.5092</v>
+      </c>
+      <c r="H340" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M340">
         <f t="shared" si="315"/>
         <v>100.04</v>
@@ -63201,9 +64348,16 @@
       <c r="C341">
         <v>60.93</v>
       </c>
-      <c r="D341" s="56"/>
-      <c r="E341" s="55"/>
-      <c r="F341" s="56"/>
+      <c r="D341" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="E341" s="48"/>
+      <c r="F341" s="48">
+        <v>14.0975</v>
+      </c>
+      <c r="H341" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M341">
         <f t="shared" si="315"/>
         <v>60.93</v>
@@ -63252,9 +64406,16 @@
       <c r="C342">
         <v>77.62</v>
       </c>
-      <c r="D342" s="56"/>
+      <c r="D342" s="48">
+        <v>13.56316</v>
+      </c>
       <c r="E342" s="55"/>
-      <c r="F342" s="56"/>
+      <c r="F342" s="48">
+        <v>13.6381</v>
+      </c>
+      <c r="H342" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M342">
         <f t="shared" si="315"/>
         <v>77.62</v>
@@ -63318,9 +64479,16 @@
       <c r="C343">
         <v>82.92</v>
       </c>
-      <c r="D343" s="56"/>
+      <c r="D343" s="48">
+        <v>13.495799999999999</v>
+      </c>
       <c r="E343" s="55"/>
-      <c r="F343" s="56"/>
+      <c r="F343" s="48">
+        <v>13.5565</v>
+      </c>
+      <c r="H343" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M343">
         <f t="shared" si="315"/>
         <v>82.92</v>
@@ -63369,9 +64537,16 @@
       <c r="C344">
         <v>87.88</v>
       </c>
-      <c r="D344" s="56"/>
+      <c r="D344" s="48">
+        <v>14.094900000000001</v>
+      </c>
       <c r="E344" s="55"/>
-      <c r="F344" s="56"/>
+      <c r="F344" s="48">
+        <v>14.172499999999999</v>
+      </c>
+      <c r="H344" s="48" t="s">
+        <v>310</v>
+      </c>
       <c r="M344">
         <f t="shared" si="315"/>
         <v>87.88</v>
@@ -63408,6 +64583,1755 @@
       <c r="X344">
         <f t="shared" si="309"/>
         <v>10.811173418297681</v>
+      </c>
+    </row>
+    <row r="345" spans="1:31">
+      <c r="A345" t="s">
+        <v>319</v>
+      </c>
+      <c r="B345" t="s">
+        <v>216</v>
+      </c>
+      <c r="C345">
+        <v>100</v>
+      </c>
+      <c r="M345">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N345">
+        <f>S345</f>
+        <v>121.43</v>
+      </c>
+      <c r="O345" s="51">
+        <f t="shared" ref="O345:O347" si="358">100*N345/C345</f>
+        <v>121.43</v>
+      </c>
+      <c r="P345">
+        <v>0</v>
+      </c>
+      <c r="S345">
+        <v>121.43</v>
+      </c>
+      <c r="T345">
+        <v>2.5172439</v>
+      </c>
+      <c r="U345">
+        <v>18.469503</v>
+      </c>
+      <c r="V345">
+        <f t="shared" ref="V345:V377" si="359">(S345-(S345*P345))</f>
+        <v>121.43</v>
+      </c>
+      <c r="W345" s="52">
+        <f t="shared" ref="W345:W377" si="360">100*T345/V345</f>
+        <v>2.073</v>
+      </c>
+      <c r="X345">
+        <f t="shared" ref="X345:X377" si="361">100*U345/V345</f>
+        <v>15.209999999999999</v>
+      </c>
+      <c r="AB345" s="46">
+        <f t="shared" ref="AB345:AB377" si="362">100*(X347-X346)/X345</f>
+        <v>15.52377777777777</v>
+      </c>
+      <c r="AC345" s="46">
+        <f t="shared" ref="AC345:AC377" si="363">100*(((K346-K347)*0.027)/C346)</f>
+        <v>0</v>
+      </c>
+      <c r="AD345" s="46">
+        <f t="shared" ref="AD345:AD377" si="364">(1000*(((K346-K347)*0.027)/55.85))/(C346/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AE345" s="46">
+        <f t="shared" ref="AE345:AE377" si="365">1000000*(X347-X346)/55.85/100</f>
+        <v>422.76931065353602</v>
+      </c>
+    </row>
+    <row r="346" spans="1:31">
+      <c r="A346" t="s">
+        <v>319</v>
+      </c>
+      <c r="B346" t="s">
+        <v>217</v>
+      </c>
+      <c r="C346">
+        <v>100</v>
+      </c>
+      <c r="M346">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N346">
+        <f t="shared" ref="N346:N377" si="366">S346</f>
+        <v>77.38</v>
+      </c>
+      <c r="O346" s="51">
+        <f t="shared" si="358"/>
+        <v>77.38</v>
+      </c>
+      <c r="P346">
+        <f t="shared" ref="P346:P347" si="367">(N346-M346)/N346</f>
+        <v>-0.29232359782889644</v>
+      </c>
+      <c r="S346">
+        <v>77.38</v>
+      </c>
+      <c r="T346">
+        <v>1.5630759999999999</v>
+      </c>
+      <c r="U346">
+        <v>11.5474174</v>
+      </c>
+      <c r="V346">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W346" s="52">
+        <f t="shared" si="360"/>
+        <v>1.5630759999999997</v>
+      </c>
+      <c r="X346">
+        <f t="shared" si="361"/>
+        <v>11.547417399999999</v>
+      </c>
+    </row>
+    <row r="347" spans="1:31">
+      <c r="A347" t="s">
+        <v>319</v>
+      </c>
+      <c r="B347" t="s">
+        <v>218</v>
+      </c>
+      <c r="C347">
+        <v>100</v>
+      </c>
+      <c r="M347">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N347">
+        <f t="shared" si="366"/>
+        <v>105.4</v>
+      </c>
+      <c r="O347" s="51">
+        <f t="shared" si="358"/>
+        <v>105.4</v>
+      </c>
+      <c r="P347">
+        <f t="shared" si="367"/>
+        <v>5.1233396584440281E-2</v>
+      </c>
+      <c r="S347">
+        <v>105.4</v>
+      </c>
+      <c r="T347">
+        <v>1.888768</v>
+      </c>
+      <c r="U347">
+        <v>13.908583999999999</v>
+      </c>
+      <c r="V347">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W347" s="52">
+        <f t="shared" si="360"/>
+        <v>1.888768</v>
+      </c>
+      <c r="X347">
+        <f t="shared" si="361"/>
+        <v>13.908583999999998</v>
+      </c>
+    </row>
+    <row r="348" spans="1:31">
+      <c r="A348" t="s">
+        <v>320</v>
+      </c>
+      <c r="B348" t="s">
+        <v>216</v>
+      </c>
+      <c r="C348">
+        <v>100</v>
+      </c>
+      <c r="M348">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N348">
+        <f t="shared" si="366"/>
+        <v>105.84</v>
+      </c>
+      <c r="O348" s="51">
+        <f t="shared" ref="O348:O377" si="368">100*N348/C348</f>
+        <v>105.84</v>
+      </c>
+      <c r="P348">
+        <v>0</v>
+      </c>
+      <c r="S348">
+        <v>105.84</v>
+      </c>
+      <c r="T348">
+        <v>0.994896</v>
+      </c>
+      <c r="U348">
+        <v>9.2197224000000002</v>
+      </c>
+      <c r="V348">
+        <f t="shared" si="359"/>
+        <v>105.84</v>
+      </c>
+      <c r="W348" s="52">
+        <f t="shared" si="360"/>
+        <v>0.94</v>
+      </c>
+      <c r="X348">
+        <f t="shared" si="361"/>
+        <v>8.7110000000000003</v>
+      </c>
+      <c r="AB348" s="46">
+        <f t="shared" ref="AB348:AB377" si="369">100*(X350-X349)/X348</f>
+        <v>28.201994030536092</v>
+      </c>
+      <c r="AC348" s="46">
+        <f t="shared" ref="AC348:AC377" si="370">100*(((K349-K350)*0.027)/C349)</f>
+        <v>0</v>
+      </c>
+      <c r="AD348" s="46">
+        <f t="shared" ref="AD348:AD377" si="371">(1000*(((K349-K350)*0.027)/55.85))/(C349/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AE348" s="46">
+        <f t="shared" ref="AE348:AE377" si="372">1000000*(X350-X349)/55.85/100</f>
+        <v>439.8703133393015</v>
+      </c>
+    </row>
+    <row r="349" spans="1:31">
+      <c r="A349" t="s">
+        <v>320</v>
+      </c>
+      <c r="B349" t="s">
+        <v>217</v>
+      </c>
+      <c r="C349">
+        <v>100</v>
+      </c>
+      <c r="M349">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N349">
+        <f t="shared" si="366"/>
+        <v>74.89</v>
+      </c>
+      <c r="O349" s="51">
+        <f t="shared" si="368"/>
+        <v>74.89</v>
+      </c>
+      <c r="P349">
+        <f t="shared" ref="P349:P377" si="373">(N349-M349)/N349</f>
+        <v>-0.33529176124983306</v>
+      </c>
+      <c r="S349">
+        <v>74.89</v>
+      </c>
+      <c r="T349">
+        <v>0.6358161</v>
+      </c>
+      <c r="U349">
+        <v>5.6234900999999997</v>
+      </c>
+      <c r="V349">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W349" s="52">
+        <f t="shared" si="360"/>
+        <v>0.6358161</v>
+      </c>
+      <c r="X349">
+        <f t="shared" si="361"/>
+        <v>5.6234901000000006</v>
+      </c>
+    </row>
+    <row r="350" spans="1:31">
+      <c r="A350" t="s">
+        <v>320</v>
+      </c>
+      <c r="B350" t="s">
+        <v>218</v>
+      </c>
+      <c r="C350">
+        <v>100</v>
+      </c>
+      <c r="M350">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N350">
+        <f t="shared" si="366"/>
+        <v>106.29</v>
+      </c>
+      <c r="O350" s="51">
+        <f t="shared" si="368"/>
+        <v>106.29</v>
+      </c>
+      <c r="P350">
+        <f t="shared" si="373"/>
+        <v>5.917772132844111E-2</v>
+      </c>
+      <c r="S350">
+        <v>106.29</v>
+      </c>
+      <c r="T350">
+        <v>0.90559080000000003</v>
+      </c>
+      <c r="U350">
+        <v>8.0801657999999996</v>
+      </c>
+      <c r="V350">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W350" s="52">
+        <f t="shared" si="360"/>
+        <v>0.90559080000000014</v>
+      </c>
+      <c r="X350">
+        <f t="shared" si="361"/>
+        <v>8.0801657999999996</v>
+      </c>
+    </row>
+    <row r="351" spans="1:31">
+      <c r="A351" t="s">
+        <v>321</v>
+      </c>
+      <c r="B351" t="s">
+        <v>216</v>
+      </c>
+      <c r="C351">
+        <v>100</v>
+      </c>
+      <c r="M351">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N351">
+        <f t="shared" si="366"/>
+        <v>107.84</v>
+      </c>
+      <c r="O351" s="51">
+        <f t="shared" si="368"/>
+        <v>107.84</v>
+      </c>
+      <c r="P351">
+        <v>0</v>
+      </c>
+      <c r="S351">
+        <v>107.84</v>
+      </c>
+      <c r="T351">
+        <v>1.5647584000000001</v>
+      </c>
+      <c r="U351">
+        <v>11.880732800000001</v>
+      </c>
+      <c r="V351">
+        <f t="shared" si="359"/>
+        <v>107.84</v>
+      </c>
+      <c r="W351" s="52">
+        <f t="shared" si="360"/>
+        <v>1.4510000000000001</v>
+      </c>
+      <c r="X351">
+        <f t="shared" si="361"/>
+        <v>11.016999999999999</v>
+      </c>
+      <c r="AB351" s="46">
+        <f t="shared" ref="AB351:AB377" si="374">100*(X353-X352)/X351</f>
+        <v>13.175851865299078</v>
+      </c>
+      <c r="AC351" s="46">
+        <f t="shared" ref="AC351:AC377" si="375">100*(((K352-K353)*0.027)/C352)</f>
+        <v>0</v>
+      </c>
+      <c r="AD351" s="46">
+        <f t="shared" ref="AD351:AD377" si="376">(1000*(((K352-K353)*0.027)/55.85))/(C352/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AE351" s="46">
+        <f t="shared" ref="AE351:AE377" si="377">1000000*(X353-X352)/55.85/100</f>
+        <v>259.90753804834367</v>
+      </c>
+    </row>
+    <row r="352" spans="1:31">
+      <c r="A352" t="s">
+        <v>321</v>
+      </c>
+      <c r="B352" t="s">
+        <v>217</v>
+      </c>
+      <c r="C352">
+        <v>100</v>
+      </c>
+      <c r="M352">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N352">
+        <f t="shared" si="366"/>
+        <v>83.38</v>
+      </c>
+      <c r="O352" s="51">
+        <f t="shared" si="368"/>
+        <v>83.38</v>
+      </c>
+      <c r="P352">
+        <f t="shared" ref="P352:P377" si="378">(N352-M352)/N352</f>
+        <v>-0.19932837610937881</v>
+      </c>
+      <c r="S352">
+        <v>83.38</v>
+      </c>
+      <c r="T352">
+        <v>1.0072304000000001</v>
+      </c>
+      <c r="U352">
+        <v>8.1845808000000009</v>
+      </c>
+      <c r="V352">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W352" s="52">
+        <f t="shared" si="360"/>
+        <v>1.0072304000000001</v>
+      </c>
+      <c r="X352">
+        <f t="shared" si="361"/>
+        <v>8.1845808000000009</v>
+      </c>
+    </row>
+    <row r="353" spans="1:31">
+      <c r="A353" t="s">
+        <v>321</v>
+      </c>
+      <c r="B353" t="s">
+        <v>218</v>
+      </c>
+      <c r="C353">
+        <v>100</v>
+      </c>
+      <c r="M353">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N353">
+        <f t="shared" si="366"/>
+        <v>100.86</v>
+      </c>
+      <c r="O353" s="51">
+        <f t="shared" si="368"/>
+        <v>100.86</v>
+      </c>
+      <c r="P353">
+        <f t="shared" si="378"/>
+        <v>8.5266706325599784E-3</v>
+      </c>
+      <c r="S353">
+        <v>100.86</v>
+      </c>
+      <c r="T353">
+        <v>1.2103200000000001</v>
+      </c>
+      <c r="U353">
+        <v>9.6361644000000002</v>
+      </c>
+      <c r="V353">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W353" s="52">
+        <f t="shared" si="360"/>
+        <v>1.2103200000000001</v>
+      </c>
+      <c r="X353">
+        <f t="shared" si="361"/>
+        <v>9.6361644000000002</v>
+      </c>
+    </row>
+    <row r="354" spans="1:31">
+      <c r="A354" t="s">
+        <v>322</v>
+      </c>
+      <c r="B354" t="s">
+        <v>216</v>
+      </c>
+      <c r="C354">
+        <v>100</v>
+      </c>
+      <c r="M354">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N354">
+        <f t="shared" si="366"/>
+        <v>122.29</v>
+      </c>
+      <c r="O354" s="51">
+        <f t="shared" si="368"/>
+        <v>122.29</v>
+      </c>
+      <c r="P354">
+        <v>0</v>
+      </c>
+      <c r="S354">
+        <v>122.29</v>
+      </c>
+      <c r="T354">
+        <v>1.2693702</v>
+      </c>
+      <c r="U354">
+        <v>10.885032900000001</v>
+      </c>
+      <c r="V354">
+        <f t="shared" si="359"/>
+        <v>122.29</v>
+      </c>
+      <c r="W354" s="52">
+        <f t="shared" si="360"/>
+        <v>1.038</v>
+      </c>
+      <c r="X354">
+        <f t="shared" si="361"/>
+        <v>8.9009999999999998</v>
+      </c>
+      <c r="AB354" s="46">
+        <f t="shared" ref="AB354:AB377" si="379">100*(X356-X355)/X354</f>
+        <v>11.972422199752847</v>
+      </c>
+      <c r="AC354" s="46">
+        <f t="shared" ref="AC354:AC377" si="380">100*(((K355-K356)*0.027)/C355)</f>
+        <v>0</v>
+      </c>
+      <c r="AD354" s="46">
+        <f t="shared" ref="AD354:AD377" si="381">(1000*(((K355-K356)*0.027)/55.85))/(C355/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AE354" s="46">
+        <f t="shared" ref="AE354:AE377" si="382">1000000*(X356-X355)/55.85/100</f>
+        <v>190.80846911369758</v>
+      </c>
+    </row>
+    <row r="355" spans="1:31">
+      <c r="A355" t="s">
+        <v>322</v>
+      </c>
+      <c r="B355" t="s">
+        <v>217</v>
+      </c>
+      <c r="C355">
+        <v>100</v>
+      </c>
+      <c r="M355">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N355">
+        <f t="shared" si="366"/>
+        <v>94.96</v>
+      </c>
+      <c r="O355" s="51">
+        <f t="shared" si="368"/>
+        <v>94.96</v>
+      </c>
+      <c r="P355">
+        <f t="shared" ref="P355:P377" si="383">(N355-M355)/N355</f>
+        <v>-5.3074978938500487E-2</v>
+      </c>
+      <c r="S355">
+        <v>94.96</v>
+      </c>
+      <c r="T355">
+        <v>0.92775920000000001</v>
+      </c>
+      <c r="U355">
+        <v>7.9538495999999999</v>
+      </c>
+      <c r="V355">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W355" s="52">
+        <f t="shared" si="360"/>
+        <v>0.92775920000000001</v>
+      </c>
+      <c r="X355">
+        <f t="shared" si="361"/>
+        <v>7.9538495999999999</v>
+      </c>
+    </row>
+    <row r="356" spans="1:31">
+      <c r="A356" t="s">
+        <v>322</v>
+      </c>
+      <c r="B356" t="s">
+        <v>218</v>
+      </c>
+      <c r="C356">
+        <v>100</v>
+      </c>
+      <c r="M356">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N356">
+        <f t="shared" si="366"/>
+        <v>114.07</v>
+      </c>
+      <c r="O356" s="51">
+        <f t="shared" si="368"/>
+        <v>114.07</v>
+      </c>
+      <c r="P356">
+        <f t="shared" si="383"/>
+        <v>0.12334531428070478</v>
+      </c>
+      <c r="S356">
+        <v>114.07</v>
+      </c>
+      <c r="T356">
+        <v>1.0813835999999999</v>
+      </c>
+      <c r="U356">
+        <v>9.0195149000000008</v>
+      </c>
+      <c r="V356">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W356" s="52">
+        <f t="shared" si="360"/>
+        <v>1.0813835999999999</v>
+      </c>
+      <c r="X356">
+        <f t="shared" si="361"/>
+        <v>9.0195149000000008</v>
+      </c>
+    </row>
+    <row r="357" spans="1:31">
+      <c r="A357" t="s">
+        <v>323</v>
+      </c>
+      <c r="B357" t="s">
+        <v>216</v>
+      </c>
+      <c r="C357">
+        <v>100</v>
+      </c>
+      <c r="M357">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N357">
+        <f t="shared" si="366"/>
+        <v>120.52</v>
+      </c>
+      <c r="O357" s="51">
+        <f t="shared" si="368"/>
+        <v>120.52</v>
+      </c>
+      <c r="P357">
+        <v>0</v>
+      </c>
+      <c r="S357">
+        <v>120.52</v>
+      </c>
+      <c r="T357">
+        <v>1.337772</v>
+      </c>
+      <c r="U357">
+        <v>12.026690800000001</v>
+      </c>
+      <c r="V357">
+        <f t="shared" si="359"/>
+        <v>120.52</v>
+      </c>
+      <c r="W357" s="52">
+        <f t="shared" si="360"/>
+        <v>1.1099999999999999</v>
+      </c>
+      <c r="X357">
+        <f t="shared" si="361"/>
+        <v>9.979000000000001</v>
+      </c>
+      <c r="AB357" s="46">
+        <f t="shared" ref="AB357:AB377" si="384">100*(X359-X358)/X357</f>
+        <v>7.1363302936165951</v>
+      </c>
+      <c r="AC357" s="46">
+        <f t="shared" ref="AC357:AC377" si="385">100*(((K358-K359)*0.027)/C358)</f>
+        <v>0</v>
+      </c>
+      <c r="AD357" s="46">
+        <f t="shared" ref="AD357:AD377" si="386">(1000*(((K358-K359)*0.027)/55.85))/(C358/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AE357" s="46">
+        <f t="shared" ref="AE357:AE377" si="387">1000000*(X359-X358)/55.85/100</f>
+        <v>127.5083974932856</v>
+      </c>
+    </row>
+    <row r="358" spans="1:31">
+      <c r="A358" t="s">
+        <v>323</v>
+      </c>
+      <c r="B358" t="s">
+        <v>217</v>
+      </c>
+      <c r="C358">
+        <v>100</v>
+      </c>
+      <c r="M358">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N358">
+        <f t="shared" si="366"/>
+        <v>100.24</v>
+      </c>
+      <c r="O358" s="51">
+        <f t="shared" si="368"/>
+        <v>100.24</v>
+      </c>
+      <c r="P358">
+        <f t="shared" ref="P358:P377" si="388">(N358-M358)/N358</f>
+        <v>2.3942537909017849E-3</v>
+      </c>
+      <c r="S358">
+        <v>100.24</v>
+      </c>
+      <c r="T358">
+        <v>0.93122959999999999</v>
+      </c>
+      <c r="U358">
+        <v>8.2437375999999993</v>
+      </c>
+      <c r="V358">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W358" s="52">
+        <f t="shared" si="360"/>
+        <v>0.9312296000000001</v>
+      </c>
+      <c r="X358">
+        <f t="shared" si="361"/>
+        <v>8.2437375999999993</v>
+      </c>
+    </row>
+    <row r="359" spans="1:31">
+      <c r="A359" t="s">
+        <v>323</v>
+      </c>
+      <c r="B359" t="s">
+        <v>218</v>
+      </c>
+      <c r="C359">
+        <v>100</v>
+      </c>
+      <c r="M359">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N359">
+        <f t="shared" si="366"/>
+        <v>110.84</v>
+      </c>
+      <c r="O359" s="51">
+        <f t="shared" si="368"/>
+        <v>110.84</v>
+      </c>
+      <c r="P359">
+        <f t="shared" si="388"/>
+        <v>9.7798628653915587E-2</v>
+      </c>
+      <c r="S359">
+        <v>110.84</v>
+      </c>
+      <c r="T359">
+        <v>1.1261344</v>
+      </c>
+      <c r="U359">
+        <v>8.9558719999999994</v>
+      </c>
+      <c r="V359">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W359" s="52">
+        <f t="shared" si="360"/>
+        <v>1.1261344</v>
+      </c>
+      <c r="X359">
+        <f t="shared" si="361"/>
+        <v>8.9558719999999994</v>
+      </c>
+    </row>
+    <row r="360" spans="1:31">
+      <c r="A360" t="s">
+        <v>324</v>
+      </c>
+      <c r="B360" t="s">
+        <v>216</v>
+      </c>
+      <c r="C360">
+        <v>100</v>
+      </c>
+      <c r="M360">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N360">
+        <f t="shared" si="366"/>
+        <v>113.2</v>
+      </c>
+      <c r="O360" s="51">
+        <f t="shared" si="368"/>
+        <v>113.2</v>
+      </c>
+      <c r="P360">
+        <v>0</v>
+      </c>
+      <c r="S360">
+        <v>113.2</v>
+      </c>
+      <c r="T360">
+        <v>2.171176</v>
+      </c>
+      <c r="U360">
+        <v>17.561848000000001</v>
+      </c>
+      <c r="V360">
+        <f t="shared" si="359"/>
+        <v>113.2</v>
+      </c>
+      <c r="W360" s="52">
+        <f t="shared" si="360"/>
+        <v>1.9180000000000001</v>
+      </c>
+      <c r="X360">
+        <f t="shared" si="361"/>
+        <v>15.514000000000001</v>
+      </c>
+      <c r="AB360" s="46">
+        <f t="shared" ref="AB360:AB377" si="389">100*(X362-X361)/X360</f>
+        <v>18.865009668686348</v>
+      </c>
+      <c r="AC360" s="46">
+        <f t="shared" ref="AC360:AC377" si="390">100*(((K361-K362)*0.027)/C361)</f>
+        <v>0</v>
+      </c>
+      <c r="AD360" s="46">
+        <f t="shared" ref="AD360:AD377" si="391">(1000*(((K361-K362)*0.027)/55.85))/(C361/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AE360" s="46">
+        <f t="shared" ref="AE360:AE377" si="392">1000000*(X362-X361)/55.85/100</f>
+        <v>524.03179946284695</v>
+      </c>
+    </row>
+    <row r="361" spans="1:31">
+      <c r="A361" t="s">
+        <v>325</v>
+      </c>
+      <c r="B361" t="s">
+        <v>217</v>
+      </c>
+      <c r="C361">
+        <v>100</v>
+      </c>
+      <c r="M361">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N361">
+        <f t="shared" si="366"/>
+        <v>57.89</v>
+      </c>
+      <c r="O361" s="51">
+        <f t="shared" si="368"/>
+        <v>57.89</v>
+      </c>
+      <c r="P361">
+        <f t="shared" ref="P361:P377" si="393">(N361-M361)/N361</f>
+        <v>-0.7274140611504577</v>
+      </c>
+      <c r="S361">
+        <v>57.89</v>
+      </c>
+      <c r="T361">
+        <v>1.337259</v>
+      </c>
+      <c r="U361">
+        <v>10.082122399999999</v>
+      </c>
+      <c r="V361">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W361" s="52">
+        <f t="shared" si="360"/>
+        <v>1.337259</v>
+      </c>
+      <c r="X361">
+        <f t="shared" si="361"/>
+        <v>10.082122399999999</v>
+      </c>
+    </row>
+    <row r="362" spans="1:31">
+      <c r="A362" t="s">
+        <v>324</v>
+      </c>
+      <c r="B362" t="s">
+        <v>218</v>
+      </c>
+      <c r="C362">
+        <v>100</v>
+      </c>
+      <c r="M362">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N362">
+        <f t="shared" si="366"/>
+        <v>107.6</v>
+      </c>
+      <c r="O362" s="51">
+        <f t="shared" si="368"/>
+        <v>107.6</v>
+      </c>
+      <c r="P362">
+        <f t="shared" si="393"/>
+        <v>7.0631970260222998E-2</v>
+      </c>
+      <c r="S362">
+        <v>107.6</v>
+      </c>
+      <c r="T362">
+        <v>1.6538120000000001</v>
+      </c>
+      <c r="U362">
+        <v>13.008839999999999</v>
+      </c>
+      <c r="V362">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W362" s="52">
+        <f t="shared" si="360"/>
+        <v>1.6538120000000001</v>
+      </c>
+      <c r="X362">
+        <f t="shared" si="361"/>
+        <v>13.008839999999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:31">
+      <c r="A363" t="s">
+        <v>326</v>
+      </c>
+      <c r="B363" t="s">
+        <v>216</v>
+      </c>
+      <c r="C363">
+        <v>100</v>
+      </c>
+      <c r="M363">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N363">
+        <f t="shared" si="366"/>
+        <v>126.69</v>
+      </c>
+      <c r="O363" s="51">
+        <f t="shared" si="368"/>
+        <v>126.69</v>
+      </c>
+      <c r="P363">
+        <v>0</v>
+      </c>
+      <c r="S363">
+        <v>126.69</v>
+      </c>
+      <c r="T363">
+        <v>1.9168197</v>
+      </c>
+      <c r="U363">
+        <v>15.6652185</v>
+      </c>
+      <c r="V363">
+        <f t="shared" si="359"/>
+        <v>126.69</v>
+      </c>
+      <c r="W363" s="52">
+        <f t="shared" si="360"/>
+        <v>1.5130000000000001</v>
+      </c>
+      <c r="X363">
+        <f t="shared" si="361"/>
+        <v>12.365</v>
+      </c>
+      <c r="AB363" s="46">
+        <f t="shared" ref="AB363:AB377" si="394">100*(X365-X364)/X363</f>
+        <v>12.761145167812378</v>
+      </c>
+      <c r="AC363" s="46">
+        <f t="shared" ref="AC363:AC377" si="395">100*(((K364-K365)*0.027)/C364)</f>
+        <v>0</v>
+      </c>
+      <c r="AD363" s="46">
+        <f t="shared" ref="AD363:AD377" si="396">(1000*(((K364-K365)*0.027)/55.85))/(C364/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AE363" s="46">
+        <f t="shared" ref="AE363:AE377" si="397">1000000*(X365-X364)/55.85/100</f>
+        <v>282.52741271262323</v>
+      </c>
+    </row>
+    <row r="364" spans="1:31">
+      <c r="A364" t="s">
+        <v>326</v>
+      </c>
+      <c r="B364" t="s">
+        <v>217</v>
+      </c>
+      <c r="C364">
+        <v>100</v>
+      </c>
+      <c r="M364">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N364">
+        <f t="shared" si="366"/>
+        <v>93.5</v>
+      </c>
+      <c r="O364" s="51">
+        <f t="shared" si="368"/>
+        <v>93.5</v>
+      </c>
+      <c r="P364">
+        <f t="shared" ref="P364:P377" si="398">(N364-M364)/N364</f>
+        <v>-6.9518716577540107E-2</v>
+      </c>
+      <c r="S364">
+        <v>93.5</v>
+      </c>
+      <c r="T364">
+        <v>1.3435950000000001</v>
+      </c>
+      <c r="U364">
+        <v>10.97316</v>
+      </c>
+      <c r="V364">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W364" s="52">
+        <f t="shared" si="360"/>
+        <v>1.3435949999999999</v>
+      </c>
+      <c r="X364">
+        <f t="shared" si="361"/>
+        <v>10.97316</v>
+      </c>
+    </row>
+    <row r="365" spans="1:31">
+      <c r="A365" t="s">
+        <v>326</v>
+      </c>
+      <c r="B365" t="s">
+        <v>218</v>
+      </c>
+      <c r="C365">
+        <v>100</v>
+      </c>
+      <c r="M365">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N365">
+        <f t="shared" si="366"/>
+        <v>111.16</v>
+      </c>
+      <c r="O365" s="51">
+        <f t="shared" si="368"/>
+        <v>111.16</v>
+      </c>
+      <c r="P365">
+        <f t="shared" si="398"/>
+        <v>0.10039582583663186</v>
+      </c>
+      <c r="S365">
+        <v>111.16</v>
+      </c>
+      <c r="T365">
+        <v>1.5540168000000001</v>
+      </c>
+      <c r="U365">
+        <v>12.551075600000001</v>
+      </c>
+      <c r="V365">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W365" s="52">
+        <f t="shared" si="360"/>
+        <v>1.5540168000000001</v>
+      </c>
+      <c r="X365">
+        <f t="shared" si="361"/>
+        <v>12.551075600000001</v>
+      </c>
+    </row>
+    <row r="366" spans="1:31">
+      <c r="A366" t="s">
+        <v>327</v>
+      </c>
+      <c r="B366" t="s">
+        <v>216</v>
+      </c>
+      <c r="C366">
+        <v>100</v>
+      </c>
+      <c r="M366">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N366">
+        <f t="shared" si="366"/>
+        <v>115.19</v>
+      </c>
+      <c r="O366" s="51">
+        <f t="shared" si="368"/>
+        <v>115.19</v>
+      </c>
+      <c r="P366">
+        <v>0</v>
+      </c>
+      <c r="S366">
+        <v>115.19</v>
+      </c>
+      <c r="T366">
+        <v>0.7591021</v>
+      </c>
+      <c r="U366">
+        <v>7.5172993999999997</v>
+      </c>
+      <c r="V366">
+        <f t="shared" si="359"/>
+        <v>115.19</v>
+      </c>
+      <c r="W366" s="52">
+        <f t="shared" si="360"/>
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="X366">
+        <f t="shared" si="361"/>
+        <v>6.5259999999999998</v>
+      </c>
+      <c r="AB366" s="46">
+        <f t="shared" ref="AB366:AB377" si="399">100*(X368-X367)/X366</f>
+        <v>29.351543058535093</v>
+      </c>
+      <c r="AC366" s="46">
+        <f t="shared" ref="AC366:AC377" si="400">100*(((K367-K368)*0.027)/C367)</f>
+        <v>0</v>
+      </c>
+      <c r="AD366" s="46">
+        <f t="shared" ref="AD366:AD377" si="401">(1000*(((K367-K368)*0.027)/55.85))/(C367/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AE366" s="46">
+        <f t="shared" ref="AE366:AE377" si="402">1000000*(X368-X367)/55.85/100</f>
+        <v>342.96897045658011</v>
+      </c>
+    </row>
+    <row r="367" spans="1:31">
+      <c r="A367" t="s">
+        <v>327</v>
+      </c>
+      <c r="B367" t="s">
+        <v>217</v>
+      </c>
+      <c r="C367">
+        <v>100</v>
+      </c>
+      <c r="M367">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N367">
+        <f t="shared" si="366"/>
+        <v>74.16</v>
+      </c>
+      <c r="O367" s="51">
+        <f t="shared" si="368"/>
+        <v>74.16</v>
+      </c>
+      <c r="P367">
+        <f t="shared" ref="P367:P377" si="403">(N367-M367)/N367</f>
+        <v>-0.34843581445523197</v>
+      </c>
+      <c r="S367">
+        <v>74.16</v>
+      </c>
+      <c r="T367">
+        <v>0.45830880000000002</v>
+      </c>
+      <c r="U367">
+        <v>4.0691591999999996</v>
+      </c>
+      <c r="V367">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W367" s="52">
+        <f t="shared" si="360"/>
+        <v>0.45830880000000002</v>
+      </c>
+      <c r="X367">
+        <f t="shared" si="361"/>
+        <v>4.0691591999999996</v>
+      </c>
+    </row>
+    <row r="368" spans="1:31">
+      <c r="A368" t="s">
+        <v>327</v>
+      </c>
+      <c r="B368" t="s">
+        <v>218</v>
+      </c>
+      <c r="C368">
+        <v>100</v>
+      </c>
+      <c r="M368">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N368">
+        <f t="shared" si="366"/>
+        <v>108.99</v>
+      </c>
+      <c r="O368" s="51">
+        <f t="shared" si="368"/>
+        <v>108.99</v>
+      </c>
+      <c r="P368">
+        <f t="shared" si="403"/>
+        <v>8.2484631617579546E-2</v>
+      </c>
+      <c r="S368">
+        <v>108.99</v>
+      </c>
+      <c r="T368">
+        <v>0.60053489999999998</v>
+      </c>
+      <c r="U368">
+        <v>5.9846408999999996</v>
+      </c>
+      <c r="V368">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W368" s="52">
+        <f t="shared" si="360"/>
+        <v>0.60053489999999998</v>
+      </c>
+      <c r="X368">
+        <f t="shared" si="361"/>
+        <v>5.9846408999999996</v>
+      </c>
+    </row>
+    <row r="369" spans="1:31">
+      <c r="A369" t="s">
+        <v>328</v>
+      </c>
+      <c r="B369" t="s">
+        <v>216</v>
+      </c>
+      <c r="C369">
+        <v>100</v>
+      </c>
+      <c r="M369">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N369">
+        <f t="shared" si="366"/>
+        <v>105.22</v>
+      </c>
+      <c r="O369" s="51">
+        <f t="shared" si="368"/>
+        <v>105.22</v>
+      </c>
+      <c r="P369">
+        <v>0</v>
+      </c>
+      <c r="S369">
+        <v>105.22</v>
+      </c>
+      <c r="T369">
+        <v>0.62711119999999998</v>
+      </c>
+      <c r="U369">
+        <v>5.8691715999999996</v>
+      </c>
+      <c r="V369">
+        <f t="shared" si="359"/>
+        <v>105.22</v>
+      </c>
+      <c r="W369" s="52">
+        <f t="shared" si="360"/>
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="X369">
+        <f t="shared" si="361"/>
+        <v>5.5779999999999994</v>
+      </c>
+      <c r="AB369" s="46">
+        <f t="shared" ref="AB369:AB377" si="404">100*(X371-X370)/X369</f>
+        <v>30.264702402294727</v>
+      </c>
+      <c r="AC369" s="46">
+        <f t="shared" ref="AC369:AC377" si="405">100*(((K370-K371)*0.027)/C370)</f>
+        <v>0</v>
+      </c>
+      <c r="AD369" s="46">
+        <f t="shared" ref="AD369:AD377" si="406">(1000*(((K370-K371)*0.027)/55.85))/(C370/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AE369" s="46">
+        <f t="shared" ref="AE369:AE377" si="407">1000000*(X371-X370)/55.85/100</f>
+        <v>302.26769919427028</v>
+      </c>
+    </row>
+    <row r="370" spans="1:31">
+      <c r="A370" t="s">
+        <v>328</v>
+      </c>
+      <c r="B370" t="s">
+        <v>217</v>
+      </c>
+      <c r="C370">
+        <v>100</v>
+      </c>
+      <c r="M370">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N370">
+        <f t="shared" si="366"/>
+        <v>70.790000000000006</v>
+      </c>
+      <c r="O370" s="51">
+        <f t="shared" si="368"/>
+        <v>70.790000000000006</v>
+      </c>
+      <c r="P370">
+        <f t="shared" ref="P370:P377" si="408">(N370-M370)/N370</f>
+        <v>-0.41262890238734273</v>
+      </c>
+      <c r="S370">
+        <v>70.790000000000006</v>
+      </c>
+      <c r="T370">
+        <v>0.33129720000000001</v>
+      </c>
+      <c r="U370">
+        <v>2.9101769000000002</v>
+      </c>
+      <c r="V370">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W370" s="52">
+        <f t="shared" si="360"/>
+        <v>0.33129720000000001</v>
+      </c>
+      <c r="X370">
+        <f t="shared" si="361"/>
+        <v>2.9101769000000002</v>
+      </c>
+    </row>
+    <row r="371" spans="1:31">
+      <c r="A371" t="s">
+        <v>328</v>
+      </c>
+      <c r="B371" t="s">
+        <v>218</v>
+      </c>
+      <c r="C371">
+        <v>100</v>
+      </c>
+      <c r="M371">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N371">
+        <f t="shared" si="366"/>
+        <v>102.55</v>
+      </c>
+      <c r="O371" s="51">
+        <f t="shared" si="368"/>
+        <v>102.55</v>
+      </c>
+      <c r="P371">
+        <f t="shared" si="408"/>
+        <v>2.4865919063871256E-2</v>
+      </c>
+      <c r="S371">
+        <v>102.55</v>
+      </c>
+      <c r="T371">
+        <v>0.53325999999999996</v>
+      </c>
+      <c r="U371">
+        <v>4.5983419999999997</v>
+      </c>
+      <c r="V371">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W371" s="52">
+        <f t="shared" si="360"/>
+        <v>0.53325999999999996</v>
+      </c>
+      <c r="X371">
+        <f t="shared" si="361"/>
+        <v>4.5983419999999997</v>
+      </c>
+    </row>
+    <row r="372" spans="1:31">
+      <c r="A372" t="s">
+        <v>329</v>
+      </c>
+      <c r="B372" t="s">
+        <v>216</v>
+      </c>
+      <c r="C372">
+        <v>100</v>
+      </c>
+      <c r="M372">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N372">
+        <f t="shared" si="366"/>
+        <v>113.13</v>
+      </c>
+      <c r="O372" s="51">
+        <f t="shared" si="368"/>
+        <v>113.13</v>
+      </c>
+      <c r="P372">
+        <v>0</v>
+      </c>
+      <c r="S372">
+        <v>113.13</v>
+      </c>
+      <c r="T372">
+        <v>0.71498159999999999</v>
+      </c>
+      <c r="U372">
+        <v>7.4654486999999996</v>
+      </c>
+      <c r="V372">
+        <f t="shared" si="359"/>
+        <v>113.13</v>
+      </c>
+      <c r="W372" s="52">
+        <f t="shared" si="360"/>
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="X372">
+        <f t="shared" si="361"/>
+        <v>6.5990000000000002</v>
+      </c>
+      <c r="AB372" s="46">
+        <f t="shared" ref="AB372:AB377" si="409">100*(X374-X373)/X372</f>
+        <v>33.514650704652219</v>
+      </c>
+      <c r="AC372" s="46">
+        <f t="shared" ref="AC372:AC377" si="410">100*(((K373-K374)*0.027)/C373)</f>
+        <v>0</v>
+      </c>
+      <c r="AD372" s="46">
+        <f t="shared" ref="AD372:AD377" si="411">(1000*(((K373-K374)*0.027)/55.85))/(C373/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AE372" s="46">
+        <f t="shared" ref="AE372:AE377" si="412">1000000*(X374-X373)/55.85/100</f>
+        <v>395.99495076096684</v>
+      </c>
+    </row>
+    <row r="373" spans="1:31">
+      <c r="A373" t="s">
+        <v>329</v>
+      </c>
+      <c r="B373" t="s">
+        <v>217</v>
+      </c>
+      <c r="C373">
+        <v>100</v>
+      </c>
+      <c r="M373">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N373">
+        <f t="shared" si="366"/>
+        <v>65.02</v>
+      </c>
+      <c r="O373" s="51">
+        <f t="shared" si="368"/>
+        <v>65.02</v>
+      </c>
+      <c r="P373">
+        <f t="shared" ref="P373:P377" si="413">(N373-M373)/N373</f>
+        <v>-0.53798831128883429</v>
+      </c>
+      <c r="S373">
+        <v>65.02</v>
+      </c>
+      <c r="T373">
+        <v>0.36216140000000002</v>
+      </c>
+      <c r="U373">
+        <v>3.6885846</v>
+      </c>
+      <c r="V373">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W373" s="52">
+        <f t="shared" si="360"/>
+        <v>0.36216140000000002</v>
+      </c>
+      <c r="X373">
+        <f t="shared" si="361"/>
+        <v>3.6885846</v>
+      </c>
+    </row>
+    <row r="374" spans="1:31">
+      <c r="A374" t="s">
+        <v>329</v>
+      </c>
+      <c r="B374" t="s">
+        <v>218</v>
+      </c>
+      <c r="C374">
+        <v>100</v>
+      </c>
+      <c r="M374">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N374">
+        <f t="shared" si="366"/>
+        <v>108.42</v>
+      </c>
+      <c r="O374" s="51">
+        <f t="shared" si="368"/>
+        <v>108.42</v>
+      </c>
+      <c r="P374">
+        <f t="shared" si="413"/>
+        <v>7.7660948164545301E-2</v>
+      </c>
+      <c r="S374">
+        <v>108.42</v>
+      </c>
+      <c r="T374">
+        <v>0.65160419999999997</v>
+      </c>
+      <c r="U374">
+        <v>5.9002163999999997</v>
+      </c>
+      <c r="V374">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W374" s="52">
+        <f t="shared" si="360"/>
+        <v>0.65160419999999997</v>
+      </c>
+      <c r="X374">
+        <f t="shared" si="361"/>
+        <v>5.9002163999999997</v>
+      </c>
+    </row>
+    <row r="375" spans="1:31">
+      <c r="A375" t="s">
+        <v>330</v>
+      </c>
+      <c r="B375" t="s">
+        <v>216</v>
+      </c>
+      <c r="C375">
+        <v>100</v>
+      </c>
+      <c r="M375">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N375">
+        <f t="shared" si="366"/>
+        <v>109.22</v>
+      </c>
+      <c r="O375" s="51">
+        <f t="shared" si="368"/>
+        <v>109.22</v>
+      </c>
+      <c r="P375">
+        <v>0</v>
+      </c>
+      <c r="S375">
+        <v>109.22</v>
+      </c>
+      <c r="T375">
+        <v>1.7005554000000001</v>
+      </c>
+      <c r="U375">
+        <v>12.634569600000001</v>
+      </c>
+      <c r="V375">
+        <f t="shared" si="359"/>
+        <v>109.22</v>
+      </c>
+      <c r="W375" s="52">
+        <f t="shared" si="360"/>
+        <v>1.5570000000000002</v>
+      </c>
+      <c r="X375">
+        <f t="shared" si="361"/>
+        <v>11.568</v>
+      </c>
+      <c r="AB375" s="46">
+        <f t="shared" ref="AB375:AB377" si="414">100*(X377-X376)/X375</f>
+        <v>17.745433091286309</v>
+      </c>
+      <c r="AC375" s="46">
+        <f t="shared" ref="AC375:AC377" si="415">100*(((K376-K377)*0.027)/C376)</f>
+        <v>0</v>
+      </c>
+      <c r="AD375" s="46">
+        <f t="shared" ref="AD375:AD377" si="416">(1000*(((K376-K377)*0.027)/55.85))/(C376/1000)</f>
+        <v>0</v>
+      </c>
+      <c r="AE375" s="46">
+        <f t="shared" ref="AE375:AE377" si="417">1000000*(X377-X376)/55.85/100</f>
+        <v>367.55446732318711</v>
+      </c>
+    </row>
+    <row r="376" spans="1:31">
+      <c r="A376" t="s">
+        <v>330</v>
+      </c>
+      <c r="B376" t="s">
+        <v>217</v>
+      </c>
+      <c r="C376">
+        <v>100</v>
+      </c>
+      <c r="M376">
+        <f t="shared" si="315"/>
+        <v>100</v>
+      </c>
+      <c r="N376">
+        <f t="shared" si="366"/>
+        <v>76.709999999999994</v>
+      </c>
+      <c r="O376" s="51">
+        <f t="shared" si="368"/>
+        <v>76.709999999999994</v>
+      </c>
+      <c r="P376">
+        <f t="shared" ref="P376:P377" si="418">(N376-M376)/N376</f>
+        <v>-0.30361100247686101</v>
+      </c>
+      <c r="S376">
+        <v>76.709999999999994</v>
+      </c>
+      <c r="T376">
+        <v>1.0785426</v>
+      </c>
+      <c r="U376">
+        <v>7.5996597000000001</v>
+      </c>
+      <c r="V376">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W376" s="52">
+        <f t="shared" si="360"/>
+        <v>1.0785426</v>
+      </c>
+      <c r="X376">
+        <f t="shared" si="361"/>
+        <v>7.5996597000000001</v>
+      </c>
+    </row>
+    <row r="377" spans="1:31">
+      <c r="A377" t="s">
+        <v>330</v>
+      </c>
+      <c r="B377" t="s">
+        <v>218</v>
+      </c>
+      <c r="C377">
+        <v>100</v>
+      </c>
+      <c r="M377">
+        <f>C377</f>
+        <v>100</v>
+      </c>
+      <c r="N377">
+        <f t="shared" si="366"/>
+        <v>101.37</v>
+      </c>
+      <c r="O377" s="51">
+        <f t="shared" si="368"/>
+        <v>101.37</v>
+      </c>
+      <c r="P377">
+        <f t="shared" si="418"/>
+        <v>1.3514846601558691E-2</v>
+      </c>
+      <c r="S377">
+        <v>101.37</v>
+      </c>
+      <c r="T377">
+        <v>1.2448235999999999</v>
+      </c>
+      <c r="U377">
+        <v>9.6524514000000003</v>
+      </c>
+      <c r="V377">
+        <f t="shared" si="359"/>
+        <v>100</v>
+      </c>
+      <c r="W377" s="52">
+        <f t="shared" si="360"/>
+        <v>1.2448235999999999</v>
+      </c>
+      <c r="X377">
+        <f t="shared" si="361"/>
+        <v>9.6524514000000003</v>
       </c>
     </row>
   </sheetData>

--- a/data/processed_data/Calculations 3Mar22.xlsx
+++ b/data/processed_data/Calculations 3Mar22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abigaillewis/Desktop/FeDOC/data/processed_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29786515-5100-5C4E-9301-552E0C785C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C803C11-A2DB-B749-87A2-AD2DABCF9F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13900" yWindow="500" windowWidth="14160" windowHeight="16260" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -851,9 +851,6 @@
     <t>b?f10jun21r2_</t>
   </si>
   <si>
-    <t>b21sep21r2_</t>
-  </si>
-  <si>
     <t>b21sep21_</t>
   </si>
   <si>
@@ -1029,6 +1026,9 @@
   </si>
   <si>
     <t>F6Dec21_sedtrap_</t>
+  </si>
+  <si>
+    <t>b21sep21r2_sedtrap</t>
   </si>
 </sst>
 </file>
@@ -43147,10 +43147,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49EFE594-213A-46CB-9AEC-BACB2527F3CD}">
   <dimension ref="A1:AI377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="P1" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="AB357" sqref="AB357"/>
+      <selection pane="bottomLeft" activeCell="D283" sqref="D283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -43172,7 +43172,7 @@
         <v>157</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>158</v>
@@ -49052,7 +49052,7 @@
         <v>13.5869</v>
       </c>
       <c r="H87" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I87" s="48">
         <v>3</v>
@@ -49110,7 +49110,7 @@
         <v>13.5625</v>
       </c>
       <c r="H88" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I88" s="48">
         <v>3</v>
@@ -49241,7 +49241,7 @@
         <v>14.1066</v>
       </c>
       <c r="H90" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I90" s="48">
         <v>1</v>
@@ -49301,7 +49301,7 @@
         <v>13.6174</v>
       </c>
       <c r="H91" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I91" s="48">
         <v>1</v>
@@ -49432,7 +49432,7 @@
         <v>14.2105</v>
       </c>
       <c r="H93" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I93" s="48">
         <v>1</v>
@@ -49492,7 +49492,7 @@
         <v>14.140700000000001</v>
       </c>
       <c r="H94" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I94" s="48">
         <v>1</v>
@@ -49621,7 +49621,7 @@
         <v>14.1257</v>
       </c>
       <c r="H96" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M96">
         <f t="shared" si="28"/>
@@ -49678,7 +49678,7 @@
         <v>14.1435</v>
       </c>
       <c r="H97" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M97">
         <f t="shared" si="28"/>
@@ -49802,7 +49802,7 @@
         <v>14.1213</v>
       </c>
       <c r="H99" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M99">
         <f t="shared" si="28"/>
@@ -49857,7 +49857,7 @@
         <v>13.628</v>
       </c>
       <c r="H100" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M100">
         <f t="shared" si="28"/>
@@ -49981,7 +49981,7 @@
         <v>14.138500000000001</v>
       </c>
       <c r="H102" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M102">
         <f t="shared" si="28"/>
@@ -50036,7 +50036,7 @@
         <v>14.1608</v>
       </c>
       <c r="H103" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M103">
         <f t="shared" si="28"/>
@@ -50160,7 +50160,7 @@
         <v>14156.7</v>
       </c>
       <c r="H105" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M105">
         <f t="shared" si="28"/>
@@ -50215,7 +50215,7 @@
         <v>13.569000000000001</v>
       </c>
       <c r="H106" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M106">
         <f t="shared" si="28"/>
@@ -50339,7 +50339,7 @@
         <v>14.160399999999999</v>
       </c>
       <c r="H108" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M108">
         <f t="shared" si="28"/>
@@ -50394,7 +50394,7 @@
         <v>14.1356</v>
       </c>
       <c r="H109" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M109">
         <f t="shared" si="28"/>
@@ -50518,7 +50518,7 @@
         <v>14.152699999999999</v>
       </c>
       <c r="H111" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M111">
         <f t="shared" si="28"/>
@@ -50573,7 +50573,7 @@
         <v>14.1356</v>
       </c>
       <c r="H112" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M112">
         <f t="shared" si="28"/>
@@ -50697,7 +50697,7 @@
         <v>14.221500000000001</v>
       </c>
       <c r="H114" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M114">
         <f t="shared" si="28"/>
@@ -50752,7 +50752,7 @@
         <v>14.082700000000001</v>
       </c>
       <c r="H115" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M115">
         <f t="shared" si="28"/>
@@ -50876,7 +50876,7 @@
         <v>14.1678</v>
       </c>
       <c r="H117" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M117">
         <f t="shared" si="28"/>
@@ -50931,7 +50931,7 @@
         <v>14.129799999999999</v>
       </c>
       <c r="H118" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M118">
         <f t="shared" si="28"/>
@@ -51057,7 +51057,7 @@
         <v>14.128299999999999</v>
       </c>
       <c r="H120" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M120">
         <f t="shared" si="28"/>
@@ -51112,7 +51112,7 @@
         <v>13.515000000000001</v>
       </c>
       <c r="H121" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M121">
         <f t="shared" si="28"/>
@@ -51236,7 +51236,7 @@
         <v>14.148300000000001</v>
       </c>
       <c r="H123" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M123">
         <f t="shared" si="28"/>
@@ -51291,7 +51291,7 @@
         <v>14.158300000000001</v>
       </c>
       <c r="H124" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M124">
         <f t="shared" si="28"/>
@@ -51466,7 +51466,7 @@
         <v>14.107799999999999</v>
       </c>
       <c r="H127" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M127">
         <f t="shared" si="28"/>
@@ -51590,7 +51590,7 @@
         <v>14.1411</v>
       </c>
       <c r="H129" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M129">
         <f t="shared" si="28"/>
@@ -51648,7 +51648,7 @@
         <v>13.662800000000001</v>
       </c>
       <c r="H130" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M130">
         <f t="shared" si="28"/>
@@ -51770,7 +51770,7 @@
       <c r="E132" s="55"/>
       <c r="F132" s="56"/>
       <c r="H132" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M132">
         <f t="shared" si="28"/>
@@ -51825,7 +51825,7 @@
         <v>13.5204</v>
       </c>
       <c r="H133" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M133">
         <f t="shared" si="28"/>
@@ -52000,7 +52000,7 @@
         <v>14.2135</v>
       </c>
       <c r="H136" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M136">
         <f t="shared" si="28"/>
@@ -52124,7 +52124,7 @@
         <v>14.136799999999999</v>
       </c>
       <c r="H138" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M138">
         <f t="shared" si="28"/>
@@ -52179,7 +52179,7 @@
         <v>14.1798</v>
       </c>
       <c r="H139" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M139">
         <f t="shared" si="28"/>
@@ -52303,7 +52303,7 @@
         <v>14.1335</v>
       </c>
       <c r="H141" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M141">
         <f t="shared" si="28"/>
@@ -52358,7 +52358,7 @@
         <v>14.148</v>
       </c>
       <c r="H142" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M142">
         <f t="shared" si="28"/>
@@ -52484,7 +52484,7 @@
         <v>14.173999999999999</v>
       </c>
       <c r="H144" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M144">
         <f t="shared" si="28"/>
@@ -52541,7 +52541,7 @@
         <v>14.1846</v>
       </c>
       <c r="H145" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M145">
         <f t="shared" si="28"/>
@@ -52599,7 +52599,7 @@
         <v>14.1692</v>
       </c>
       <c r="H146" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M146">
         <f t="shared" si="28"/>
@@ -52669,7 +52669,7 @@
         <v>14.176299999999999</v>
       </c>
       <c r="H147" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M147">
         <f t="shared" si="28"/>
@@ -52724,7 +52724,7 @@
         <v>14.157400000000001</v>
       </c>
       <c r="H148" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M148">
         <f t="shared" ref="M148:M190" si="128">C148</f>
@@ -53181,7 +53181,7 @@
         <v>13.503500000000001</v>
       </c>
       <c r="H156" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M156">
         <f t="shared" si="128"/>
@@ -53236,7 +53236,7 @@
         <v>13.5754</v>
       </c>
       <c r="H157" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M157">
         <f t="shared" si="128"/>
@@ -53359,7 +53359,7 @@
         <v>14.139200000000001</v>
       </c>
       <c r="H159" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M159">
         <f t="shared" si="128"/>
@@ -53414,7 +53414,7 @@
         <v>14.147</v>
       </c>
       <c r="H160" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M160">
         <f t="shared" si="128"/>
@@ -53470,7 +53470,7 @@
         <v>14.163500000000001</v>
       </c>
       <c r="H161" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M161">
         <f t="shared" si="128"/>
@@ -53538,7 +53538,7 @@
       <c r="E162" s="55"/>
       <c r="F162" s="56"/>
       <c r="H162" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M162">
         <f t="shared" si="128"/>
@@ -53593,7 +53593,7 @@
         <v>14.2043</v>
       </c>
       <c r="H163" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M163">
         <f t="shared" si="128"/>
@@ -53649,7 +53649,7 @@
         <v>14.168900000000001</v>
       </c>
       <c r="H164" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M164">
         <f t="shared" si="128"/>
@@ -53719,7 +53719,7 @@
         <v>13.528600000000001</v>
       </c>
       <c r="H165" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M165">
         <f t="shared" si="128"/>
@@ -53774,7 +53774,7 @@
         <v>13.4885</v>
       </c>
       <c r="H166" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M166">
         <f t="shared" si="128"/>
@@ -53816,7 +53816,7 @@
     </row>
     <row r="167" spans="1:31">
       <c r="A167" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B167" t="s">
         <v>216</v>
@@ -53992,7 +53992,7 @@
         <v>13.630699999999999</v>
       </c>
       <c r="H170" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M170">
         <f t="shared" si="128"/>
@@ -54062,7 +54062,7 @@
         <v>13.6046</v>
       </c>
       <c r="H171" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M171">
         <f t="shared" si="128"/>
@@ -54117,7 +54117,7 @@
         <v>13.5207</v>
       </c>
       <c r="H172" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M172">
         <f t="shared" si="128"/>
@@ -54173,7 +54173,7 @@
         <v>14.0947</v>
       </c>
       <c r="H173" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M173">
         <f t="shared" si="128"/>
@@ -54243,7 +54243,7 @@
         <v>13.6326</v>
       </c>
       <c r="H174" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M174">
         <f t="shared" si="128"/>
@@ -54298,7 +54298,7 @@
         <v>13.5618</v>
       </c>
       <c r="H175" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M175">
         <f t="shared" si="128"/>
@@ -54354,7 +54354,7 @@
         <v>14.1823</v>
       </c>
       <c r="H176" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M176">
         <f t="shared" si="128"/>
@@ -54422,7 +54422,7 @@
         <v>13.5372</v>
       </c>
       <c r="H177" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M177">
         <f t="shared" si="128"/>
@@ -54475,7 +54475,7 @@
         <v>14.1204</v>
       </c>
       <c r="H178" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M178">
         <f t="shared" si="128"/>
@@ -54531,7 +54531,7 @@
         <v>13.511900000000001</v>
       </c>
       <c r="H179" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M179">
         <f t="shared" si="128"/>
@@ -54599,7 +54599,7 @@
         <v>13.5756</v>
       </c>
       <c r="H180" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M180">
         <f t="shared" si="128"/>
@@ -54652,7 +54652,7 @@
         <v>14.1731</v>
       </c>
       <c r="H181" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M181">
         <f t="shared" si="128"/>
@@ -54708,7 +54708,7 @@
         <v>14.167199999999999</v>
       </c>
       <c r="H182" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M182">
         <f t="shared" si="128"/>
@@ -54778,7 +54778,7 @@
         <v>14.126899999999999</v>
       </c>
       <c r="H183" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M183">
         <f t="shared" si="128"/>
@@ -54833,7 +54833,7 @@
         <v>13.525</v>
       </c>
       <c r="H184" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M184">
         <f t="shared" si="128"/>
@@ -54889,7 +54889,7 @@
         <v>13.6439</v>
       </c>
       <c r="H185" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M185">
         <f t="shared" si="128"/>
@@ -54952,14 +54952,14 @@
         <v>99.87</v>
       </c>
       <c r="D186" s="48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E186" s="55"/>
       <c r="F186" s="48">
         <v>14.1586</v>
       </c>
       <c r="H186" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M186">
         <f t="shared" si="128"/>
@@ -55014,7 +55014,7 @@
         <v>13.591100000000001</v>
       </c>
       <c r="H187" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M187">
         <f t="shared" si="128"/>
@@ -55137,7 +55137,7 @@
         <v>13.574199999999999</v>
       </c>
       <c r="H189" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M189">
         <f t="shared" si="128"/>
@@ -55192,7 +55192,7 @@
         <v>13.5802</v>
       </c>
       <c r="H190" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M190">
         <f t="shared" si="128"/>
@@ -55311,7 +55311,7 @@
       <c r="E192" s="55"/>
       <c r="F192" s="56"/>
       <c r="H192" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M192">
         <f t="shared" si="200"/>
@@ -55366,7 +55366,7 @@
         <v>14.1585</v>
       </c>
       <c r="H193" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M193">
         <f t="shared" si="200"/>
@@ -55422,7 +55422,7 @@
         <v>13.5158</v>
       </c>
       <c r="H194" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M194">
         <f t="shared" si="200"/>
@@ -55493,7 +55493,7 @@
         <v>14.128299999999999</v>
       </c>
       <c r="H195" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M195">
         <f t="shared" si="200"/>
@@ -55549,7 +55549,7 @@
         <v>13.726599999999999</v>
       </c>
       <c r="H196" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M196">
         <f t="shared" si="200"/>
@@ -55605,7 +55605,7 @@
         <v>14.228400000000001</v>
       </c>
       <c r="H197" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M197">
         <f t="shared" si="200"/>
@@ -55675,7 +55675,7 @@
         <v>13.5084</v>
       </c>
       <c r="H198" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M198">
         <f t="shared" si="200"/>
@@ -55730,7 +55730,7 @@
         <v>14.175700000000001</v>
       </c>
       <c r="H199" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M199">
         <f t="shared" si="200"/>
@@ -55844,14 +55844,14 @@
         <v>99.81</v>
       </c>
       <c r="D201" s="48" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E201" s="55"/>
       <c r="F201" s="48">
         <v>14.128299999999999</v>
       </c>
       <c r="H201" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M201">
         <f t="shared" si="200"/>
@@ -55906,7 +55906,7 @@
         <v>13.726599999999999</v>
       </c>
       <c r="H202" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M202">
         <f t="shared" si="200"/>
@@ -55962,7 +55962,7 @@
         <v>13.5563</v>
       </c>
       <c r="H203" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M203">
         <f t="shared" si="200"/>
@@ -56030,7 +56030,7 @@
         <v>13.56</v>
       </c>
       <c r="H204" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M204">
         <f t="shared" si="200"/>
@@ -56083,7 +56083,7 @@
         <v>14.1752</v>
       </c>
       <c r="H205" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M205">
         <f t="shared" si="200"/>
@@ -56139,7 +56139,7 @@
         <v>14.1844</v>
       </c>
       <c r="H206" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M206">
         <f t="shared" si="200"/>
@@ -56209,7 +56209,7 @@
         <v>14.1678</v>
       </c>
       <c r="H207" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M207">
         <f t="shared" si="200"/>
@@ -56264,7 +56264,7 @@
         <v>13.5769</v>
       </c>
       <c r="H208" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M208">
         <f t="shared" si="200"/>
@@ -56320,7 +56320,7 @@
         <v>14.1747</v>
       </c>
       <c r="H209" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M209">
         <f t="shared" si="200"/>
@@ -56390,7 +56390,7 @@
         <v>13.596500000000001</v>
       </c>
       <c r="H210" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M210">
         <f t="shared" si="200"/>
@@ -56445,7 +56445,7 @@
         <v>13.6075</v>
       </c>
       <c r="H211" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M211">
         <f t="shared" si="200"/>
@@ -56498,10 +56498,10 @@
       <c r="D212" s="56"/>
       <c r="E212" s="55"/>
       <c r="F212" s="48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H212" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M212">
         <f t="shared" si="200"/>
@@ -56571,7 +56571,7 @@
         <v>14.137700000000001</v>
       </c>
       <c r="H213" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M213">
         <f t="shared" si="200"/>
@@ -56626,7 +56626,7 @@
         <v>13.640700000000001</v>
       </c>
       <c r="H214" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M214">
         <f t="shared" si="200"/>
@@ -56682,7 +56682,7 @@
         <v>14.1867</v>
       </c>
       <c r="H215" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M215">
         <f t="shared" si="200"/>
@@ -56752,7 +56752,7 @@
         <v>13.515599999999999</v>
       </c>
       <c r="H216" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M216">
         <f t="shared" si="200"/>
@@ -56807,7 +56807,7 @@
         <v>13.565899999999999</v>
       </c>
       <c r="H217" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M217">
         <f t="shared" si="200"/>
@@ -56863,7 +56863,7 @@
         <v>13.5158</v>
       </c>
       <c r="H218" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M218">
         <f t="shared" si="200"/>
@@ -56934,7 +56934,7 @@
         <v>13.5646</v>
       </c>
       <c r="H219" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M219">
         <f t="shared" si="200"/>
@@ -56990,7 +56990,7 @@
         <v>14.167899999999999</v>
       </c>
       <c r="H220" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M220">
         <f t="shared" si="200"/>
@@ -57046,7 +57046,7 @@
         <v>14.177099999999999</v>
       </c>
       <c r="H221" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M221">
         <f t="shared" si="200"/>
@@ -57116,7 +57116,7 @@
         <v>13.542400000000001</v>
       </c>
       <c r="H222" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M222">
         <f t="shared" si="200"/>
@@ -57171,7 +57171,7 @@
         <v>14.141999999999999</v>
       </c>
       <c r="H223" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M223">
         <f t="shared" si="200"/>
@@ -57229,7 +57229,7 @@
         <v>13.525600000000001</v>
       </c>
       <c r="H224" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M224">
         <f t="shared" ref="M224:M286" si="261">C224</f>
@@ -57303,7 +57303,7 @@
         <v>14.1114</v>
       </c>
       <c r="H225" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M225">
         <f t="shared" si="261"/>
@@ -57361,7 +57361,7 @@
         <v>14.1875</v>
       </c>
       <c r="H226" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M226">
         <f t="shared" si="261"/>
@@ -57418,7 +57418,7 @@
         <v>14.2065</v>
       </c>
       <c r="H227" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M227">
         <f t="shared" si="261"/>
@@ -57489,10 +57489,10 @@
       </c>
       <c r="E228" s="55"/>
       <c r="F228" s="48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H228" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M228">
         <f t="shared" si="261"/>
@@ -57604,7 +57604,7 @@
         <v>13.602499999999999</v>
       </c>
       <c r="H230" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M230">
         <f t="shared" si="261"/>
@@ -57678,7 +57678,7 @@
         <v>13.5524</v>
       </c>
       <c r="H231" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M231">
         <f t="shared" si="261"/>
@@ -57736,7 +57736,7 @@
         <v>14.155099999999999</v>
       </c>
       <c r="H232" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M232">
         <f t="shared" si="261"/>
@@ -57858,7 +57858,7 @@
         <v>14.1015</v>
       </c>
       <c r="H234" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M234">
         <f t="shared" si="261"/>
@@ -57966,7 +57966,7 @@
         <v>13.5284</v>
       </c>
       <c r="H236" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M236">
         <f t="shared" si="261"/>
@@ -58040,7 +58040,7 @@
         <v>13.5411</v>
       </c>
       <c r="H237" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M237">
         <f t="shared" si="261"/>
@@ -58098,7 +58098,7 @@
         <v>14.2142</v>
       </c>
       <c r="H238" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M238">
         <f t="shared" si="261"/>
@@ -58155,7 +58155,7 @@
         <v>13.600099999999999</v>
       </c>
       <c r="H239" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M239">
         <f t="shared" si="261"/>
@@ -58229,7 +58229,7 @@
         <v>13.7227</v>
       </c>
       <c r="H240" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M240">
         <f t="shared" si="261"/>
@@ -58285,7 +58285,7 @@
         <v>13.549099999999999</v>
       </c>
       <c r="H241" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M241">
         <f t="shared" si="261"/>
@@ -58326,7 +58326,7 @@
     </row>
     <row r="242" spans="1:31">
       <c r="A242" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="B242" t="s">
         <v>218</v>
@@ -58342,7 +58342,7 @@
         <v>14.145099999999999</v>
       </c>
       <c r="H242" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M242">
         <f t="shared" si="261"/>
@@ -58400,7 +58400,7 @@
     </row>
     <row r="243" spans="1:31">
       <c r="A243" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="B243" t="s">
         <v>217</v>
@@ -58416,7 +58416,7 @@
         <v>14.113899999999999</v>
       </c>
       <c r="H243" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M243">
         <f t="shared" si="261"/>
@@ -58458,7 +58458,7 @@
     </row>
     <row r="244" spans="1:31">
       <c r="A244" t="s">
-        <v>271</v>
+        <v>330</v>
       </c>
       <c r="B244" t="s">
         <v>216</v>
@@ -58474,7 +58474,7 @@
         <v>13.554500000000001</v>
       </c>
       <c r="H244" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M244">
         <f t="shared" si="261"/>
@@ -58515,7 +58515,7 @@
     </row>
     <row r="245" spans="1:31">
       <c r="A245" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B245" t="s">
         <v>218</v>
@@ -58529,7 +58529,7 @@
         <v>13.540900000000001</v>
       </c>
       <c r="H245" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M245">
         <f t="shared" si="261"/>
@@ -58587,7 +58587,7 @@
     </row>
     <row r="246" spans="1:31">
       <c r="A246" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B246" t="s">
         <v>217</v>
@@ -58601,7 +58601,7 @@
         <v>13.5436</v>
       </c>
       <c r="H246" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M246">
         <f t="shared" si="261"/>
@@ -58643,7 +58643,7 @@
     </row>
     <row r="247" spans="1:31">
       <c r="A247" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B247" t="s">
         <v>216</v>
@@ -58659,7 +58659,7 @@
         <v>13.5406</v>
       </c>
       <c r="H247" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M247">
         <f t="shared" si="261"/>
@@ -58700,7 +58700,7 @@
     </row>
     <row r="248" spans="1:31">
       <c r="A248" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B248" t="s">
         <v>218</v>
@@ -58769,7 +58769,7 @@
     </row>
     <row r="249" spans="1:31">
       <c r="A249" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B249" t="s">
         <v>217</v>
@@ -58785,7 +58785,7 @@
         <v>14.1614</v>
       </c>
       <c r="H249" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M249">
         <f t="shared" si="261"/>
@@ -58827,7 +58827,7 @@
     </row>
     <row r="250" spans="1:31">
       <c r="A250" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B250" t="s">
         <v>216</v>
@@ -58877,7 +58877,7 @@
     </row>
     <row r="251" spans="1:31">
       <c r="A251" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B251" t="s">
         <v>218</v>
@@ -58893,7 +58893,7 @@
         <v>13.5519</v>
       </c>
       <c r="H251" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M251">
         <f t="shared" si="261"/>
@@ -58951,7 +58951,7 @@
     </row>
     <row r="252" spans="1:31">
       <c r="A252" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B252" t="s">
         <v>217</v>
@@ -58967,7 +58967,7 @@
         <v>13.580500000000001</v>
       </c>
       <c r="H252" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M252">
         <f t="shared" si="261"/>
@@ -59009,7 +59009,7 @@
     </row>
     <row r="253" spans="1:31">
       <c r="A253" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B253" t="s">
         <v>216</v>
@@ -59059,7 +59059,7 @@
     </row>
     <row r="254" spans="1:31">
       <c r="A254" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B254" t="s">
         <v>218</v>
@@ -59075,7 +59075,7 @@
         <v>13.532999999999999</v>
       </c>
       <c r="H254" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M254">
         <f t="shared" si="261"/>
@@ -59133,7 +59133,7 @@
     </row>
     <row r="255" spans="1:31">
       <c r="A255" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B255" t="s">
         <v>217</v>
@@ -59149,7 +59149,7 @@
         <v>13.5566</v>
       </c>
       <c r="H255" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M255">
         <f t="shared" si="261"/>
@@ -59191,7 +59191,7 @@
     </row>
     <row r="256" spans="1:31">
       <c r="A256" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B256" t="s">
         <v>216</v>
@@ -59207,7 +59207,7 @@
         <v>13.598100000000001</v>
       </c>
       <c r="H256" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M256">
         <f t="shared" si="261"/>
@@ -59248,7 +59248,7 @@
     </row>
     <row r="257" spans="1:31">
       <c r="A257" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B257" t="s">
         <v>218</v>
@@ -59264,7 +59264,7 @@
         <v>13.637700000000001</v>
       </c>
       <c r="H257" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M257">
         <f t="shared" si="261"/>
@@ -59322,7 +59322,7 @@
     </row>
     <row r="258" spans="1:31">
       <c r="A258" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B258" t="s">
         <v>217</v>
@@ -59375,7 +59375,7 @@
     </row>
     <row r="259" spans="1:31">
       <c r="A259" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B259" t="s">
         <v>216</v>
@@ -59425,7 +59425,7 @@
     </row>
     <row r="260" spans="1:31">
       <c r="A260" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B260" t="s">
         <v>218</v>
@@ -59441,7 +59441,7 @@
         <v>13.5847</v>
       </c>
       <c r="H260" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M260">
         <f t="shared" si="261"/>
@@ -59499,7 +59499,7 @@
     </row>
     <row r="261" spans="1:31">
       <c r="A261" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B261" t="s">
         <v>217</v>
@@ -59515,7 +59515,7 @@
         <v>13.5557</v>
       </c>
       <c r="H261" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M261">
         <f t="shared" si="261"/>
@@ -59557,7 +59557,7 @@
     </row>
     <row r="262" spans="1:31">
       <c r="A262" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B262" t="s">
         <v>216</v>
@@ -59607,7 +59607,7 @@
     </row>
     <row r="263" spans="1:31">
       <c r="A263" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B263" t="s">
         <v>218</v>
@@ -59623,7 +59623,7 @@
         <v>13.535299999999999</v>
       </c>
       <c r="H263" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M263">
         <f t="shared" si="261"/>
@@ -59681,7 +59681,7 @@
     </row>
     <row r="264" spans="1:31">
       <c r="A264" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B264" t="s">
         <v>217</v>
@@ -59697,7 +59697,7 @@
         <v>14.079800000000001</v>
       </c>
       <c r="H264" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M264">
         <f t="shared" si="261"/>
@@ -59739,7 +59739,7 @@
     </row>
     <row r="265" spans="1:31">
       <c r="A265" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B265" t="s">
         <v>216</v>
@@ -59789,7 +59789,7 @@
     </row>
     <row r="266" spans="1:31">
       <c r="A266" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B266" t="s">
         <v>218</v>
@@ -59805,7 +59805,7 @@
         <v>13.7325</v>
       </c>
       <c r="H266" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M266">
         <f t="shared" si="261"/>
@@ -59863,7 +59863,7 @@
     </row>
     <row r="267" spans="1:31">
       <c r="A267" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B267" t="s">
         <v>217</v>
@@ -59879,7 +59879,7 @@
         <v>13.579000000000001</v>
       </c>
       <c r="H267" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M267">
         <f t="shared" si="261"/>
@@ -59921,7 +59921,7 @@
     </row>
     <row r="268" spans="1:31">
       <c r="A268" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B268" t="s">
         <v>216</v>
@@ -59971,7 +59971,7 @@
     </row>
     <row r="269" spans="1:31">
       <c r="A269" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B269" t="s">
         <v>218</v>
@@ -59987,7 +59987,7 @@
         <v>13.515499999999999</v>
       </c>
       <c r="H269" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M269">
         <f t="shared" si="261"/>
@@ -60045,7 +60045,7 @@
     </row>
     <row r="270" spans="1:31">
       <c r="A270" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B270" t="s">
         <v>217</v>
@@ -60061,7 +60061,7 @@
         <v>13.515599999999999</v>
       </c>
       <c r="H270" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M270">
         <f t="shared" si="261"/>
@@ -60103,7 +60103,7 @@
     </row>
     <row r="271" spans="1:31">
       <c r="A271" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B271" t="s">
         <v>216</v>
@@ -60117,7 +60117,7 @@
         <v>13.549099999999999</v>
       </c>
       <c r="H271" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M271">
         <f t="shared" si="261"/>
@@ -60158,7 +60158,7 @@
     </row>
     <row r="272" spans="1:31">
       <c r="A272" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B272" t="s">
         <v>218</v>
@@ -60174,7 +60174,7 @@
         <v>14.141999999999999</v>
       </c>
       <c r="H272" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M272">
         <f t="shared" si="261"/>
@@ -60232,7 +60232,7 @@
     </row>
     <row r="273" spans="1:31">
       <c r="A273" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B273" t="s">
         <v>217</v>
@@ -60248,7 +60248,7 @@
         <v>13.542400000000001</v>
       </c>
       <c r="H273" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M273">
         <f t="shared" si="261"/>
@@ -60290,7 +60290,7 @@
     </row>
     <row r="274" spans="1:31">
       <c r="A274" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B274" t="s">
         <v>216</v>
@@ -60340,7 +60340,7 @@
     </row>
     <row r="275" spans="1:31">
       <c r="A275" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B275" t="s">
         <v>218</v>
@@ -60411,7 +60411,7 @@
     </row>
     <row r="276" spans="1:31">
       <c r="A276" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B276" t="s">
         <v>217</v>
@@ -60466,7 +60466,7 @@
     </row>
     <row r="277" spans="1:31">
       <c r="A277" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B277" t="s">
         <v>216</v>
@@ -60518,7 +60518,7 @@
     </row>
     <row r="278" spans="1:31">
       <c r="A278" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B278" t="s">
         <v>218</v>
@@ -60585,7 +60585,7 @@
     </row>
     <row r="279" spans="1:31">
       <c r="A279" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B279" t="s">
         <v>217</v>
@@ -60596,7 +60596,7 @@
       <c r="D279" s="56"/>
       <c r="E279" s="55"/>
       <c r="F279" s="48" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M279">
         <f t="shared" si="261"/>
@@ -60638,7 +60638,7 @@
     </row>
     <row r="280" spans="1:31">
       <c r="A280" s="48" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B280" s="48" t="s">
         <v>216</v>
@@ -60692,7 +60692,7 @@
     </row>
     <row r="281" spans="1:31">
       <c r="A281" s="58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B281" t="s">
         <v>218</v>
@@ -60708,7 +60708,7 @@
         <v>14.2049</v>
       </c>
       <c r="H281" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M281">
         <f t="shared" si="261"/>
@@ -60766,7 +60766,7 @@
     </row>
     <row r="282" spans="1:31">
       <c r="A282" s="58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B282" t="s">
         <v>217</v>
@@ -60782,7 +60782,7 @@
         <v>13.552199999999999</v>
       </c>
       <c r="H282" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M282">
         <f t="shared" si="261"/>
@@ -60824,7 +60824,7 @@
     </row>
     <row r="283" spans="1:31">
       <c r="A283" s="58" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B283" t="s">
         <v>216</v>
@@ -60838,7 +60838,7 @@
         <v>14.203099999999999</v>
       </c>
       <c r="H283" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M283">
         <f t="shared" si="261"/>
@@ -60879,7 +60879,7 @@
     </row>
     <row r="284" spans="1:31">
       <c r="A284" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B284" t="s">
         <v>218</v>
@@ -60950,7 +60950,7 @@
     </row>
     <row r="285" spans="1:31">
       <c r="A285" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B285" t="s">
         <v>217</v>
@@ -61005,7 +61005,7 @@
     </row>
     <row r="286" spans="1:31">
       <c r="A286" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B286" t="s">
         <v>216</v>
@@ -61021,7 +61021,7 @@
         <v>13.589600000000001</v>
       </c>
       <c r="H286" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M286">
         <f t="shared" si="261"/>
@@ -61062,7 +61062,7 @@
     </row>
     <row r="287" spans="1:31">
       <c r="A287" s="58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B287" t="s">
         <v>216</v>
@@ -61097,7 +61097,7 @@
     </row>
     <row r="288" spans="1:31">
       <c r="A288" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B288" t="s">
         <v>218</v>
@@ -61113,7 +61113,7 @@
         <v>14.125500000000001</v>
       </c>
       <c r="H288" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M288">
         <f t="shared" ref="M288:M320" si="292">C288</f>
@@ -61171,7 +61171,7 @@
     </row>
     <row r="289" spans="1:31">
       <c r="A289" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" t="s">
         <v>217</v>
@@ -61185,7 +61185,7 @@
         <v>13.580299999999999</v>
       </c>
       <c r="H289" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M289">
         <f t="shared" si="292"/>
@@ -61227,7 +61227,7 @@
     </row>
     <row r="290" spans="1:31">
       <c r="A290" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B290" t="s">
         <v>216</v>
@@ -61241,7 +61241,7 @@
         <v>13.581</v>
       </c>
       <c r="H290" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M290">
         <f t="shared" si="292"/>
@@ -61282,7 +61282,7 @@
     </row>
     <row r="291" spans="1:31">
       <c r="A291" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B291" t="s">
         <v>218</v>
@@ -61296,7 +61296,7 @@
         <v>13.632999999999999</v>
       </c>
       <c r="H291" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M291">
         <f t="shared" si="292"/>
@@ -61354,7 +61354,7 @@
     </row>
     <row r="292" spans="1:31">
       <c r="A292" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B292" t="s">
         <v>217</v>
@@ -61365,10 +61365,10 @@
       <c r="D292" s="56"/>
       <c r="E292" s="55"/>
       <c r="F292" s="48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H292" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M292">
         <f t="shared" si="292"/>
@@ -61410,7 +61410,7 @@
     </row>
     <row r="293" spans="1:31">
       <c r="A293" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B293" t="s">
         <v>216</v>
@@ -61462,7 +61462,7 @@
     </row>
     <row r="294" spans="1:31">
       <c r="A294" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B294" t="s">
         <v>218</v>
@@ -61476,7 +61476,7 @@
         <v>13.502000000000001</v>
       </c>
       <c r="H294" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M294">
         <f t="shared" si="292"/>
@@ -61534,7 +61534,7 @@
     </row>
     <row r="295" spans="1:31">
       <c r="A295" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B295" t="s">
         <v>217</v>
@@ -61548,7 +61548,7 @@
         <v>13.547700000000001</v>
       </c>
       <c r="H295" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M295">
         <f t="shared" si="292"/>
@@ -61590,7 +61590,7 @@
     </row>
     <row r="296" spans="1:31">
       <c r="A296" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B296" t="s">
         <v>216</v>
@@ -61642,7 +61642,7 @@
     </row>
     <row r="297" spans="1:31">
       <c r="A297" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B297" t="s">
         <v>217</v>
@@ -61711,7 +61711,7 @@
     </row>
     <row r="298" spans="1:31">
       <c r="A298" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B298" s="58" t="s">
         <v>216</v>
@@ -61723,7 +61723,7 @@
       <c r="E298" s="55"/>
       <c r="F298" s="56"/>
       <c r="H298" s="48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M298">
         <f t="shared" si="292"/>
@@ -61765,7 +61765,7 @@
     </row>
     <row r="299" spans="1:31">
       <c r="A299" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B299" s="58" t="s">
         <v>216</v>
@@ -61777,7 +61777,7 @@
       <c r="E299" s="55"/>
       <c r="F299" s="56"/>
       <c r="H299" s="48" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M299">
         <f t="shared" si="292"/>
@@ -61818,7 +61818,7 @@
     </row>
     <row r="300" spans="1:31">
       <c r="A300" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B300" t="s">
         <v>218</v>
@@ -61885,7 +61885,7 @@
     </row>
     <row r="301" spans="1:31">
       <c r="A301" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B301" t="s">
         <v>217</v>
@@ -61936,7 +61936,7 @@
     </row>
     <row r="302" spans="1:31">
       <c r="A302" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B302" t="s">
         <v>216</v>
@@ -61988,7 +61988,7 @@
     </row>
     <row r="303" spans="1:31">
       <c r="A303" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B303" t="s">
         <v>218</v>
@@ -62004,7 +62004,7 @@
         <v>13.6686</v>
       </c>
       <c r="H303" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M303">
         <f t="shared" si="292"/>
@@ -62062,7 +62062,7 @@
     </row>
     <row r="304" spans="1:31">
       <c r="A304" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B304" t="s">
         <v>217</v>
@@ -62078,7 +62078,7 @@
         <v>13.6105</v>
       </c>
       <c r="H304" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M304">
         <f t="shared" si="292"/>
@@ -62120,7 +62120,7 @@
     </row>
     <row r="305" spans="1:31">
       <c r="A305" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B305" t="s">
         <v>216</v>
@@ -62136,7 +62136,7 @@
         <v>14.202199999999999</v>
       </c>
       <c r="H305" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M305">
         <f t="shared" si="292"/>
@@ -62177,7 +62177,7 @@
     </row>
     <row r="306" spans="1:31">
       <c r="A306" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B306" t="s">
         <v>218</v>
@@ -62193,7 +62193,7 @@
         <v>13.478999999999999</v>
       </c>
       <c r="H306" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M306">
         <f t="shared" si="292"/>
@@ -62251,7 +62251,7 @@
     </row>
     <row r="307" spans="1:31">
       <c r="A307" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B307" t="s">
         <v>217</v>
@@ -62267,7 +62267,7 @@
         <v>13.5566</v>
       </c>
       <c r="H307" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M307">
         <f t="shared" si="292"/>
@@ -62309,7 +62309,7 @@
     </row>
     <row r="308" spans="1:31">
       <c r="A308" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B308" t="s">
         <v>216</v>
@@ -62361,7 +62361,7 @@
     </row>
     <row r="309" spans="1:31">
       <c r="A309" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B309" t="s">
         <v>218</v>
@@ -62377,7 +62377,7 @@
         <v>13.6937</v>
       </c>
       <c r="H309" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M309">
         <f t="shared" si="292"/>
@@ -62435,7 +62435,7 @@
     </row>
     <row r="310" spans="1:31">
       <c r="A310" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B310" t="s">
         <v>217</v>
@@ -62451,7 +62451,7 @@
         <v>14.1471</v>
       </c>
       <c r="H310" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M310">
         <f t="shared" si="292"/>
@@ -62493,7 +62493,7 @@
     </row>
     <row r="311" spans="1:31">
       <c r="A311" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B311" t="s">
         <v>216</v>
@@ -62545,7 +62545,7 @@
     </row>
     <row r="312" spans="1:31">
       <c r="A312" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B312" t="s">
         <v>218</v>
@@ -62616,7 +62616,7 @@
     </row>
     <row r="313" spans="1:31">
       <c r="A313" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B313" t="s">
         <v>217</v>
@@ -62671,7 +62671,7 @@
     </row>
     <row r="314" spans="1:31" ht="16">
       <c r="A314" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B314" t="s">
         <v>216</v>
@@ -62723,7 +62723,7 @@
     </row>
     <row r="315" spans="1:31">
       <c r="A315" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B315" t="s">
         <v>218</v>
@@ -62739,7 +62739,7 @@
         <v>14.142099999999999</v>
       </c>
       <c r="H315" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M315">
         <f t="shared" si="292"/>
@@ -62797,7 +62797,7 @@
     </row>
     <row r="316" spans="1:31">
       <c r="A316" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B316" t="s">
         <v>217</v>
@@ -62813,7 +62813,7 @@
         <v>14.1638</v>
       </c>
       <c r="H316" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M316">
         <f t="shared" si="292"/>
@@ -62855,7 +62855,7 @@
     </row>
     <row r="317" spans="1:31">
       <c r="A317" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B317" t="s">
         <v>216</v>
@@ -62907,7 +62907,7 @@
     </row>
     <row r="318" spans="1:31">
       <c r="A318" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B318" t="s">
         <v>216</v>
@@ -62923,7 +62923,7 @@
         <v>13.6256</v>
       </c>
       <c r="H318" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M318">
         <f t="shared" si="292"/>
@@ -62980,7 +62980,7 @@
     </row>
     <row r="319" spans="1:31">
       <c r="A319" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B319" t="s">
         <v>217</v>
@@ -62996,7 +62996,7 @@
         <v>13.55</v>
       </c>
       <c r="H319" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M319">
         <f t="shared" si="292"/>
@@ -63038,7 +63038,7 @@
     </row>
     <row r="320" spans="1:31">
       <c r="A320" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B320" t="s">
         <v>218</v>
@@ -63054,7 +63054,7 @@
         <v>14.124000000000001</v>
       </c>
       <c r="H320" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M320">
         <f t="shared" si="292"/>
@@ -63096,7 +63096,7 @@
     </row>
     <row r="321" spans="1:31">
       <c r="A321" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B321" t="s">
         <v>216</v>
@@ -63112,7 +63112,7 @@
         <v>13.4939</v>
       </c>
       <c r="H321" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M321">
         <f t="shared" ref="M321:M376" si="315">C321</f>
@@ -63169,7 +63169,7 @@
     </row>
     <row r="322" spans="1:31">
       <c r="A322" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B322" t="s">
         <v>217</v>
@@ -63185,7 +63185,7 @@
         <v>13.5625</v>
       </c>
       <c r="H322" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M322">
         <f t="shared" si="315"/>
@@ -63227,7 +63227,7 @@
     </row>
     <row r="323" spans="1:31">
       <c r="A323" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B323" t="s">
         <v>218</v>
@@ -63243,7 +63243,7 @@
         <v>14.241300000000001</v>
       </c>
       <c r="H323" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M323">
         <f t="shared" si="315"/>
@@ -63285,7 +63285,7 @@
     </row>
     <row r="324" spans="1:31">
       <c r="A324" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B324" t="s">
         <v>216</v>
@@ -63301,7 +63301,7 @@
         <v>13.5595</v>
       </c>
       <c r="H324" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M324">
         <f t="shared" si="315"/>
@@ -63358,7 +63358,7 @@
     </row>
     <row r="325" spans="1:31">
       <c r="A325" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B325" t="s">
         <v>217</v>
@@ -63409,7 +63409,7 @@
     </row>
     <row r="326" spans="1:31">
       <c r="A326" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B326" t="s">
         <v>218</v>
@@ -63460,7 +63460,7 @@
     </row>
     <row r="327" spans="1:31">
       <c r="A327" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B327" t="s">
         <v>216</v>
@@ -63476,7 +63476,7 @@
         <v>13.5845</v>
       </c>
       <c r="H327" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M327">
         <f t="shared" si="315"/>
@@ -63533,7 +63533,7 @@
     </row>
     <row r="328" spans="1:31">
       <c r="A328" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B328" t="s">
         <v>217</v>
@@ -63549,7 +63549,7 @@
         <v>14.1698</v>
       </c>
       <c r="H328" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M328">
         <f t="shared" si="315"/>
@@ -63591,7 +63591,7 @@
     </row>
     <row r="329" spans="1:31">
       <c r="A329" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B329" t="s">
         <v>218</v>
@@ -63607,7 +63607,7 @@
         <v>13.5185</v>
       </c>
       <c r="H329" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M329">
         <f t="shared" si="315"/>
@@ -63649,7 +63649,7 @@
     </row>
     <row r="330" spans="1:31">
       <c r="A330" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B330" t="s">
         <v>216</v>
@@ -63665,7 +63665,7 @@
         <v>13.5421</v>
       </c>
       <c r="H330" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M330">
         <f t="shared" si="315"/>
@@ -63722,7 +63722,7 @@
     </row>
     <row r="331" spans="1:31">
       <c r="A331" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B331" t="s">
         <v>217</v>
@@ -63738,7 +63738,7 @@
         <v>13.640700000000001</v>
       </c>
       <c r="H331" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M331">
         <f t="shared" si="315"/>
@@ -63780,7 +63780,7 @@
     </row>
     <row r="332" spans="1:31">
       <c r="A332" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B332" t="s">
         <v>218</v>
@@ -63796,7 +63796,7 @@
         <v>14.206200000000001</v>
       </c>
       <c r="H332" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M332">
         <f t="shared" si="315"/>
@@ -63838,7 +63838,7 @@
     </row>
     <row r="333" spans="1:31">
       <c r="A333" s="58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B333" t="s">
         <v>216</v>
@@ -63854,7 +63854,7 @@
         <v>13.545299999999999</v>
       </c>
       <c r="H333" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M333">
         <f t="shared" si="315"/>
@@ -63911,7 +63911,7 @@
     </row>
     <row r="334" spans="1:31">
       <c r="A334" s="58" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B334" t="s">
         <v>217</v>
@@ -63927,7 +63927,7 @@
         <v>14.146100000000001</v>
       </c>
       <c r="H334" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M334">
         <f t="shared" si="315"/>
@@ -63969,7 +63969,7 @@
     </row>
     <row r="335" spans="1:31">
       <c r="A335" s="58" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B335" t="s">
         <v>218</v>
@@ -63985,7 +63985,7 @@
         <v>14.1463</v>
       </c>
       <c r="H335" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M335">
         <f t="shared" si="315"/>
@@ -64027,7 +64027,7 @@
     </row>
     <row r="336" spans="1:31">
       <c r="A336" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B336" t="s">
         <v>216</v>
@@ -64043,7 +64043,7 @@
         <v>13.5715</v>
       </c>
       <c r="H336" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M336">
         <f t="shared" si="315"/>
@@ -64100,7 +64100,7 @@
     </row>
     <row r="337" spans="1:31">
       <c r="A337" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B337" t="s">
         <v>217</v>
@@ -64116,7 +64116,7 @@
         <v>13.5771</v>
       </c>
       <c r="H337" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M337">
         <f t="shared" si="315"/>
@@ -64158,7 +64158,7 @@
     </row>
     <row r="338" spans="1:31">
       <c r="A338" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B338" t="s">
         <v>218</v>
@@ -64174,7 +64174,7 @@
         <v>13.5693</v>
       </c>
       <c r="H338" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M338">
         <f t="shared" si="315"/>
@@ -64216,7 +64216,7 @@
     </row>
     <row r="339" spans="1:31">
       <c r="A339" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B339" t="s">
         <v>216</v>
@@ -64282,7 +64282,7 @@
     </row>
     <row r="340" spans="1:31">
       <c r="A340" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B340" t="s">
         <v>217</v>
@@ -64291,14 +64291,14 @@
         <v>100.04</v>
       </c>
       <c r="D340" s="48" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E340" s="48"/>
       <c r="F340" s="48">
         <v>13.5092</v>
       </c>
       <c r="H340" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M340">
         <f t="shared" si="315"/>
@@ -64340,7 +64340,7 @@
     </row>
     <row r="341" spans="1:31">
       <c r="A341" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B341" t="s">
         <v>218</v>
@@ -64349,14 +64349,14 @@
         <v>60.93</v>
       </c>
       <c r="D341" s="48" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E341" s="48"/>
       <c r="F341" s="48">
         <v>14.0975</v>
       </c>
       <c r="H341" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M341">
         <f t="shared" si="315"/>
@@ -64398,7 +64398,7 @@
     </row>
     <row r="342" spans="1:31">
       <c r="A342" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B342" t="s">
         <v>216</v>
@@ -64414,7 +64414,7 @@
         <v>13.6381</v>
       </c>
       <c r="H342" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M342">
         <f t="shared" si="315"/>
@@ -64471,7 +64471,7 @@
     </row>
     <row r="343" spans="1:31">
       <c r="A343" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B343" t="s">
         <v>217</v>
@@ -64487,7 +64487,7 @@
         <v>13.5565</v>
       </c>
       <c r="H343" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M343">
         <f t="shared" si="315"/>
@@ -64529,7 +64529,7 @@
     </row>
     <row r="344" spans="1:31">
       <c r="A344" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B344" t="s">
         <v>218</v>
@@ -64545,7 +64545,7 @@
         <v>14.172499999999999</v>
       </c>
       <c r="H344" s="48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M344">
         <f t="shared" si="315"/>
@@ -64587,7 +64587,7 @@
     </row>
     <row r="345" spans="1:31">
       <c r="A345" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B345" t="s">
         <v>216</v>
@@ -64632,25 +64632,25 @@
         <v>15.209999999999999</v>
       </c>
       <c r="AB345" s="46">
-        <f t="shared" ref="AB345:AB377" si="362">100*(X347-X346)/X345</f>
+        <f t="shared" ref="AB345" si="362">100*(X347-X346)/X345</f>
         <v>15.52377777777777</v>
       </c>
       <c r="AC345" s="46">
-        <f t="shared" ref="AC345:AC377" si="363">100*(((K346-K347)*0.027)/C346)</f>
+        <f t="shared" ref="AC345" si="363">100*(((K346-K347)*0.027)/C346)</f>
         <v>0</v>
       </c>
       <c r="AD345" s="46">
-        <f t="shared" ref="AD345:AD377" si="364">(1000*(((K346-K347)*0.027)/55.85))/(C346/1000)</f>
+        <f t="shared" ref="AD345" si="364">(1000*(((K346-K347)*0.027)/55.85))/(C346/1000)</f>
         <v>0</v>
       </c>
       <c r="AE345" s="46">
-        <f t="shared" ref="AE345:AE377" si="365">1000000*(X347-X346)/55.85/100</f>
+        <f t="shared" ref="AE345" si="365">1000000*(X347-X346)/55.85/100</f>
         <v>422.76931065353602</v>
       </c>
     </row>
     <row r="346" spans="1:31">
       <c r="A346" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B346" t="s">
         <v>217</v>
@@ -64698,7 +64698,7 @@
     </row>
     <row r="347" spans="1:31">
       <c r="A347" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B347" t="s">
         <v>218</v>
@@ -64746,7 +64746,7 @@
     </row>
     <row r="348" spans="1:31">
       <c r="A348" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B348" t="s">
         <v>216</v>
@@ -64791,25 +64791,25 @@
         <v>8.7110000000000003</v>
       </c>
       <c r="AB348" s="46">
-        <f t="shared" ref="AB348:AB377" si="369">100*(X350-X349)/X348</f>
+        <f t="shared" ref="AB348" si="369">100*(X350-X349)/X348</f>
         <v>28.201994030536092</v>
       </c>
       <c r="AC348" s="46">
-        <f t="shared" ref="AC348:AC377" si="370">100*(((K349-K350)*0.027)/C349)</f>
+        <f t="shared" ref="AC348" si="370">100*(((K349-K350)*0.027)/C349)</f>
         <v>0</v>
       </c>
       <c r="AD348" s="46">
-        <f t="shared" ref="AD348:AD377" si="371">(1000*(((K349-K350)*0.027)/55.85))/(C349/1000)</f>
+        <f t="shared" ref="AD348" si="371">(1000*(((K349-K350)*0.027)/55.85))/(C349/1000)</f>
         <v>0</v>
       </c>
       <c r="AE348" s="46">
-        <f t="shared" ref="AE348:AE377" si="372">1000000*(X350-X349)/55.85/100</f>
+        <f t="shared" ref="AE348" si="372">1000000*(X350-X349)/55.85/100</f>
         <v>439.8703133393015</v>
       </c>
     </row>
     <row r="349" spans="1:31">
       <c r="A349" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B349" t="s">
         <v>217</v>
@@ -64830,7 +64830,7 @@
         <v>74.89</v>
       </c>
       <c r="P349">
-        <f t="shared" ref="P349:P377" si="373">(N349-M349)/N349</f>
+        <f t="shared" ref="P349:P350" si="373">(N349-M349)/N349</f>
         <v>-0.33529176124983306</v>
       </c>
       <c r="S349">
@@ -64857,7 +64857,7 @@
     </row>
     <row r="350" spans="1:31">
       <c r="A350" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B350" t="s">
         <v>218</v>
@@ -64905,7 +64905,7 @@
     </row>
     <row r="351" spans="1:31">
       <c r="A351" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B351" t="s">
         <v>216</v>
@@ -64950,25 +64950,25 @@
         <v>11.016999999999999</v>
       </c>
       <c r="AB351" s="46">
-        <f t="shared" ref="AB351:AB377" si="374">100*(X353-X352)/X351</f>
+        <f t="shared" ref="AB351" si="374">100*(X353-X352)/X351</f>
         <v>13.175851865299078</v>
       </c>
       <c r="AC351" s="46">
-        <f t="shared" ref="AC351:AC377" si="375">100*(((K352-K353)*0.027)/C352)</f>
+        <f t="shared" ref="AC351" si="375">100*(((K352-K353)*0.027)/C352)</f>
         <v>0</v>
       </c>
       <c r="AD351" s="46">
-        <f t="shared" ref="AD351:AD377" si="376">(1000*(((K352-K353)*0.027)/55.85))/(C352/1000)</f>
+        <f t="shared" ref="AD351" si="376">(1000*(((K352-K353)*0.027)/55.85))/(C352/1000)</f>
         <v>0</v>
       </c>
       <c r="AE351" s="46">
-        <f t="shared" ref="AE351:AE377" si="377">1000000*(X353-X352)/55.85/100</f>
+        <f t="shared" ref="AE351" si="377">1000000*(X353-X352)/55.85/100</f>
         <v>259.90753804834367</v>
       </c>
     </row>
     <row r="352" spans="1:31">
       <c r="A352" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B352" t="s">
         <v>217</v>
@@ -64989,7 +64989,7 @@
         <v>83.38</v>
       </c>
       <c r="P352">
-        <f t="shared" ref="P352:P377" si="378">(N352-M352)/N352</f>
+        <f t="shared" ref="P352:P353" si="378">(N352-M352)/N352</f>
         <v>-0.19932837610937881</v>
       </c>
       <c r="S352">
@@ -65016,7 +65016,7 @@
     </row>
     <row r="353" spans="1:31">
       <c r="A353" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B353" t="s">
         <v>218</v>
@@ -65064,7 +65064,7 @@
     </row>
     <row r="354" spans="1:31">
       <c r="A354" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B354" t="s">
         <v>216</v>
@@ -65109,25 +65109,25 @@
         <v>8.9009999999999998</v>
       </c>
       <c r="AB354" s="46">
-        <f t="shared" ref="AB354:AB377" si="379">100*(X356-X355)/X354</f>
+        <f t="shared" ref="AB354" si="379">100*(X356-X355)/X354</f>
         <v>11.972422199752847</v>
       </c>
       <c r="AC354" s="46">
-        <f t="shared" ref="AC354:AC377" si="380">100*(((K355-K356)*0.027)/C355)</f>
+        <f t="shared" ref="AC354" si="380">100*(((K355-K356)*0.027)/C355)</f>
         <v>0</v>
       </c>
       <c r="AD354" s="46">
-        <f t="shared" ref="AD354:AD377" si="381">(1000*(((K355-K356)*0.027)/55.85))/(C355/1000)</f>
+        <f t="shared" ref="AD354" si="381">(1000*(((K355-K356)*0.027)/55.85))/(C355/1000)</f>
         <v>0</v>
       </c>
       <c r="AE354" s="46">
-        <f t="shared" ref="AE354:AE377" si="382">1000000*(X356-X355)/55.85/100</f>
+        <f t="shared" ref="AE354" si="382">1000000*(X356-X355)/55.85/100</f>
         <v>190.80846911369758</v>
       </c>
     </row>
     <row r="355" spans="1:31">
       <c r="A355" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B355" t="s">
         <v>217</v>
@@ -65148,7 +65148,7 @@
         <v>94.96</v>
       </c>
       <c r="P355">
-        <f t="shared" ref="P355:P377" si="383">(N355-M355)/N355</f>
+        <f t="shared" ref="P355:P356" si="383">(N355-M355)/N355</f>
         <v>-5.3074978938500487E-2</v>
       </c>
       <c r="S355">
@@ -65175,7 +65175,7 @@
     </row>
     <row r="356" spans="1:31">
       <c r="A356" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B356" t="s">
         <v>218</v>
@@ -65223,7 +65223,7 @@
     </row>
     <row r="357" spans="1:31">
       <c r="A357" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B357" t="s">
         <v>216</v>
@@ -65268,25 +65268,25 @@
         <v>9.979000000000001</v>
       </c>
       <c r="AB357" s="46">
-        <f t="shared" ref="AB357:AB377" si="384">100*(X359-X358)/X357</f>
+        <f t="shared" ref="AB357" si="384">100*(X359-X358)/X357</f>
         <v>7.1363302936165951</v>
       </c>
       <c r="AC357" s="46">
-        <f t="shared" ref="AC357:AC377" si="385">100*(((K358-K359)*0.027)/C358)</f>
+        <f t="shared" ref="AC357" si="385">100*(((K358-K359)*0.027)/C358)</f>
         <v>0</v>
       </c>
       <c r="AD357" s="46">
-        <f t="shared" ref="AD357:AD377" si="386">(1000*(((K358-K359)*0.027)/55.85))/(C358/1000)</f>
+        <f t="shared" ref="AD357" si="386">(1000*(((K358-K359)*0.027)/55.85))/(C358/1000)</f>
         <v>0</v>
       </c>
       <c r="AE357" s="46">
-        <f t="shared" ref="AE357:AE377" si="387">1000000*(X359-X358)/55.85/100</f>
+        <f t="shared" ref="AE357" si="387">1000000*(X359-X358)/55.85/100</f>
         <v>127.5083974932856</v>
       </c>
     </row>
     <row r="358" spans="1:31">
       <c r="A358" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B358" t="s">
         <v>217</v>
@@ -65307,7 +65307,7 @@
         <v>100.24</v>
       </c>
       <c r="P358">
-        <f t="shared" ref="P358:P377" si="388">(N358-M358)/N358</f>
+        <f t="shared" ref="P358:P359" si="388">(N358-M358)/N358</f>
         <v>2.3942537909017849E-3</v>
       </c>
       <c r="S358">
@@ -65334,7 +65334,7 @@
     </row>
     <row r="359" spans="1:31">
       <c r="A359" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B359" t="s">
         <v>218</v>
@@ -65382,7 +65382,7 @@
     </row>
     <row r="360" spans="1:31">
       <c r="A360" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B360" t="s">
         <v>216</v>
@@ -65427,25 +65427,25 @@
         <v>15.514000000000001</v>
       </c>
       <c r="AB360" s="46">
-        <f t="shared" ref="AB360:AB377" si="389">100*(X362-X361)/X360</f>
+        <f t="shared" ref="AB360" si="389">100*(X362-X361)/X360</f>
         <v>18.865009668686348</v>
       </c>
       <c r="AC360" s="46">
-        <f t="shared" ref="AC360:AC377" si="390">100*(((K361-K362)*0.027)/C361)</f>
+        <f t="shared" ref="AC360" si="390">100*(((K361-K362)*0.027)/C361)</f>
         <v>0</v>
       </c>
       <c r="AD360" s="46">
-        <f t="shared" ref="AD360:AD377" si="391">(1000*(((K361-K362)*0.027)/55.85))/(C361/1000)</f>
+        <f t="shared" ref="AD360" si="391">(1000*(((K361-K362)*0.027)/55.85))/(C361/1000)</f>
         <v>0</v>
       </c>
       <c r="AE360" s="46">
-        <f t="shared" ref="AE360:AE377" si="392">1000000*(X362-X361)/55.85/100</f>
+        <f t="shared" ref="AE360" si="392">1000000*(X362-X361)/55.85/100</f>
         <v>524.03179946284695</v>
       </c>
     </row>
     <row r="361" spans="1:31">
       <c r="A361" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B361" t="s">
         <v>217</v>
@@ -65466,7 +65466,7 @@
         <v>57.89</v>
       </c>
       <c r="P361">
-        <f t="shared" ref="P361:P377" si="393">(N361-M361)/N361</f>
+        <f t="shared" ref="P361:P362" si="393">(N361-M361)/N361</f>
         <v>-0.7274140611504577</v>
       </c>
       <c r="S361">
@@ -65493,7 +65493,7 @@
     </row>
     <row r="362" spans="1:31">
       <c r="A362" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B362" t="s">
         <v>218</v>
@@ -65541,7 +65541,7 @@
     </row>
     <row r="363" spans="1:31">
       <c r="A363" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B363" t="s">
         <v>216</v>
@@ -65586,25 +65586,25 @@
         <v>12.365</v>
       </c>
       <c r="AB363" s="46">
-        <f t="shared" ref="AB363:AB377" si="394">100*(X365-X364)/X363</f>
+        <f t="shared" ref="AB363" si="394">100*(X365-X364)/X363</f>
         <v>12.761145167812378</v>
       </c>
       <c r="AC363" s="46">
-        <f t="shared" ref="AC363:AC377" si="395">100*(((K364-K365)*0.027)/C364)</f>
+        <f t="shared" ref="AC363" si="395">100*(((K364-K365)*0.027)/C364)</f>
         <v>0</v>
       </c>
       <c r="AD363" s="46">
-        <f t="shared" ref="AD363:AD377" si="396">(1000*(((K364-K365)*0.027)/55.85))/(C364/1000)</f>
+        <f t="shared" ref="AD363" si="396">(1000*(((K364-K365)*0.027)/55.85))/(C364/1000)</f>
         <v>0</v>
       </c>
       <c r="AE363" s="46">
-        <f t="shared" ref="AE363:AE377" si="397">1000000*(X365-X364)/55.85/100</f>
+        <f t="shared" ref="AE363" si="397">1000000*(X365-X364)/55.85/100</f>
         <v>282.52741271262323</v>
       </c>
     </row>
     <row r="364" spans="1:31">
       <c r="A364" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B364" t="s">
         <v>217</v>
@@ -65625,7 +65625,7 @@
         <v>93.5</v>
       </c>
       <c r="P364">
-        <f t="shared" ref="P364:P377" si="398">(N364-M364)/N364</f>
+        <f t="shared" ref="P364:P365" si="398">(N364-M364)/N364</f>
         <v>-6.9518716577540107E-2</v>
       </c>
       <c r="S364">
@@ -65652,7 +65652,7 @@
     </row>
     <row r="365" spans="1:31">
       <c r="A365" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B365" t="s">
         <v>218</v>
@@ -65700,7 +65700,7 @@
     </row>
     <row r="366" spans="1:31">
       <c r="A366" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B366" t="s">
         <v>216</v>
@@ -65745,25 +65745,25 @@
         <v>6.5259999999999998</v>
       </c>
       <c r="AB366" s="46">
-        <f t="shared" ref="AB366:AB377" si="399">100*(X368-X367)/X366</f>
+        <f t="shared" ref="AB366" si="399">100*(X368-X367)/X366</f>
         <v>29.351543058535093</v>
       </c>
       <c r="AC366" s="46">
-        <f t="shared" ref="AC366:AC377" si="400">100*(((K367-K368)*0.027)/C367)</f>
+        <f t="shared" ref="AC366" si="400">100*(((K367-K368)*0.027)/C367)</f>
         <v>0</v>
       </c>
       <c r="AD366" s="46">
-        <f t="shared" ref="AD366:AD377" si="401">(1000*(((K367-K368)*0.027)/55.85))/(C367/1000)</f>
+        <f t="shared" ref="AD366" si="401">(1000*(((K367-K368)*0.027)/55.85))/(C367/1000)</f>
         <v>0</v>
       </c>
       <c r="AE366" s="46">
-        <f t="shared" ref="AE366:AE377" si="402">1000000*(X368-X367)/55.85/100</f>
+        <f t="shared" ref="AE366" si="402">1000000*(X368-X367)/55.85/100</f>
         <v>342.96897045658011</v>
       </c>
     </row>
     <row r="367" spans="1:31">
       <c r="A367" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B367" t="s">
         <v>217</v>
@@ -65784,7 +65784,7 @@
         <v>74.16</v>
       </c>
       <c r="P367">
-        <f t="shared" ref="P367:P377" si="403">(N367-M367)/N367</f>
+        <f t="shared" ref="P367:P368" si="403">(N367-M367)/N367</f>
         <v>-0.34843581445523197</v>
       </c>
       <c r="S367">
@@ -65811,7 +65811,7 @@
     </row>
     <row r="368" spans="1:31">
       <c r="A368" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B368" t="s">
         <v>218</v>
@@ -65859,7 +65859,7 @@
     </row>
     <row r="369" spans="1:31">
       <c r="A369" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B369" t="s">
         <v>216</v>
@@ -65904,25 +65904,25 @@
         <v>5.5779999999999994</v>
       </c>
       <c r="AB369" s="46">
-        <f t="shared" ref="AB369:AB377" si="404">100*(X371-X370)/X369</f>
+        <f t="shared" ref="AB369" si="404">100*(X371-X370)/X369</f>
         <v>30.264702402294727</v>
       </c>
       <c r="AC369" s="46">
-        <f t="shared" ref="AC369:AC377" si="405">100*(((K370-K371)*0.027)/C370)</f>
+        <f t="shared" ref="AC369" si="405">100*(((K370-K371)*0.027)/C370)</f>
         <v>0</v>
       </c>
       <c r="AD369" s="46">
-        <f t="shared" ref="AD369:AD377" si="406">(1000*(((K370-K371)*0.027)/55.85))/(C370/1000)</f>
+        <f t="shared" ref="AD369" si="406">(1000*(((K370-K371)*0.027)/55.85))/(C370/1000)</f>
         <v>0</v>
       </c>
       <c r="AE369" s="46">
-        <f t="shared" ref="AE369:AE377" si="407">1000000*(X371-X370)/55.85/100</f>
+        <f t="shared" ref="AE369" si="407">1000000*(X371-X370)/55.85/100</f>
         <v>302.26769919427028</v>
       </c>
     </row>
     <row r="370" spans="1:31">
       <c r="A370" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B370" t="s">
         <v>217</v>
@@ -65943,7 +65943,7 @@
         <v>70.790000000000006</v>
       </c>
       <c r="P370">
-        <f t="shared" ref="P370:P377" si="408">(N370-M370)/N370</f>
+        <f t="shared" ref="P370:P371" si="408">(N370-M370)/N370</f>
         <v>-0.41262890238734273</v>
       </c>
       <c r="S370">
@@ -65970,7 +65970,7 @@
     </row>
     <row r="371" spans="1:31">
       <c r="A371" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B371" t="s">
         <v>218</v>
@@ -66018,7 +66018,7 @@
     </row>
     <row r="372" spans="1:31">
       <c r="A372" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B372" t="s">
         <v>216</v>
@@ -66063,25 +66063,25 @@
         <v>6.5990000000000002</v>
       </c>
       <c r="AB372" s="46">
-        <f t="shared" ref="AB372:AB377" si="409">100*(X374-X373)/X372</f>
+        <f t="shared" ref="AB372" si="409">100*(X374-X373)/X372</f>
         <v>33.514650704652219</v>
       </c>
       <c r="AC372" s="46">
-        <f t="shared" ref="AC372:AC377" si="410">100*(((K373-K374)*0.027)/C373)</f>
+        <f t="shared" ref="AC372" si="410">100*(((K373-K374)*0.027)/C373)</f>
         <v>0</v>
       </c>
       <c r="AD372" s="46">
-        <f t="shared" ref="AD372:AD377" si="411">(1000*(((K373-K374)*0.027)/55.85))/(C373/1000)</f>
+        <f t="shared" ref="AD372" si="411">(1000*(((K373-K374)*0.027)/55.85))/(C373/1000)</f>
         <v>0</v>
       </c>
       <c r="AE372" s="46">
-        <f t="shared" ref="AE372:AE377" si="412">1000000*(X374-X373)/55.85/100</f>
+        <f t="shared" ref="AE372" si="412">1000000*(X374-X373)/55.85/100</f>
         <v>395.99495076096684</v>
       </c>
     </row>
     <row r="373" spans="1:31">
       <c r="A373" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B373" t="s">
         <v>217</v>
@@ -66102,7 +66102,7 @@
         <v>65.02</v>
       </c>
       <c r="P373">
-        <f t="shared" ref="P373:P377" si="413">(N373-M373)/N373</f>
+        <f t="shared" ref="P373:P374" si="413">(N373-M373)/N373</f>
         <v>-0.53798831128883429</v>
       </c>
       <c r="S373">
@@ -66129,7 +66129,7 @@
     </row>
     <row r="374" spans="1:31">
       <c r="A374" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B374" t="s">
         <v>218</v>
@@ -66177,7 +66177,7 @@
     </row>
     <row r="375" spans="1:31">
       <c r="A375" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B375" t="s">
         <v>216</v>
@@ -66222,25 +66222,25 @@
         <v>11.568</v>
       </c>
       <c r="AB375" s="46">
-        <f t="shared" ref="AB375:AB377" si="414">100*(X377-X376)/X375</f>
+        <f t="shared" ref="AB375" si="414">100*(X377-X376)/X375</f>
         <v>17.745433091286309</v>
       </c>
       <c r="AC375" s="46">
-        <f t="shared" ref="AC375:AC377" si="415">100*(((K376-K377)*0.027)/C376)</f>
+        <f t="shared" ref="AC375" si="415">100*(((K376-K377)*0.027)/C376)</f>
         <v>0</v>
       </c>
       <c r="AD375" s="46">
-        <f t="shared" ref="AD375:AD377" si="416">(1000*(((K376-K377)*0.027)/55.85))/(C376/1000)</f>
+        <f t="shared" ref="AD375" si="416">(1000*(((K376-K377)*0.027)/55.85))/(C376/1000)</f>
         <v>0</v>
       </c>
       <c r="AE375" s="46">
-        <f t="shared" ref="AE375:AE377" si="417">1000000*(X377-X376)/55.85/100</f>
+        <f t="shared" ref="AE375" si="417">1000000*(X377-X376)/55.85/100</f>
         <v>367.55446732318711</v>
       </c>
     </row>
     <row r="376" spans="1:31">
       <c r="A376" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B376" t="s">
         <v>217</v>
@@ -66288,7 +66288,7 @@
     </row>
     <row r="377" spans="1:31">
       <c r="A377" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B377" t="s">
         <v>218</v>
